--- a/UCED/Validation_and_Price_Calculation/weighted_daily_prices.xlsx
+++ b/UCED/Validation_and_Price_Calculation/weighted_daily_prices.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56.30246025427267</v>
+        <v>56.25819957329556</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56.12196261224553</v>
+        <v>56.07801218513846</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60.91404009800034</v>
+        <v>60.86185266257682</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64.77334829124528</v>
+        <v>64.71452716640751</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68.84542027446686</v>
+        <v>68.77959974469655</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88.93379656360675</v>
+        <v>88.83344651651097</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>88.11611189078111</v>
+        <v>88.01716734588588</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59.98829047033713</v>
+        <v>59.93769428785097</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>70.02292086279967</v>
+        <v>69.95507635028531</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76.4311284948907</v>
+        <v>76.35226903953952</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>78.10424313644934</v>
+        <v>78.02250779704795</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76.63000409277073</v>
+        <v>76.55080279404183</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>79.17597362422374</v>
+        <v>79.09239610823565</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>77.59499681433398</v>
+        <v>77.51413680848012</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>87.74917404829093</v>
+        <v>87.65086022567945</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>56.12961424964205</v>
+        <v>56.08565067028338</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>61.4013129369131</v>
+        <v>61.34828793773147</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>57.6324356071208</v>
+        <v>57.58588885750778</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>63.33715993915474</v>
+        <v>63.2808074504</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>64.89092720049565</v>
+        <v>64.83190397156834</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>57.89122957506778</v>
+        <v>57.84423798956238</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>49.67673757109323</v>
+        <v>49.64386571532019</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>69.29331774224637</v>
+        <v>69.22672733027355</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>69.71786109550239</v>
+        <v>69.65054094425747</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>69.22208090474659</v>
+        <v>69.15561294038066</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>79.02721497030679</v>
+        <v>78.94389315266132</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>65.85981079019611</v>
+        <v>65.79912216620492</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>67.80761414354392</v>
+        <v>67.74357747844486</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>79.38331763490159</v>
+        <v>79.29938371934691</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>82.63345489377106</v>
+        <v>82.5439343808159</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87.45889474911191</v>
+        <v>87.36107988191341</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>78.9308273085543</v>
+        <v>78.84767116977541</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>76.91547835389964</v>
+        <v>76.83578635904674</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>61.22238321692375</v>
+        <v>61.16966577653903</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>83.8170816959654</v>
+        <v>83.7255266700362</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>77.04665475800984</v>
+        <v>76.96673728659897</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>65.3617511701931</v>
+        <v>65.30191865114759</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>69.88848250818036</v>
+        <v>69.82086907912412</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>79.50849539205855</v>
+        <v>79.42434631090302</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>84.35861742221086</v>
+        <v>84.26613156110707</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>102.8208359389981</v>
+        <v>102.6966157313771</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>124.2472001994855</v>
+        <v>124.0861506331709</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>109.3933325179177</v>
+        <v>109.2578149744048</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>146.1166038371147</v>
+        <v>145.9179633803788</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>141.1815213043236</v>
+        <v>140.9913636644829</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>135.8172779257301</v>
+        <v>135.6363407789761</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>125.226180779783</v>
+        <v>125.0634484628839</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>134.3574517137994</v>
+        <v>134.1790238337864</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>126.066684794895</v>
+        <v>125.9025077520733</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>107.528872075215</v>
+        <v>107.3965593163097</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>91.67037444940696</v>
+        <v>91.56532055207654</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>113.2115521181903</v>
+        <v>113.0694715116398</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>128.2119032412764</v>
+        <v>128.0440388243999</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>162.7898987302459</v>
+        <v>162.5625988728374</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>181.9086243291375</v>
+        <v>181.6484616680231</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>149.2872265868745</v>
+        <v>149.083136208674</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>127.9935379477692</v>
+        <v>127.8260488747285</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>103.2055794071774</v>
+        <v>103.0806978715287</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>101.2576352295045</v>
+        <v>101.1361019770278</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>89.83056747185846</v>
+        <v>89.72867598277546</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>83.11927161426037</v>
+        <v>83.0289160404392</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>56.34568657472381</v>
+        <v>56.30135159286982</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>88.43392925988054</v>
+        <v>88.33443842492115</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>97.5128998299141</v>
+        <v>97.39780332991455</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>53.98488761314719</v>
+        <v>53.944610562481</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>47.83836446249133</v>
+        <v>47.80865255031993</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>39.66700392486827</v>
+        <v>40.75342995814812</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>34.28368853665724</v>
+        <v>34.27727549197353</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>28.1870606211768</v>
+        <v>28.19112695104255</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>38.80271920859458</v>
+        <v>38.78853849042447</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>32.8972650831537</v>
+        <v>32.89323513464288</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>31.81949048445485</v>
+        <v>31.81731310163381</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>38.28042587871404</v>
+        <v>38.2671429203393</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>39.71072283395769</v>
+        <v>39.69498136610515</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>41.927706096374</v>
+        <v>41.9081538993292</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>83.70515999981662</v>
+        <v>83.61379735390257</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>77.11159458166993</v>
+        <v>77.0315654864638</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>58.56705529970613</v>
+        <v>58.51890205057366</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>67.65924758347673</v>
+        <v>67.59546594275776</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>63.26970982314641</v>
+        <v>63.21347327307898</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>61.2831627475688</v>
+        <v>61.2303408344384</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>57.22781120309527</v>
+        <v>57.18195995446057</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>35.88403280372712</v>
+        <v>35.87486895856514</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>29.45892122118347</v>
+        <v>29.46080137472577</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>43.36922094363116</v>
+        <v>43.3471909548928</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>64.44933783256683</v>
+        <v>64.39107364297237</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>67.82561952921596</v>
+        <v>67.76155191500996</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>65.66675203444801</v>
+        <v>65.60639525538031</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>64.65607973054183</v>
+        <v>64.59746017633984</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>37.66312648161546</v>
+        <v>37.65090458710797</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>28.28109487812198</v>
+        <v>28.28499957434292</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>29.87727290636475</v>
+        <v>29.87843396337342</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>30.36144026940737</v>
+        <v>30.36176910059978</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>33.22937191309383</v>
+        <v>33.22477111264529</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>34.51728921831536</v>
+        <v>34.51047464198636</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>35.91452293713145</v>
+        <v>35.90530668307536</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>49.38546489395584</v>
+        <v>49.35309370109482</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>34.64875651975252</v>
+        <v>34.64171596684884</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31.70478766451505</v>
+        <v>31.70280744212916</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>26.09644305451879</v>
+        <v>26.10410290605407</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>29.80192536166523</v>
+        <v>29.80321593209573</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>28.82617271531662</v>
+        <v>28.82914048789755</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>29.58965579203176</v>
+        <v>29.59131122847619</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>31.21295118526304</v>
+        <v>31.21181637098708</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>25.84663916937406</v>
+        <v>25.85472840392428</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>24.95390996419941</v>
+        <v>24.96353369352998</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>20.54837823945526</v>
+        <v>20.56557455115002</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>25.47783838505656</v>
+        <v>25.48656154406618</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>26.60442253779583</v>
+        <v>26.61120923332678</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>27.62828983522799</v>
+        <v>27.63331662527566</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>31.14446229362729</v>
+        <v>31.14344520356912</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>31.09802092462805</v>
+        <v>31.09708366173119</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>32.92392321077058</v>
+        <v>32.91984744012585</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>28.21489290443687</v>
+        <v>28.21891139393483</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>27.11067158233062</v>
+        <v>27.11658809627537</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>27.46328210863875</v>
+        <v>27.46859252724198</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>26.57686197242596</v>
+        <v>26.58369604127404</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>29.16731876444364</v>
+        <v>29.16970014774903</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>25.08224826397181</v>
+        <v>25.0916513951077</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>21.09265046978079</v>
+        <v>21.10891124257798</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>20.46606981239155</v>
+        <v>20.48340760243273</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>19.20633480705477</v>
+        <v>19.2258379309723</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>20.49554308691576</v>
+        <v>20.51283021592178</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>21.10756654347541</v>
+        <v>21.1238016773251</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>23.34041053940622</v>
+        <v>23.35280768135787</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>21.26814421811959</v>
+        <v>21.28410333814365</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>21.05388655770493</v>
+        <v>21.07021396103303</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>22.29758156945299</v>
+        <v>22.31177120973681</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>22.11819274334302</v>
+        <v>22.132690731573</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>24.32478374099937</v>
+        <v>24.33548886309698</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>25.30617513907227</v>
+        <v>25.31519336667978</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>25.30617513907227</v>
+        <v>25.31519336667978</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>19.74854496862589</v>
+        <v>19.7671160980955</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>23.08817288623699</v>
+        <v>23.1010035945605</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>18.81857617666164</v>
+        <v>18.83874581130908</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>21.13329117277875</v>
+        <v>21.14948208906636</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>21.11944796184561</v>
+        <v>21.1356626729577</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>21.30804355361819</v>
+        <v>21.32393409145431</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>20.93155230325023</v>
+        <v>20.94808998453725</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>19.97694004365088</v>
+        <v>19.99511858929043</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>22.24370507329981</v>
+        <v>22.25798732083949</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>19.32907057900037</v>
+        <v>19.34836273479839</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>20.05005524407092</v>
+        <v>20.06810811342198</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>21.98523597876</v>
+        <v>21.99996250377372</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>22.04928590935005</v>
+        <v>22.06390234019007</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>27.58584666580977</v>
+        <v>27.59094641059193</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>25.86274410897649</v>
+        <v>25.87080566106144</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>19.56082973543984</v>
+        <v>19.5797235249541</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>19.55693482240112</v>
+        <v>19.57583530680558</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>22.10801126649143</v>
+        <v>22.1225267554632</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>19.09649553767294</v>
+        <v>19.11618746216318</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>19.33922242186613</v>
+        <v>19.35849712785978</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>17.00467749045596</v>
+        <v>17.02796500009747</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>16.77652211148383</v>
+        <v>16.80020179294665</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>17.47712482588067</v>
+        <v>17.49960025503292</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>16.80516125031205</v>
+        <v>16.82879170451907</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>17.75352030311264</v>
+        <v>17.77552064148195</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>17.08816322017459</v>
+        <v>17.11130722782749</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>18.33656236715173</v>
+        <v>18.35756052591439</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>25.06111931729437</v>
+        <v>25.07055876656347</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>29.82757287217727</v>
+        <v>29.82881935760333</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>24.87796434515975</v>
+        <v>24.88771861593058</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>18.89953306622091</v>
+        <v>18.91956354565346</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>20.45593622857804</v>
+        <v>20.47329143703837</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>20.87157588480012</v>
+        <v>20.88821665838044</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>21.7591319802615</v>
+        <v>21.77424715101899</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>22.13981108120505</v>
+        <v>22.15427191009663</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>21.98374359186791</v>
+        <v>21.99847268211693</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>19.74762414792339</v>
+        <v>19.76619686017358</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>19.50087834408477</v>
+        <v>19.51987518287393</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>20.77406362212731</v>
+        <v>20.79087200762969</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>23.77454546739376</v>
+        <v>23.78619638330396</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>25.93967480283767</v>
+        <v>25.94760412025614</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>26.5350710416384</v>
+        <v>26.54197694410087</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>19.15458520649612</v>
+        <v>19.17417728179031</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>18.69581691157158</v>
+        <v>18.71619755472024</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>17.71250366352287</v>
+        <v>17.73457450459237</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>17.86881025125685</v>
+        <v>17.8906124199879</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>17.39251560075071</v>
+        <v>17.41513646304593</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>18.07287563178137</v>
+        <v>18.09432703651898</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>18.61583575392378</v>
+        <v>18.63635387512083</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>17.02638340411865</v>
+        <v>17.0496336038897</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>14.02845094850319</v>
+        <v>14.05685423577012</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>15.14455344752379</v>
+        <v>15.17103828802219</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>18.2471208368453</v>
+        <v>18.26827273490586</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>19.93633751888605</v>
+        <v>19.95458585541186</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>20.92203296302513</v>
+        <v>20.93858700692003</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>19.2594460469676</v>
+        <v>19.27885787901261</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>18.39683460165897</v>
+        <v>18.41772915965548</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>19.67775004770114</v>
+        <v>19.69644286517616</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>22.74911350236484</v>
+        <v>22.76252701323528</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>24.17368716649516</v>
+        <v>24.18465200554117</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>22.01312942531594</v>
+        <v>22.02780800482919</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>20.51692445818266</v>
+        <v>20.53417483516749</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>21.18832333913078</v>
+        <v>21.20441966170318</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>22.24047691231694</v>
+        <v>22.25476470867931</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>22.83421611535131</v>
+        <v>22.84748334500387</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>24.66482036004517</v>
+        <v>24.67494099984491</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>28.87718481455467</v>
+        <v>28.88006490343545</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>33.39417240568936</v>
+        <v>33.38928833289453</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>36.85012270673577</v>
+        <v>36.83929826852513</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>26.51706038648935</v>
+        <v>26.52399724711421</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>20.50253342036889</v>
+        <v>20.51980853382701</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>17.74623334030447</v>
+        <v>17.76824620409144</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>17.92869647820238</v>
+        <v>17.95039570966835</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>23.52720499685496</v>
+        <v>23.53928106146557</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>29.04142604770449</v>
+        <v>29.04402382553992</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>35.08349351637379</v>
+        <v>35.07570570254423</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>39.79366048746023</v>
+        <v>39.7777764596969</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>35.34466656413487</v>
+        <v>35.33642982505869</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>24.94443821728454</v>
+        <v>24.95407822741615</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>22.08026149681577</v>
+        <v>22.09482468432412</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>22.87891158997276</v>
+        <v>22.89210199344746</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>22.1239589008659</v>
+        <v>22.13844697776055</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>23.90985779561278</v>
+        <v>23.92127612580729</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>21.01841723000861</v>
+        <v>21.03480560087062</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>20.1267518562894</v>
+        <v>20.14467289333269</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>17.78105638353703</v>
+        <v>17.80300939067573</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>18.94063344069436</v>
+        <v>18.96059327349674</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>20.17516336609368</v>
+        <v>20.19300118953928</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>19.31162965596049</v>
+        <v>19.33095179062062</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>21.17621699997439</v>
+        <v>21.19233413189671</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>21.9007094550774</v>
+        <v>21.91558127108047</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>25.74862065154947</v>
+        <v>25.75687836821443</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>24.21244337377665</v>
+        <v>24.22334159553558</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>28.95998800442693</v>
+        <v>28.96272576452241</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>31.78511489258416</v>
+        <v>31.78299659729689</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>28.82347826187278</v>
+        <v>28.82645066589716</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>31.27311993178991</v>
+        <v>31.27188169463204</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>27.22775998118654</v>
+        <v>27.23347523417143</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>27.89698276879143</v>
+        <v>27.90154770780799</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>28.6113675443229</v>
+        <v>28.61470454131301</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>24.71053116403745</v>
+        <v>24.72057323243013</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>26.05623896039096</v>
+        <v>26.06396791795759</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>25.72439764936497</v>
+        <v>25.73269700247532</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>27.88761592431264</v>
+        <v>27.8921969638151</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>31.97952863410536</v>
+        <v>31.97707616483765</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>29.45059268111108</v>
+        <v>29.45248715041867</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>26.57478064396641</v>
+        <v>26.58161829036971</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>25.95234257611322</v>
+        <v>25.96025011914402</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>28.59204820061349</v>
+        <v>28.59541840524582</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>31.12558991210462</v>
+        <v>31.12460526141356</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>34.21896434580221</v>
+        <v>34.2126625542658</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>34.29910573665883</v>
+        <v>34.29266619165083</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>31.77948107090232</v>
+        <v>31.77737245948072</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>26.98190270251588</v>
+        <v>26.98804055477094</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>28.8785103001659</v>
+        <v>28.88138811069539</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>29.93485530854731</v>
+        <v>29.93591738829112</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>29.89974848122246</v>
+        <v>29.9008709054044</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>32.39241031507017</v>
+        <v>32.38924815155202</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>32.39241031507017</v>
+        <v>32.38924815155202</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>36.47407045604076</v>
+        <v>36.4638924066919</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>26.15354529227115</v>
+        <v>26.16110699188578</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>23.12809519423026</v>
+        <v>23.14085728087898</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>25.59007316506212</v>
+        <v>25.59860340590215</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>23.24387300265438</v>
+        <v>23.25643608109149</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>23.50695487003885</v>
+        <v>23.51906574219638</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>22.82468086410985</v>
+        <v>22.83796448371921</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>25.82427325047901</v>
+        <v>25.83240092937058</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>38.73810438547743</v>
+        <v>38.72403473246361</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>37.34601270048769</v>
+        <v>37.33433588665947</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>35.70589612918856</v>
+        <v>35.69703847967481</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>30.75281241822076</v>
+        <v>30.75246852747744</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>28.74046272768</v>
+        <v>28.74357782548324</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>26.09821968116957</v>
+        <v>26.10587647889566</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>22.73869176832103</v>
+        <v>22.75212319290663</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>22.03074253880449</v>
+        <v>22.04539084348202</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>19.18706280406435</v>
+        <v>19.20659905425069</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>21.12086823638414</v>
+        <v>21.13708050621406</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>21.99019478377899</v>
+        <v>22.00491278519978</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>23.18330888801633</v>
+        <v>23.19597606892587</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>25.33813313022701</v>
+        <v>25.34709642586817</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>23.42511848790504</v>
+        <v>23.43737002702009</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>21.96714627783321</v>
+        <v>21.9819038968806</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>17.78758597901232</v>
+        <v>17.80952776255709</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>21.87491452973531</v>
+        <v>21.88983068413164</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>23.9206243135617</v>
+        <v>23.93202413739887</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>28.81248388668008</v>
+        <v>28.81547518872149</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>28.04308288173242</v>
+        <v>28.04739669212123</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>26.46652806947931</v>
+        <v>26.4735517891169</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>24.8496229526212</v>
+        <v>24.85942593885758</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>25.15402952144576</v>
+        <v>25.16330926918135</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>25.7603822472728</v>
+        <v>25.76861974716077</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>25.76072093939082</v>
+        <v>25.76895785710735</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>26.42287260477373</v>
+        <v>26.42997136293588</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>27.18632233511779</v>
+        <v>27.19210881446215</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>27.22944913396499</v>
+        <v>27.23516148349782</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>26.9669418091113</v>
+        <v>26.97310537735355</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>36.6982658608248</v>
+        <v>36.68770244637814</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>37.99129443700112</v>
+        <v>37.97850846101005</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>38.97072133002474</v>
+        <v>38.95625183629217</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>40.67426942121155</v>
+        <v>40.65687173196598</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>34.09958693948091</v>
+        <v>34.09349034343337</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>27.8813518604651</v>
+        <v>27.88594366714408</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>38.969974636212</v>
+        <v>38.95550642595708</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>40.58784221310306</v>
+        <v>40.57059308189651</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>50.27656445717993</v>
+        <v>50.24266157069749</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>44.81562319861577</v>
+        <v>44.79110701731413</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>47.94514582095816</v>
+        <v>47.91525036439577</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>44.44210846981504</v>
+        <v>44.41823431567995</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>48.04539338827307</v>
+        <v>48.01532561812759</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>43.67605239129979</v>
+        <v>43.65349499598423</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>36.3272051168732</v>
+        <v>36.3172795114854</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>40.65280731652173</v>
+        <v>40.63544651806808</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>36.86396495991029</v>
+        <v>36.8531167285212</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>38.82799714822012</v>
+        <v>38.81377298029412</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>35.45900658424024</v>
+        <v>35.45057330833946</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>32.74711988424396</v>
+        <v>32.74334801738024</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>26.18848857178331</v>
+        <v>26.19599020807836</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>36.01455027821466</v>
+        <v>36.00516208911748</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>34.61537830654051</v>
+        <v>34.60839512679494</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>31.2204443536374</v>
+        <v>31.21929665950157</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>31.97850546732788</v>
+        <v>31.97605475676189</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>24.33807432271409</v>
+        <v>24.34875659989077</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>26.1151375829976</v>
+        <v>26.12276530087324</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>25.51967853902546</v>
+        <v>25.52832977981214</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>24.42365859918563</v>
+        <v>24.43419376722282</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>24.74198064817746</v>
+        <v>24.75196865866641</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>25.39116327295086</v>
+        <v>25.4000354161164</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>23.55707780816773</v>
+        <v>23.56910252498717</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>24.68211236856531</v>
+        <v>24.69220328546989</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>20.8775756906381</v>
+        <v>20.89420615126904</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>23.00343055233533</v>
+        <v>23.01640692260007</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>35.97919410059502</v>
+        <v>35.96986668454045</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>36.97750054140751</v>
+        <v>36.96645715592572</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>36.58332849398575</v>
+        <v>36.57296264313199</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>35.62236639291622</v>
+        <v>35.61365232103252</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>23.5887389549347</v>
+        <v>23.60070925002702</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>26.73648574151606</v>
+        <v>26.74304543618735</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>25.34495182554919</v>
+        <v>25.35390340066821</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>25.198507066012</v>
+        <v>25.20771036216532</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>24.68071719951298</v>
+        <v>24.69081051454663</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>24.61660687941971</v>
+        <v>24.62681039242873</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>24.14403620684733</v>
+        <v>24.15505201234857</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>24.04963859293106</v>
+        <v>24.06081665664561</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>27.34757695844077</v>
+        <v>27.35308626036522</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>26.43237836958714</v>
+        <v>26.43946078847588</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>22.73148412935542</v>
+        <v>22.7449279430102</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>23.37849355440484</v>
+        <v>23.39082523620665</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>24.58801494946455</v>
+        <v>24.59826760858393</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>23.3896943263593</v>
+        <v>23.40200675537306</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>22.8799682356936</v>
+        <v>22.89315682292086</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>21.90568665113769</v>
+        <v>21.92054991193583</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>16.59846566828845</v>
+        <v>16.62245140749106</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>17.47940534829503</v>
+        <v>17.50187685750176</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>16.00923059809465</v>
+        <v>16.03422916194109</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>17.41827801096146</v>
+        <v>17.44085459075353</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>18.02675501990838</v>
+        <v>18.04828570046373</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>19.99079795914612</v>
+        <v>20.00895268468579</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>21.41221436383957</v>
+        <v>21.42792584450621</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>24.03311839351854</v>
+        <v>24.04432485348095</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>27.67262890842348</v>
+        <v>27.67757948490507</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>27.1079873249861</v>
+        <v>27.11390845284771</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>22.23888770841758</v>
+        <v>22.25317823643149</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>20.68201434526544</v>
+        <v>20.69898095247054</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>17.65849905663926</v>
+        <v>17.68066272517137</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>15.17505930014705</v>
+        <v>15.20149170473177</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>18.63383989303419</v>
+        <v>18.65432706726837</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>24.2965837322496</v>
+        <v>24.30733732679138</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>28.74383195633835</v>
+        <v>28.74694126284012</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>33.38091660641784</v>
+        <v>33.37605531875811</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>37.74080327262199</v>
+        <v>37.72844786099678</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>36.55544441940891</v>
+        <v>36.54512649794584</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>37.28198774836927</v>
+        <v>37.27042098578026</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>39.49801228587684</v>
+        <v>39.48263644202757</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>54.40699494771697</v>
+        <v>54.36599234500436</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>58.13173093258492</v>
+        <v>58.0843259539982</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>57.94767450914232</v>
+        <v>57.90058590154416</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>59.71368024330503</v>
+        <v>59.66355608297039</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>45.26241230367931</v>
+        <v>45.23712814532055</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>40.26705431294194</v>
+        <v>40.25035657778562</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>32.63245474043551</v>
+        <v>32.62887996924664</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>34.68631241005086</v>
+        <v>34.67920730306236</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>36.08423711644572</v>
+        <v>36.07472914400456</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>37.41574313168702</v>
+        <v>37.40394645958364</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>41.32767170899378</v>
+        <v>41.30915089932779</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>47.89843117711042</v>
+        <v>47.86861601743691</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>40.57137209816109</v>
+        <v>40.55415127711274</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>32.70279032275756</v>
+        <v>32.69909465311056</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>43.21138133641433</v>
+        <v>43.18962265509188</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>41.94064783943294</v>
+        <v>41.92107339707944</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>41.1529585410125</v>
+        <v>41.13473804239521</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>41.75284207584299</v>
+        <v>41.73359044914473</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>43.9783481876192</v>
+        <v>43.95527118196826</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>41.74509129861998</v>
+        <v>41.72585299458115</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>41.13389276129091</v>
+        <v>41.11570503446945</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>40.24039258538768</v>
+        <v>40.22374067855326</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>44.03246932023229</v>
+        <v>44.00929928682353</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>38.16749353442073</v>
+        <v>38.15440469324523</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>37.00400264693998</v>
+        <v>36.99291370750811</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>40.54493559008405</v>
+        <v>40.52776021023213</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>31.07565545478373</v>
+        <v>31.07475663545513</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>26.91140943519794</v>
+        <v>26.91766845695179</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>25.79105908925875</v>
+        <v>25.79924385932206</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>26.84595888344337</v>
+        <v>26.85233040687168</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>22.63956217831868</v>
+        <v>22.65316399481872</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>22.68772400154775</v>
+        <v>22.70124303363106</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>23.37643971197271</v>
+        <v>23.38877492408401</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>21.46269053390724</v>
+        <v>21.47831525207216</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>27.85131919252366</v>
+        <v>27.85596262176913</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>29.2262952869827</v>
+        <v>29.2285752966967</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>34.98276277945833</v>
+        <v>34.97514810972424</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>39.68800348708091</v>
+        <v>39.67230107106917</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>43.76265423647364</v>
+        <v>43.73994798293939</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>47.77710370407102</v>
+        <v>47.74749709181901</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>52.80085248116929</v>
+        <v>52.76261064534754</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>51.80087006153362</v>
+        <v>51.76434707594508</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>56.83694928599097</v>
+        <v>56.79176988226624</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>51.2020075922418</v>
+        <v>51.1665139796461</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>45.24942498186955</v>
+        <v>45.2241631471628</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>39.25600432403088</v>
+        <v>39.24104446293708</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>29.74695630994383</v>
+        <v>29.74834136560296</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>37.23345299343818</v>
+        <v>37.22196965629058</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>29.00781179405057</v>
+        <v>29.01046735076958</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>22.0999207058809</v>
+        <v>22.11445010155892</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>25.9642297117672</v>
+        <v>25.9721168222332</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>26.18965075631139</v>
+        <v>26.19715039495046</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>27.88712852889184</v>
+        <v>27.89171040616854</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>24.40322690381107</v>
+        <v>24.41379719148967</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>21.97953370481663</v>
+        <v>21.99427003135748</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>26.47893589963213</v>
+        <v>26.48593829169322</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>19.6898096750332</v>
+        <v>19.70848176345044</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>23.0004398008074</v>
+        <v>23.01342131181634</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>25.36913244102347</v>
+        <v>25.37804245255524</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>28.9054532672143</v>
+        <v>28.90828476600437</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>38.24606932251426</v>
+        <v>38.23284541895256</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>33.18167462182909</v>
+        <v>33.17715580732169</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>28.71609260363256</v>
+        <v>28.71924959076555</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>25.66071513877445</v>
+        <v>25.66912395450661</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>25.66071513877445</v>
+        <v>25.66912395450661</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>18.66431984271107</v>
+        <v>18.68475462555563</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>15.41531172026193</v>
+        <v>15.44133115965799</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>16.54281755478975</v>
+        <v>16.56689894644688</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>15.73032313117666</v>
+        <v>15.75580110361627</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>17.32434480602514</v>
+        <v>17.34708284576704</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>17.43960072164818</v>
+        <v>17.46214065024969</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>16.31234425425579</v>
+        <v>16.33682180196374</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>17.07037220131782</v>
+        <v>17.09354678960532</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>16.77172305577734</v>
+        <v>16.79541098624317</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>17.63012696008299</v>
+        <v>17.65233939685732</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>23.77568857467112</v>
+        <v>23.78733752571664</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>29.04795233308859</v>
+        <v>29.05053889301941</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>26.48712551818916</v>
+        <v>26.49411383327442</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>23.97677894996822</v>
+        <v>23.98808225069881</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>22.51618752690855</v>
+        <v>22.53000140968487</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>17.71817342129079</v>
+        <v>17.74023451672391</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>19.63085643582066</v>
+        <v>19.64962985780854</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>17.41795513700835</v>
+        <v>17.44053227178205</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>18.465049015172</v>
+        <v>18.4858263207464</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>18.87945523964653</v>
+        <v>18.89952023046263</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>19.42305731022101</v>
+        <v>19.44218791406388</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>18.98978818195646</v>
+        <v>19.00966352363462</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>20.89878689118031</v>
+        <v>20.91538089229332</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>17.52803612428751</v>
+        <v>17.55042404300399</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>17.37375632567786</v>
+        <v>17.39640943292464</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>24.11822958168945</v>
+        <v>24.1292897456939</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>31.68895054059693</v>
+        <v>31.68699754033374</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>38.35921725324796</v>
+        <v>38.34579886191972</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>44.85593206778539</v>
+        <v>44.83134660035687</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>38.78424801562086</v>
+        <v>38.77009904722345</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>31.59773655387825</v>
+        <v>31.59594033955305</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>16.93184061950582</v>
+        <v>16.95525332702135</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>35.58882873879737</v>
+        <v>35.58017231413251</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>35.67461345725441</v>
+        <v>35.66580957891435</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>38.27887480142807</v>
+        <v>38.26559450917007</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>36.9085298908566</v>
+        <v>36.89760505767822</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>37.98014583293879</v>
+        <v>37.96737902006554</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>34.69766832576296</v>
+        <v>34.69054369931158</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>27.9521553344406</v>
+        <v>27.95662543841264</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>26.97879032425671</v>
+        <v>26.98493352631742</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>26.55200860919525</v>
+        <v>26.55888539800383</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>25.36950682607666</v>
+        <v>25.37841619408559</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>25.40411961111694</v>
+        <v>25.41296948388622</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>23.58120219229944</v>
+        <v>23.59318544218597</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>23.9198364522439</v>
+        <v>23.93123763032096</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>23.07482946765539</v>
+        <v>23.08768311172016</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>23.16474379100795</v>
+        <v>23.17744288309982</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>25.11381348363138</v>
+        <v>25.12316235792825</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>23.36627939121162</v>
+        <v>23.37863206769983</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>23.6750102528987</v>
+        <v>23.68683225794402</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>24.07524297368595</v>
+        <v>24.0863770265309</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>25.93397884781497</v>
+        <v>25.94191795589951</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>24.55037607448402</v>
+        <v>24.56069343032951</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>23.66020239236708</v>
+        <v>23.67204985035379</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>24.74799674783516</v>
+        <v>24.75797441736788</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>26.82516888721365</v>
+        <v>26.83157614615985</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>25.06988847512152</v>
+        <v>25.07931285125701</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>23.52222704559826</v>
+        <v>23.53431166671152</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>24.49981680077271</v>
+        <v>24.51022106196558</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>24.21274783637899</v>
+        <v>24.2236455348032</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>23.95477488218593</v>
+        <v>23.96611600527829</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>23.33672141453157</v>
+        <v>23.34912489764766</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>23.93241911081795</v>
+        <v>23.94379866080888</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>23.64505469189466</v>
+        <v>23.65692818696787</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>22.59573204338098</v>
+        <v>22.60940919864333</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>23.16782677778805</v>
+        <v>23.18052057059393</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>25.3394785531931</v>
+        <v>25.34843953621253</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>23.1730133355701</v>
+        <v>23.18569821330328</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>24.86348825402196</v>
+        <v>24.87326740746242</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>22.56660286156047</v>
+        <v>22.58033008640377</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>23.74380350821947</v>
+        <v>23.75550726588235</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>21.22303926539429</v>
+        <v>21.23907591543992</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>20.36967825131855</v>
+        <v>20.38718172693002</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>20.33324655457672</v>
+        <v>20.35081265191931</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>20.49967239469687</v>
+        <v>20.51695242591621</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>20.65559533853288</v>
+        <v>20.67260735685176</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>20.52892603505587</v>
+        <v>20.54615578276476</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>20.51705322994202</v>
+        <v>20.53430338558339</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>19.90998534370887</v>
+        <v>19.9282789764733</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>21.2935582585725</v>
+        <v>21.30947369489861</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>22.03197458093645</v>
+        <v>22.0466207678805</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>20.49004921375935</v>
+        <v>20.50734578607651</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>22.28860359131853</v>
+        <v>22.30280866367326</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>21.62015283877885</v>
+        <v>21.63550689806575</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>21.44480244287605</v>
+        <v>21.46045790853033</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>22.75125938247824</v>
+        <v>22.76466920483769</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>22.54678601367927</v>
+        <v>22.56054730131478</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>22.06438087391838</v>
+        <v>22.07897135831933</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>22.01246198024695</v>
+        <v>22.02714170701877</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>22.63334410505276</v>
+        <v>22.64695660967713</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>21.92726997308695</v>
+        <v>21.94209613473495</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>21.36110484085761</v>
+        <v>21.3769041726845</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>22.59176237861256</v>
+        <v>22.60544635725352</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>21.31118624648037</v>
+        <v>21.32707138240301</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>19.81446038641288</v>
+        <v>19.83291821515966</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>21.33532727847309</v>
+        <v>21.35117091884752</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>20.7964000102378</v>
+        <v>20.81317000215912</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>21.32297287247879</v>
+        <v>21.33883774860063</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>21.48561481274545</v>
+        <v>21.50120012681527</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>21.91450818294915</v>
+        <v>21.9293562805888</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>23.57605068854049</v>
+        <v>23.58804279324629</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>23.5284702274072</v>
+        <v>23.54054411723747</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>23.56261049240847</v>
+        <v>23.57462569920486</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>23.72527070275591</v>
+        <v>23.73700631609578</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>24.10396649237181</v>
+        <v>24.11505117292133</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>24.12679072403979</v>
+        <v>24.13783617246422</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>24.53960317760051</v>
+        <v>24.54993905076784</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>24.86763769237054</v>
+        <v>24.87740971342269</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>26.39012359101675</v>
+        <v>26.39727864081839</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>25.77388702996463</v>
+        <v>25.78210131674523</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>26.03247857152782</v>
+        <v>26.04024837036267</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>29.11213015964667</v>
+        <v>29.11460640556599</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>26.79196676535629</v>
+        <v>26.7984310947809</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>27.49959330403125</v>
+        <v>27.50484130803041</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>29.51792277887934</v>
+        <v>29.51970151579744</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>28.32976129511179</v>
+        <v>28.33358233957897</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>30.42906619947316</v>
+        <v>30.42927878977669</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>28.81465912927378</v>
+        <v>28.8176466923324</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>29.88156004279507</v>
+        <v>29.88271373072871</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>30.16608028038253</v>
+        <v>30.16674491204153</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>31.73088842009192</v>
+        <v>31.72886333362678</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>35.45536517167274</v>
+        <v>35.44693815492378</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>33.26750989117399</v>
+        <v>33.26284353609941</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>31.27936331933678</v>
+        <v>31.2781143505423</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>29.93753645430469</v>
+        <v>29.93859392547951</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>29.52410471174188</v>
+        <v>29.52587282265643</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>28.76991362141861</v>
+        <v>28.77297809665616</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>28.4542670176801</v>
+        <v>28.45787405169444</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>28.4542670176801</v>
+        <v>28.45787405169444</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>29.9118949290454</v>
+        <v>29.91299647493626</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>30.50921775353881</v>
+        <v>30.50929257290241</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>29.0555208724244</v>
+        <v>29.05809442294116</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>29.71304133918774</v>
+        <v>29.71448469062656</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>28.2672445841621</v>
+        <v>28.27117308738175</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>25.84111075888349</v>
+        <v>25.84920949611083</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>26.94911939856082</v>
+        <v>26.95531360139583</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>28.82147874748433</v>
+        <v>28.82445458843413</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>34.30009821572311</v>
+        <v>34.29365696476323</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>32.76462391542863</v>
+        <v>32.76082196122923</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>31.18852274344489</v>
+        <v>31.18742991873996</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>30.61878987758782</v>
+        <v>30.61867635556904</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>29.76663745085251</v>
+        <v>29.76798867698263</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>31.95142992440186</v>
+        <v>31.94902575345653</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>28.23023447377399</v>
+        <v>28.23422659294876</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>26.86029680445644</v>
+        <v>26.86664368271232</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>26.37305483649006</v>
+        <v>26.38023922543996</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>26.76621906384379</v>
+        <v>26.77272765048875</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>27.24044492078259</v>
+        <v>27.24613836987258</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>26.49222541447843</v>
+        <v>26.49920496345202</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>28.00119273015152</v>
+        <v>28.00557854470251</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>28.14232984105219</v>
+        <v>28.14647305778224</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>28.01764859984668</v>
+        <v>28.02200612872479</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>28.9832127820281</v>
+        <v>28.98591062150765</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>50.10333572869958</v>
+        <v>50.0697306016928</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>28.24918073646303</v>
+        <v>28.25314028927732</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>32.15978768623872</v>
+        <v>32.15702537320956</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>35.90182056620951</v>
+        <v>35.89262614601087</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>46.39031251032374</v>
+        <v>46.36308962634634</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>46.89567706678862</v>
+        <v>46.86758552155396</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>44.80382015760041</v>
+        <v>44.77932426431659</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>44.25150707483216</v>
+        <v>44.22796054170957</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>42.0324295400559</v>
+        <v>42.01269733593033</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>33.08187270195312</v>
+        <v>33.07752543501544</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>31.08020524429129</v>
+        <v>31.0792986044188</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>29.73190520667448</v>
+        <v>29.73331613338027</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>27.98754045453337</v>
+        <v>27.99194973571398</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>27.89068081201562</v>
+        <v>27.89525658334253</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>27.98787832351162</v>
+        <v>27.99228702393594</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>26.01558631388924</v>
+        <v>26.02338514849558</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>27.25505920957211</v>
+        <v>27.26072753844666</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>28.79293804861972</v>
+        <v>28.79596294761917</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>27.69427373585894</v>
+        <v>27.69918710746964</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>29.62908966242175</v>
+        <v>29.63067731675739</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>31.16321226274603</v>
+        <v>31.16216294373286</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>30.58004734030318</v>
+        <v>30.58000041207538</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>29.66740232138626</v>
+        <v>29.66892412084063</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>29.48356720649362</v>
+        <v>29.4854049965336</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>29.32443111929378</v>
+        <v>29.32654244524394</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>26.39468082410748</v>
+        <v>26.40182804056995</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>19.28160795813632</v>
+        <v>19.30098169650563</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>20.64984872609251</v>
+        <v>20.66687062215149</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>23.61892451581265</v>
+        <v>23.63084292553441</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>24.99684043281913</v>
+        <v>25.00639036980684</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>28.02293887953273</v>
+        <v>28.02728731505269</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>33.96431242322332</v>
+        <v>33.95844834789767</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>53.0443361847564</v>
+        <v>53.00567582955566</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>32.66321979299381</v>
+        <v>32.65959214035673</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>31.36673978331864</v>
+        <v>31.36534062482743</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>29.11629910772525</v>
+        <v>29.11876818772174</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>29.59391098609457</v>
+        <v>29.59555910836918</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>28.0583709302572</v>
+        <v>28.06265846231825</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>30.41738870630606</v>
+        <v>30.41762136882465</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>23.80407091000633</v>
+        <v>23.81567107521062</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>23.92507597442763</v>
+        <v>23.93646814639199</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>25.5794125692952</v>
+        <v>25.58796113442497</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>29.08361878102404</v>
+        <v>29.08614403459491</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>29.62794950714478</v>
+        <v>29.62953912127089</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>32.61719344374059</v>
+        <v>32.61364490489579</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>28.28492861212671</v>
+        <v>28.28882671861654</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>27.33769122467346</v>
+        <v>27.34321751899214</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>21.40310438713927</v>
+        <v>21.4188315267668</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>21.3801417600322</v>
+        <v>21.39590836967029</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>21.36196329521239</v>
+        <v>21.37776115145845</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>20.48362787575537</v>
+        <v>20.50093548558487</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>21.52165722051576</v>
+        <v>21.53718058199524</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>23.1814469338109</v>
+        <v>23.19411731519734</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>22.17883514680092</v>
+        <v>22.19322889798887</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>22.25656144832773</v>
+        <v>22.27082159729574</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>23.37969597091923</v>
+        <v>23.39202558591046</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>22.3140203015429</v>
+        <v>22.32818168561161</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>22.67001099272228</v>
+        <v>22.68356047135018</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>22.69043508532367</v>
+        <v>22.70394945737809</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>22.72942499412137</v>
+        <v>22.74287234718357</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>25.91219568480518</v>
+        <v>25.92017223554295</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>25.95151834196407</v>
+        <v>25.95942730175479</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>26.90499209246754</v>
+        <v>26.9112621448665</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>26.24130518289361</v>
+        <v>26.24871603374786</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>26.26597022508635</v>
+        <v>26.27333867968175</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>26.4678368452377</v>
+        <v>26.474858315246</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>26.70618343058972</v>
+        <v>26.71279521131112</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>22.28860082531436</v>
+        <v>22.30280590242366</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>16.88982145537729</v>
+        <v>16.91330638881272</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>20.5582721639711</v>
+        <v>20.57545146919213</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>23.30115678755682</v>
+        <v>23.31362140201549</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>26.23361140145688</v>
+        <v>26.24103547700161</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>28.18309851628682</v>
+        <v>28.18717165653801</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>26.15178790282143</v>
+        <v>26.15935262317841</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>19.45811080427815</v>
+        <v>19.47718115535508</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>27.74211301922641</v>
+        <v>27.74694416082791</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>29.46318179756908</v>
+        <v>29.46505462769062</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>30.12118774640102</v>
+        <v>30.12192954295923</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>32.74639015734273</v>
+        <v>32.74261954479361</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>27.70416702489787</v>
+        <v>27.70906339112765</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>30.10585427964487</v>
+        <v>30.10662243259976</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>27.61859556758817</v>
+        <v>27.62363902092301</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>26.66784117537931</v>
+        <v>26.67451886185442</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>25.42432093005631</v>
+        <v>25.43313607917286</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>25.86387825866736</v>
+        <v>25.87193786128433</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>26.61102615507515</v>
+        <v>26.61780149977802</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>21.60916850295793</v>
+        <v>21.62454144300525</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>21.25052343890196</v>
+        <v>21.26651284693872</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>19.65567508015</v>
+        <v>19.67440584185553</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5766,7 +5766,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>20.45939644768841</v>
+        <v>20.47674570844566</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5774,7 +5774,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>22.6805266066</v>
+        <v>22.69405801014472</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>20.97239554436887</v>
+        <v>20.98886302100665</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>22.3528719915579</v>
+        <v>22.36696659421608</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>23.08595632271648</v>
+        <v>23.09879084104731</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>28.36838421489792</v>
+        <v>28.37213887118343</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>23.21883452145688</v>
+        <v>23.23144063804969</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>22.32246605813079</v>
+        <v>22.33661292495364</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>24.17934085033734</v>
+        <v>24.19029597137704</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>25.44248005782437</v>
+        <v>25.45126399357127</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>25.73452924204538</v>
+        <v>25.74281118015841</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>27.89119027881874</v>
+        <v>27.89576517443288</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>28.16638175853303</v>
+        <v>28.17048363289246</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>29.79268908340408</v>
+        <v>29.79399552989307</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>31.43646878858534</v>
+        <v>31.43494977427062</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>32.11010430827118</v>
+        <v>32.10742739503043</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>36.94619540701787</v>
+        <v>36.93520583132015</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>33.88120727545619</v>
+        <v>33.87548604794493</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>33.13368567282431</v>
+        <v>33.12924934558458</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>32.61953843855589</v>
+        <v>32.6159858689462</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>32.48404434383737</v>
+        <v>32.48072467237807</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>30.17761352777588</v>
+        <v>30.17825833516152</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>30.58405195902277</v>
+        <v>30.58399814733437</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>29.26289994789376</v>
+        <v>29.26511703857179</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>28.07089285149267</v>
+        <v>28.07515885986799</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>25.94125655004599</v>
+        <v>25.94918314863006</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>29.75997302272744</v>
+        <v>29.7613357042137</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>31.69025915327155</v>
+        <v>31.68830390366015</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5990,7 +5990,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>35.13243815489467</v>
+        <v>35.1245662110836</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5998,7 +5998,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>39.88715757028366</v>
+        <v>39.87111283221212</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6006,7 +6006,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>42.53465881995034</v>
+        <v>42.51406334373272</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6014,7 +6014,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>45.57194056210837</v>
+        <v>45.54612436167636</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6022,7 +6022,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>54.80685414114659</v>
+        <v>54.76516422828151</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6030,7 +6030,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>62.3410431304227</v>
+        <v>62.28640284738003</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6038,7 +6038,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>75.96909473316818</v>
+        <v>75.89102945861895</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6046,7 +6046,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>72.06327637956737</v>
+        <v>71.9919247398376</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6054,7 +6054,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>66.90591018995009</v>
+        <v>66.84342344614927</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6062,7 +6062,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>54.20008749206853</v>
+        <v>54.1594405385366</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6070,7 +6070,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>41.27797307262371</v>
+        <v>41.25953768897286</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6078,7 +6078,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>67.67871565646045</v>
+        <v>67.61490055245008</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6086,7 +6086,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>82.88478755286168</v>
+        <v>82.79483502911047</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6094,7 +6094,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>74.4507994220984</v>
+        <v>74.37534391568249</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6102,7 +6102,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>68.86395575067117</v>
+        <v>68.79810336063251</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6110,7 +6110,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>69.37028047274988</v>
+        <v>69.30355777104343</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6118,7 +6118,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>65.53264576093342</v>
+        <v>65.47251949451584</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6126,7 +6126,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>63.88001070480995</v>
+        <v>63.82272512048558</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6134,7 +6134,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>62.18483138669934</v>
+        <v>62.1304596129677</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6142,7 +6142,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>50.01100234918785</v>
+        <v>49.97755593222206</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6150,7 +6150,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>59.88220187296419</v>
+        <v>59.8317880440948</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6158,7 +6158,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>38.68844637572182</v>
+        <v>38.67446207889094</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6166,7 +6166,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>46.24095634422874</v>
+        <v>46.21399018564634</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6174,7 +6174,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>44.8925922352886</v>
+        <v>44.86794375341508</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6182,7 +6182,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>44.83766737558462</v>
+        <v>44.81311330297927</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6190,7 +6190,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>45.34683433477848</v>
+        <v>45.32140506504012</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6198,7 +6198,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>42.42893538914895</v>
+        <v>42.4085216388694</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6206,7 +6206,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>45.23819045825748</v>
+        <v>45.21294793435447</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6214,7 +6214,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>41.09002676164563</v>
+        <v>41.07191443523469</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6222,7 +6222,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>42.43702805911188</v>
+        <v>42.41660039850156</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6230,7 +6230,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>46.4284063676745</v>
+        <v>46.40111800491015</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6238,7 +6238,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>46.22189623714111</v>
+        <v>46.19496284060388</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6246,7 +6246,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>45.67626583605023</v>
+        <v>45.65027031294314</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6254,7 +6254,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>80.41648866584809</v>
+        <v>80.33077885280454</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6262,7 +6262,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>80.22846460063637</v>
+        <v>80.14307797848261</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6270,7 +6270,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>81.02726865190279</v>
+        <v>80.94050898107959</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6278,7 +6278,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>76.2389297506851</v>
+        <v>76.16040066200006</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6286,7 +6286,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>77.14991626037217</v>
+        <v>77.06982129478371</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6294,7 +6294,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>70.77958324901</v>
+        <v>70.71043812430986</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6302,7 +6302,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>58.69620541005669</v>
+        <v>64.43836194842231</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6310,7 +6310,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>58.35427123369199</v>
+        <v>58.30648373493105</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6318,7 +6318,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>56.21266234801887</v>
+        <v>56.16855601890867</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6326,7 +6326,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>52.33710823950504</v>
+        <v>52.29966352459302</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6334,7 +6334,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>47.67795529147305</v>
+        <v>47.64851910348918</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6342,7 +6342,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>43.72062259064195</v>
+        <v>43.69798858448186</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6350,7 +6350,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>41.36208466502502</v>
+        <v>41.3435047036016</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6358,7 +6358,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>36.52472491444986</v>
+        <v>36.51445979614329</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6366,7 +6366,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>32.17844839228191</v>
+        <v>32.17565400373093</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6374,7 +6374,7 @@
         <v>748</v>
       </c>
       <c r="B750">
-        <v>34.41782183203067</v>
+        <v>34.41117822824741</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6382,7 +6382,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>32.5881356423305</v>
+        <v>32.58463705037234</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6390,7 +6390,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>32.13873010957413</v>
+        <v>32.13600399200197</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6398,7 +6398,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>35.70718863707897</v>
+        <v>35.69832876589918</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6406,7 +6406,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>32.31829977746283</v>
+        <v>32.31526500109896</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6414,7 +6414,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>32.56210455712871</v>
+        <v>32.55865070949463</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6422,7 +6422,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>34.17117534891794</v>
+        <v>34.16495570095334</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6430,7 +6430,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>35.17906976627718</v>
+        <v>35.17111766830045</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6438,7 +6438,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>35.27024264123828</v>
+        <v>35.26213382798896</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6446,7 +6446,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>37.0910619693308</v>
+        <v>37.07982338533127</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6454,7 +6454,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>38.40717471320876</v>
+        <v>38.39367388874058</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6462,7 +6462,7 @@
         <v>759</v>
       </c>
       <c r="B761">
-        <v>38.21485408468097</v>
+        <v>38.20168383638177</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6470,7 +6470,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>38.21786124515837</v>
+        <v>38.20468582790972</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6478,7 +6478,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>41.34934760123168</v>
+        <v>41.3307895332986</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6486,7 +6486,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>40.70077292728719</v>
+        <v>40.68332968168289</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6494,7 +6494,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>38.93650239919351</v>
+        <v>38.9220917237125</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6502,7 +6502,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>36.62844791826082</v>
+        <v>36.61800451251067</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6510,7 +6510,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>31.30399854130964</v>
+        <v>31.30270722751289</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6518,7 +6518,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>28.23280847618334</v>
+        <v>28.23679617095587</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6526,7 +6526,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>31.67300087300909</v>
+        <v>31.67107528831801</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6534,7 +6534,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>47.14423182250438</v>
+        <v>47.1157130413583</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6542,7 +6542,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>48.17592418564927</v>
+        <v>48.14563204866742</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6550,7 +6550,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>45.18917532275181</v>
+        <v>45.1640170500065</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6558,7 +6558,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>42.99266387481192</v>
+        <v>42.97128114265875</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6566,7 +6566,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>39.97264079543847</v>
+        <v>39.95644912192183</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6574,7 +6574,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>37.85093168697848</v>
+        <v>37.83838697777448</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6582,7 +6582,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>35.53565102470465</v>
+        <v>35.52708600617273</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6590,7 +6590,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>34.84530944222833</v>
+        <v>34.83793103834884</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6598,7 +6598,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>30.95169315587181</v>
+        <v>30.9510074129158</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6606,7 +6606,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>30.70461737309951</v>
+        <v>30.70435632387661</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6614,7 +6614,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>30.12376355807</v>
+        <v>30.12450092711617</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6622,7 +6622,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>28.68971270309875</v>
+        <v>28.69291503412672</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6630,7 +6630,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>30.20624406385595</v>
+        <v>30.20683965877318</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6638,7 +6638,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>26.28781591986707</v>
+        <v>26.29514682432531</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6646,7 +6646,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>23.80594260446505</v>
+        <v>23.81753955245077</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6654,7 +6654,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>23.10394971202335</v>
+        <v>23.11675330186919</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6662,7 +6662,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>23.69080410599067</v>
+        <v>23.70259896329046</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6670,7 +6670,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>23.35958433915756</v>
+        <v>23.37194852364001</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6678,7 +6678,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>23.41614070072468</v>
+        <v>23.42840767158242</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6686,7 +6686,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>23.26452946730628</v>
+        <v>23.2770570397498</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6694,7 +6694,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>26.64376266808235</v>
+        <v>26.65048174263254</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6702,7 +6702,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>31.48776814160455</v>
+        <v>31.48616094983445</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6710,7 +6710,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>35.55106692906601</v>
+        <v>35.54247541243762</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6718,7 +6718,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>34.95114512504632</v>
+        <v>34.94358480228054</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6726,7 +6726,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>37.79098963281639</v>
+        <v>37.77854795683784</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6734,7 +6734,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>38.94172989018479</v>
+        <v>38.92731022927197</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6742,7 +6742,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>40.47504911868727</v>
+        <v>40.45799386532533</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6750,7 +6750,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>42.45348651415351</v>
+        <v>42.43303056342481</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6758,7 +6758,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>46.16995157513874</v>
+        <v>46.14310746526512</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6766,7 +6766,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>47.68492912669707</v>
+        <v>47.65548095152493</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6774,7 +6774,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>61.58069978829361</v>
+        <v>61.52736644455963</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6782,7 +6782,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>60.01715440928901</v>
+        <v>59.96650861314261</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6790,7 +6790,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>59.5685849937753</v>
+        <v>59.51871023482877</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6798,7 +6798,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>58.75849760016889</v>
+        <v>58.71001528460611</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6806,7 +6806,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>60.40599794714298</v>
+        <v>60.35468377544187</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6814,7 +6814,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>55.81743555496804</v>
+        <v>55.77400857346569</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6822,7 +6822,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>49.39071498463171</v>
+        <v>49.35833476749182</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6830,7 +6830,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>37.85212083326896</v>
+        <v>37.83957408006461</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6838,7 +6838,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>40.55927896566472</v>
+        <v>40.54207893126454</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6846,7 +6846,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>44.71673291078686</v>
+        <v>44.69238671006883</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6854,7 +6854,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>47.66340301826848</v>
+        <v>47.63399184390273</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6862,7 +6862,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>50.88141202220039</v>
+        <v>50.84646947506182</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6870,7 +6870,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>37.42381380367296</v>
+        <v>37.41200325904937</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6878,7 +6878,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>28.02079867675538</v>
+        <v>28.0251507910275</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6886,7 +6886,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>25.85649765707139</v>
+        <v>25.86456994605982</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6894,7 +6894,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>26.13431935881148</v>
+        <v>26.14191410550753</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6902,7 +6902,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>26.89476111461444</v>
+        <v>26.90104875284143</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6910,7 +6910,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>27.24291945677159</v>
+        <v>27.24860865243003</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6918,7 +6918,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>27.06423793712601</v>
+        <v>27.07023426495526</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6926,7 +6926,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>29.93546774814548</v>
+        <v>29.9365287751784</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6934,7 +6934,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>33.41415128398593</v>
+        <v>33.40923286988833</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6942,7 +6942,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>35.25557392363397</v>
+        <v>35.24749032415684</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6950,7 +6950,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>33.3400734193623</v>
+        <v>33.33528233625839</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6958,7 +6958,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>33.38476926296325</v>
+        <v>33.37990135304646</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6966,7 +6966,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>32.89756930393141</v>
+        <v>32.89353883250241</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6974,7 +6974,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>34.16002443341712</v>
+        <v>34.15382395254365</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6982,7 +6982,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>30.86577683217264</v>
+        <v>30.86523876910641</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6990,7 +6990,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>33.41050198135544</v>
+        <v>33.4055898399732</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -6998,7 +6998,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>29.47681816699686</v>
+        <v>29.47866755782904</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7006,7 +7006,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>29.04773157630815</v>
+        <v>29.0503185156933</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7014,7 +7014,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>29.5300274619516</v>
+        <v>29.53178539236673</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7022,7 +7022,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>27.80651228356955</v>
+        <v>27.81123273053464</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7030,7 +7030,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>28.59329837500026</v>
+        <v>28.5966664307324</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7038,7 +7038,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>28.61331063050228</v>
+        <v>28.61664428755942</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7046,7 +7046,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>25.57448524595624</v>
+        <v>25.58304228056575</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7054,7 +7054,7 @@
         <v>833</v>
       </c>
       <c r="B835">
-        <v>26.91868328303998</v>
+        <v>26.92492980191968</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7062,7 +7062,7 @@
         <v>834</v>
       </c>
       <c r="B836">
-        <v>27.16261092640629</v>
+        <v>27.16843816282755</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7070,7 +7070,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>29.28528464192085</v>
+        <v>29.28746325598544</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7078,7 +7078,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>30.12839046535909</v>
+        <v>30.12911988130492</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7086,7 +7086,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>30.10858432925114</v>
+        <v>30.10934778957727</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7094,7 +7094,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>29.63605125284757</v>
+        <v>29.63762694104138</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7102,7 +7102,7 @@
         <v>839</v>
       </c>
       <c r="B841">
-        <v>26.86572060937296</v>
+        <v>26.87205816475715</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7110,7 +7110,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>26.88003064569774</v>
+        <v>26.88634360383979</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7118,7 +7118,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>28.561765539327</v>
+        <v>28.56518779623427</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7126,7 +7126,7 @@
         <v>842</v>
       </c>
       <c r="B844">
-        <v>29.99836613886954</v>
+        <v>29.99931905108792</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7134,7 +7134,7 @@
         <v>843</v>
       </c>
       <c r="B845">
-        <v>31.10850963067413</v>
+        <v>31.10755433894547</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7142,7 +7142,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>25.7474625410397</v>
+        <v>25.75572224835836</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7150,7 +7150,7 @@
         <v>845</v>
       </c>
       <c r="B847">
-        <v>27.04602925136022</v>
+        <v>27.05205687774406</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7158,7 +7158,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>27.50428309153166</v>
+        <v>27.50952303434712</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7166,7 +7166,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>27.47537738862174</v>
+        <v>27.4806670168845</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7174,7 +7174,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>28.34774178592342</v>
+        <v>28.35153192407652</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7182,7 +7182,7 @@
         <v>849</v>
       </c>
       <c r="B851">
-        <v>27.79980431469848</v>
+        <v>27.80453629185986</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7190,7 +7190,7 @@
         <v>850</v>
       </c>
       <c r="B852">
-        <v>27.78222186069515</v>
+        <v>27.78698405999397</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7198,7 +7198,7 @@
         <v>851</v>
       </c>
       <c r="B853">
-        <v>26.08856449227541</v>
+        <v>26.09623788611681</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7206,7 +7206,7 @@
         <v>852</v>
       </c>
       <c r="B854">
-        <v>28.52414290624792</v>
+        <v>28.52762983196366</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7214,7 +7214,7 @@
         <v>853</v>
       </c>
       <c r="B855">
-        <v>31.29589689445028</v>
+        <v>31.29461950641728</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7222,7 +7222,7 @@
         <v>854</v>
       </c>
       <c r="B856">
-        <v>29.90963661201012</v>
+        <v>29.91074203967831</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7230,7 +7230,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>29.87218913190226</v>
+        <v>29.87335892731179</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7238,7 +7238,7 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>29.97075844056089</v>
+        <v>29.97175880711236</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7246,7 +7246,7 @@
         <v>857</v>
       </c>
       <c r="B859">
-        <v>29.24484490813155</v>
+        <v>29.24709303326392</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7254,7 +7254,7 @@
         <v>858</v>
       </c>
       <c r="B860">
-        <v>29.72955846281629</v>
+        <v>29.73097342329483</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7262,7 +7262,7 @@
         <v>859</v>
       </c>
       <c r="B861">
-        <v>30.37096842331029</v>
+        <v>30.37128087674583</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7270,7 +7270,7 @@
         <v>860</v>
       </c>
       <c r="B862">
-        <v>29.7056371031298</v>
+        <v>29.70709318156575</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7278,7 +7278,7 @@
         <v>861</v>
       </c>
       <c r="B863">
-        <v>31.5160086448217</v>
+        <v>31.51435291100259</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7286,7 +7286,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>32.44445178881678</v>
+        <v>32.44120017222615</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7294,7 +7294,7 @@
         <v>863</v>
       </c>
       <c r="B865">
-        <v>35.68017246001854</v>
+        <v>35.67135902641652</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7302,7 +7302,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>34.81102131504112</v>
+        <v>34.80370184835203</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7310,7 +7310,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>37.77019316803207</v>
+        <v>37.75778723869016</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7318,7 +7318,7 @@
         <v>866</v>
       </c>
       <c r="B868">
-        <v>41.38704435073568</v>
+        <v>41.36842148659667</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7326,7 +7326,7 @@
         <v>867</v>
       </c>
       <c r="B869">
-        <v>44.26246008240095</v>
+        <v>44.23889472236697</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7334,7 +7334,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>37.3794665572931</v>
+        <v>37.36773224028404</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7342,7 +7342,7 @@
         <v>869</v>
       </c>
       <c r="B871">
-        <v>34.63796397881369</v>
+        <v>34.63094197699733</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7350,7 +7350,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>32.38009935269191</v>
+        <v>32.37695835024683</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7358,7 +7358,7 @@
         <v>871</v>
       </c>
       <c r="B873">
-        <v>30.08408089155581</v>
+        <v>30.08488647036145</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7366,7 +7366,7 @@
         <v>872</v>
       </c>
       <c r="B874">
-        <v>27.06703785778053</v>
+        <v>27.07302937288135</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7374,7 +7374,7 @@
         <v>873</v>
       </c>
       <c r="B875">
-        <v>27.95013751041132</v>
+        <v>27.95461108278125</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7382,7 +7382,7 @@
         <v>874</v>
       </c>
       <c r="B876">
-        <v>24.92403520925417</v>
+        <v>24.93371028971742</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7390,7 +7390,7 @@
         <v>875</v>
       </c>
       <c r="B877">
-        <v>26.16740379996908</v>
+        <v>26.17494167846649</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7398,7 +7398,7 @@
         <v>876</v>
       </c>
       <c r="B878">
-        <v>26.63390712943909</v>
+        <v>26.64064314448259</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7406,7 +7406,7 @@
         <v>877</v>
       </c>
       <c r="B879">
-        <v>25.45257055876426</v>
+        <v>25.46133715014657</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7414,7 +7414,7 @@
         <v>878</v>
       </c>
       <c r="B880">
-        <v>23.82833173230723</v>
+        <v>23.83989019605835</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7422,7 +7422,7 @@
         <v>879</v>
       </c>
       <c r="B881">
-        <v>24.02318162840596</v>
+        <v>24.03440516847898</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7430,7 +7430,7 @@
         <v>880</v>
       </c>
       <c r="B882">
-        <v>24.51199682684582</v>
+        <v>24.52238015202953</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7438,7 +7438,7 @@
         <v>881</v>
       </c>
       <c r="B883">
-        <v>29.91781939767124</v>
+        <v>29.91891076010929</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7446,7 +7446,7 @@
         <v>882</v>
       </c>
       <c r="B884">
-        <v>24.97769562911743</v>
+        <v>24.98727847373354</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7454,7 +7454,7 @@
         <v>883</v>
       </c>
       <c r="B885">
-        <v>25.19012899934377</v>
+        <v>25.19934669639228</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7462,7 +7462,7 @@
         <v>884</v>
       </c>
       <c r="B886">
-        <v>27.55043361508309</v>
+        <v>27.55559423066558</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7470,7 +7470,7 @@
         <v>885</v>
       </c>
       <c r="B887">
-        <v>25.21853507615232</v>
+        <v>25.22770394655114</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7478,7 +7478,7 @@
         <v>886</v>
       </c>
       <c r="B888">
-        <v>26.14991877673573</v>
+        <v>26.15748670989766</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7486,7 +7486,7 @@
         <v>887</v>
       </c>
       <c r="B889">
-        <v>26.42687401408001</v>
+        <v>26.4339658942978</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7494,7 +7494,7 @@
         <v>888</v>
       </c>
       <c r="B890">
-        <v>26.46129969654966</v>
+        <v>26.46833240313515</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7502,7 +7502,7 @@
         <v>889</v>
       </c>
       <c r="B891">
-        <v>27.28164928927244</v>
+        <v>27.28727191297863</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7510,7 +7510,7 @@
         <v>890</v>
       </c>
       <c r="B892">
-        <v>28.8159228366725</v>
+        <v>28.81890822756989</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7518,7 +7518,7 @@
         <v>891</v>
       </c>
       <c r="B893">
-        <v>32.61700860595865</v>
+        <v>32.61346038482855</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7526,7 +7526,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>33.07542692356209</v>
+        <v>33.07109073614705</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7534,7 +7534,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>29.83391868569096</v>
+        <v>29.83515426342187</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7542,7 +7542,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>23.43680552369177</v>
+        <v>23.44903697418935</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7550,7 +7550,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>24.08746239983601</v>
+        <v>24.09857544894819</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7558,7 +7558,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>24.927158726592</v>
+        <v>24.93682843810209</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7566,7 +7566,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>29.02063723912478</v>
+        <v>29.02327075043732</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7574,7 +7574,7 @@
         <v>898</v>
       </c>
       <c r="B900">
-        <v>26.62246620227974</v>
+        <v>26.6292218829086</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7582,7 +7582,7 @@
         <v>899</v>
       </c>
       <c r="B901">
-        <v>25.97295155586939</v>
+        <v>25.98082367452769</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7590,7 +7590,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>25.89449130521815</v>
+        <v>25.90249828766757</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7598,7 +7598,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>27.83482324223736</v>
+        <v>27.83949502604892</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7606,7 +7606,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>26.60358418552859</v>
+        <v>26.61037232208688</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7614,7 +7614,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>25.85686483620511</v>
+        <v>25.86493649405686</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7622,7 +7622,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>26.7431002319985</v>
+        <v>26.74964855715145</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7630,7 +7630,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>25.45689102390851</v>
+        <v>25.46565018892749</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7638,7 +7638,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>24.93436481095377</v>
+        <v>24.94402213606618</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7646,7 +7646,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>24.06516534093215</v>
+        <v>24.07631671602255</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7654,7 +7654,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>32.56817618255799</v>
+        <v>32.56471189852522</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7662,7 +7662,7 @@
         <v>909</v>
       </c>
       <c r="B911">
-        <v>29.90508131118703</v>
+        <v>29.90619456887225</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7670,7 +7670,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>30.14147816731828</v>
+        <v>30.1421850870687</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7678,7 +7678,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>28.93510478640191</v>
+        <v>28.93788531777584</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7686,7 +7686,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>29.51532723604886</v>
+        <v>29.51711043439576</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7694,7 +7694,7 @@
         <v>913</v>
       </c>
       <c r="B915">
-        <v>25.88805232078461</v>
+        <v>25.89607037107866</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7702,7 +7702,7 @@
         <v>914</v>
       </c>
       <c r="B916">
-        <v>25.2918849832903</v>
+        <v>25.30092777396706</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7710,7 +7710,7 @@
         <v>915</v>
       </c>
       <c r="B917">
-        <v>24.61667753813948</v>
+        <v>24.62688092969526</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7718,7 +7718,7 @@
         <v>916</v>
       </c>
       <c r="B918">
-        <v>23.55116698845121</v>
+        <v>23.56320186526235</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7726,7 +7726,7 @@
         <v>917</v>
       </c>
       <c r="B919">
-        <v>24.24437439813927</v>
+        <v>24.25521773428431</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7734,7 +7734,7 @@
         <v>918</v>
       </c>
       <c r="B920">
-        <v>24.81636671397986</v>
+        <v>24.82622686371439</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7742,7 +7742,7 @@
         <v>919</v>
       </c>
       <c r="B921">
-        <v>24.26288578595098</v>
+        <v>24.27369730323367</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7750,7 +7750,7 @@
         <v>920</v>
       </c>
       <c r="B922">
-        <v>24.49004843029424</v>
+        <v>24.50046948214813</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7758,7 +7758,7 @@
         <v>921</v>
       </c>
       <c r="B923">
-        <v>26.78344838338343</v>
+        <v>26.78992735488832</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7766,7 +7766,7 @@
         <v>922</v>
       </c>
       <c r="B924">
-        <v>27.79586009726917</v>
+        <v>27.80059885406918</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7774,7 +7774,7 @@
         <v>923</v>
       </c>
       <c r="B925">
-        <v>26.19456860698155</v>
+        <v>26.20205979242282</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7782,7 +7782,7 @@
         <v>924</v>
       </c>
       <c r="B926">
-        <v>26.6759137692783</v>
+        <v>26.68257757992875</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7790,7 +7790,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>28.40254778753014</v>
+        <v>28.40624372071782</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7798,7 +7798,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>33.8125848997869</v>
+        <v>33.80698162593633</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7806,7 +7806,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>28.53333257447493</v>
+        <v>28.53680370424965</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7814,7 +7814,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>32.45118924974749</v>
+        <v>32.44792605226723</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7822,7 +7822,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>39.42365099756616</v>
+        <v>39.40840297188166</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7830,7 +7830,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>34.48414283950696</v>
+        <v>34.47738523784076</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7838,7 +7838,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>33.02819363916468</v>
+        <v>33.0239386401187</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7846,7 +7846,7 @@
         <v>932</v>
       </c>
       <c r="B934">
-        <v>32.44060908282144</v>
+        <v>32.43736407138303</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7854,7 +7854,7 @@
         <v>933</v>
       </c>
       <c r="B935">
-        <v>30.14761984400265</v>
+        <v>30.14831620694535</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7862,7 +7862,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>28.73141003763011</v>
+        <v>28.73454069592582</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7870,7 +7870,7 @@
         <v>935</v>
       </c>
       <c r="B937">
-        <v>28.56406352920011</v>
+        <v>28.5674818361366</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7878,7 +7878,7 @@
         <v>936</v>
       </c>
       <c r="B938">
-        <v>30.47781510993435</v>
+        <v>30.47794390668798</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7886,7 +7886,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>28.57096719118444</v>
+        <v>28.57437363155197</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7894,7 +7894,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>30.98245083794735</v>
+        <v>30.98171222621322</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7902,7 +7902,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>27.72515577327557</v>
+        <v>27.73001606235616</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7910,7 +7910,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>27.49729703082302</v>
+        <v>27.50254898184174</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7918,7 +7918,7 @@
         <v>941</v>
       </c>
       <c r="B943">
-        <v>27.14057265141209</v>
+        <v>27.14643776899339</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7926,7 +7926,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>29.05800590338266</v>
+        <v>29.06057518242806</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7934,7 +7934,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>31.81412471744524</v>
+        <v>31.81195655773747</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7942,7 +7942,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>29.64255939432168</v>
+        <v>29.64412389579794</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7950,7 +7950,7 @@
         <v>945</v>
       </c>
       <c r="B947">
-        <v>28.80568774683151</v>
+        <v>28.80869073062405</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7958,7 +7958,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>27.43709940968496</v>
+        <v>27.44245483321756</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7966,7 +7966,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>26.45761148006945</v>
+        <v>26.46465052625755</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7974,7 +7974,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>24.05752176977275</v>
+        <v>24.06868628324879</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7982,7 +7982,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>24.56270542917322</v>
+        <v>24.57300159233215</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7990,7 +7990,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>24.39862875974235</v>
+        <v>24.40920695108099</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -7998,7 +7998,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>26.27043029319374</v>
+        <v>26.27779108146516</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8006,7 +8006,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>24.06466062419885</v>
+        <v>24.0758128668372</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8014,7 +8014,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>22.94622558367622</v>
+        <v>22.9593002824434</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8022,7 +8022,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>24.596408645902</v>
+        <v>24.6066468772604</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8030,7 +8030,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>22.84790676745969</v>
+        <v>22.86115046451793</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8038,7 +8038,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>22.76447560977739</v>
+        <v>22.77786271502174</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8046,7 +8046,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>23.96693639732247</v>
+        <v>23.9782566162239</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8054,7 +8054,7 @@
         <v>958</v>
       </c>
       <c r="B960">
-        <v>23.42683537665893</v>
+        <v>23.43908396464748</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8062,7 +8062,7 @@
         <v>959</v>
       </c>
       <c r="B961">
-        <v>24.2101732751279</v>
+        <v>24.22107539891513</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8070,7 +8070,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>25.00234742003103</v>
+        <v>25.0118878911657</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8078,7 +8078,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>23.88076839391887</v>
+        <v>23.89223672531737</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8086,7 +8086,7 @@
         <v>962</v>
       </c>
       <c r="B964">
-        <v>23.70828204919839</v>
+        <v>23.72004686400273</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8094,7 +8094,7 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>24.09164028174509</v>
+        <v>24.1027461495772</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8102,7 +8102,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>23.81228426246993</v>
+        <v>23.82387030990301</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8110,7 +8110,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>22.99925788148666</v>
+        <v>23.01224142407369</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8118,7 +8118,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>23.9031160775104</v>
+        <v>23.91454599591207</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8126,7 +8126,7 @@
         <v>967</v>
       </c>
       <c r="B969">
-        <v>24.75539505662859</v>
+        <v>24.76536000935346</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8134,7 +8134,7 @@
         <v>968</v>
       </c>
       <c r="B970">
-        <v>24.27161337882252</v>
+        <v>24.28240989441668</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8142,7 +8142,7 @@
         <v>969</v>
       </c>
       <c r="B971">
-        <v>22.91381211461943</v>
+        <v>22.9269425282648</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8150,7 +8150,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>24.47495498747539</v>
+        <v>24.48540198315317</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8158,7 +8158,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>27.29800938406915</v>
+        <v>27.30360388672822</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8166,7 +8166,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>25.09135762174482</v>
+        <v>25.10074509498331</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8174,7 +8174,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>24.7753817413617</v>
+        <v>24.78531233936437</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8182,7 +8182,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>26.35274574153995</v>
+        <v>26.35996503939668</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8190,7 +8190,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>25.50894849879832</v>
+        <v>25.51761818324123</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8198,7 +8198,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>25.00373511020975</v>
+        <v>25.85457655664507</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8206,7 +8206,7 @@
         <v>977</v>
       </c>
       <c r="B979">
-        <v>27.50645204808337</v>
+        <v>27.51168826272195</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8214,7 +8214,7 @@
         <v>978</v>
       </c>
       <c r="B980">
-        <v>25.72010597073508</v>
+        <v>25.79644132718052</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8222,7 +8222,7 @@
         <v>979</v>
       </c>
       <c r="B981">
-        <v>27.59673860720513</v>
+        <v>27.60181963004176</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8230,7 +8230,7 @@
         <v>980</v>
       </c>
       <c r="B982">
-        <v>26.95600115124456</v>
+        <v>26.96218352517002</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8238,7 +8238,7 @@
         <v>981</v>
       </c>
       <c r="B983">
-        <v>26.77090155018676</v>
+        <v>26.77740208819753</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8246,7 +8246,7 @@
         <v>982</v>
       </c>
       <c r="B984">
-        <v>27.24188539212254</v>
+        <v>27.24757636521417</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8254,7 +8254,7 @@
         <v>983</v>
       </c>
       <c r="B985">
-        <v>26.92401604084274</v>
+        <v>26.93025339334853</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8262,7 +8262,7 @@
         <v>984</v>
       </c>
       <c r="B986">
-        <v>27.60050127464923</v>
+        <v>27.6055758299102</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8270,7 +8270,7 @@
         <v>985</v>
       </c>
       <c r="B987">
-        <v>28.81360963625765</v>
+        <v>28.81659900326951</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8278,7 +8278,7 @@
         <v>986</v>
       </c>
       <c r="B988">
-        <v>30.18951785956951</v>
+        <v>30.19014220483194</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8286,7 +8286,7 @@
         <v>987</v>
       </c>
       <c r="B989">
-        <v>30.12618009080406</v>
+        <v>30.12691330611901</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8294,7 +8294,7 @@
         <v>988</v>
       </c>
       <c r="B990">
-        <v>30.56303803277014</v>
+        <v>30.56302034150823</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8302,7 +8302,7 @@
         <v>989</v>
       </c>
       <c r="B991">
-        <v>30.96217244342269</v>
+        <v>30.96146868782351</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8310,7 +8310,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>28.15168271937809</v>
+        <v>28.15580985962853</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8318,7 +8318,7 @@
         <v>991</v>
       </c>
       <c r="B993">
-        <v>30.09402376454081</v>
+        <v>30.09481225273621</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8326,7 +8326,7 @@
         <v>992</v>
       </c>
       <c r="B994">
-        <v>31.43861117473024</v>
+        <v>31.43708847790963</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8334,7 +8334,7 @@
         <v>993</v>
       </c>
       <c r="B995">
-        <v>30.08032203978327</v>
+        <v>30.0811340796062</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8342,7 +8342,7 @@
         <v>994</v>
       </c>
       <c r="B996">
-        <v>29.4086173383247</v>
+        <v>29.41058395822878</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8350,7 +8350,7 @@
         <v>995</v>
       </c>
       <c r="B997">
-        <v>31.479048666802</v>
+        <v>31.47745646276652</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8358,7 +8358,7 @@
         <v>996</v>
       </c>
       <c r="B998">
-        <v>31.479048666802</v>
+        <v>31.47745646276652</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8366,7 +8366,7 @@
         <v>997</v>
       </c>
       <c r="B999">
-        <v>30.83722165915414</v>
+        <v>30.83673267901631</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8374,7 +8374,7 @@
         <v>998</v>
       </c>
       <c r="B1000">
-        <v>30.26838821172841</v>
+        <v>30.26887698828437</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8382,7 +8382,7 @@
         <v>999</v>
       </c>
       <c r="B1001">
-        <v>34.16765153517862</v>
+        <v>34.16143794422862</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8390,7 +8390,7 @@
         <v>1000</v>
       </c>
       <c r="B1002">
-        <v>29.71052459505508</v>
+        <v>29.71197227247609</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8398,7 +8398,7 @@
         <v>1001</v>
       </c>
       <c r="B1003">
-        <v>28.99199241317355</v>
+        <v>28.99467516151637</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8406,7 +8406,7 @@
         <v>1002</v>
       </c>
       <c r="B1004">
-        <v>30.11915777002686</v>
+        <v>30.11990305587176</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8414,7 +8414,7 @@
         <v>1003</v>
       </c>
       <c r="B1005">
-        <v>28.59630217518942</v>
+        <v>28.59966506774866</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8422,7 +8422,7 @@
         <v>1004</v>
       </c>
       <c r="B1006">
-        <v>28.59630217518942</v>
+        <v>28.59966506774866</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8430,7 +8430,7 @@
         <v>1005</v>
       </c>
       <c r="B1007">
-        <v>27.12842482135592</v>
+        <v>27.13431081960489</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8438,7 +8438,7 @@
         <v>1006</v>
       </c>
       <c r="B1008">
-        <v>27.18704304119014</v>
+        <v>27.19282828172697</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8446,7 +8446,7 @@
         <v>1007</v>
       </c>
       <c r="B1009">
-        <v>26.45833765332294</v>
+        <v>26.46537545130644</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8454,7 +8454,7 @@
         <v>1008</v>
       </c>
       <c r="B1010">
-        <v>31.91145966570993</v>
+        <v>31.90912419886119</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8462,7 +8462,7 @@
         <v>1009</v>
       </c>
       <c r="B1011">
-        <v>26.51679295506973</v>
+        <v>26.52373027537764</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8470,7 +8470,7 @@
         <v>1010</v>
       </c>
       <c r="B1012">
-        <v>28.7902326083621</v>
+        <v>28.79326215768958</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8478,7 +8478,7 @@
         <v>1011</v>
       </c>
       <c r="B1013">
-        <v>25.51756369099202</v>
+        <v>25.52621856694991</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8486,7 +8486,7 @@
         <v>1012</v>
       </c>
       <c r="B1014">
-        <v>26.85433485028524</v>
+        <v>26.86069197642815</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8494,7 +8494,7 @@
         <v>1013</v>
       </c>
       <c r="B1015">
-        <v>26.97984681296874</v>
+        <v>26.98598819905236</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8502,7 +8502,7 @@
         <v>1014</v>
       </c>
       <c r="B1016">
-        <v>28.97140108789007</v>
+        <v>28.97411923026034</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8510,7 +8510,7 @@
         <v>1015</v>
       </c>
       <c r="B1017">
-        <v>26.75456477326351</v>
+        <v>26.7610933922412</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8518,7 +8518,7 @@
         <v>1016</v>
       </c>
       <c r="B1018">
-        <v>27.49185115516379</v>
+        <v>27.49711246699146</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8526,7 +8526,7 @@
         <v>1017</v>
       </c>
       <c r="B1019">
-        <v>28.99800707577232</v>
+        <v>29.00067948562976</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8534,7 +8534,7 @@
         <v>1018</v>
       </c>
       <c r="B1020">
-        <v>26.27957571530182</v>
+        <v>26.28692078368624</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8542,7 +8542,7 @@
         <v>1019</v>
       </c>
       <c r="B1021">
-        <v>27.59594950633154</v>
+        <v>27.60103188553827</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8550,7 +8550,7 @@
         <v>1020</v>
       </c>
       <c r="B1022">
-        <v>28.57911414280706</v>
+        <v>28.58250657953844</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8558,7 +8558,7 @@
         <v>1021</v>
       </c>
       <c r="B1023">
-        <v>27.91850545880324</v>
+        <v>27.92303340288897</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8566,7 +8566,7 @@
         <v>1022</v>
       </c>
       <c r="B1024">
-        <v>28.07942962138249</v>
+        <v>28.08368095607047</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8574,7 +8574,7 @@
         <v>1023</v>
       </c>
       <c r="B1025">
-        <v>28.22996833537208</v>
+        <v>28.23396091200738</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8582,7 +8582,7 @@
         <v>1024</v>
       </c>
       <c r="B1026">
-        <v>29.39565910531282</v>
+        <v>29.39764799886921</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8590,7 +8590,7 @@
         <v>1025</v>
       </c>
       <c r="B1027">
-        <v>28.27391365871053</v>
+        <v>28.277830698589</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8598,7 +8598,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>28.48721002092215</v>
+        <v>28.49076042985251</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8606,7 +8606,7 @@
         <v>1027</v>
       </c>
       <c r="B1029">
-        <v>28.70807743038667</v>
+        <v>28.71124819464409</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8614,7 +8614,7 @@
         <v>1028</v>
       </c>
       <c r="B1030">
-        <v>28.26693950689504</v>
+        <v>28.88614268989924</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8622,7 +8622,7 @@
         <v>1029</v>
       </c>
       <c r="B1031">
-        <v>26.41399558660977</v>
+        <v>26.42110960330541</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8630,7 +8630,7 @@
         <v>1030</v>
       </c>
       <c r="B1032">
-        <v>26.79295419057043</v>
+        <v>26.7994168227291</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8638,7 +8638,7 @@
         <v>1031</v>
       </c>
       <c r="B1033">
-        <v>28.01881424672537</v>
+        <v>28.02316977199639</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8646,7 +8646,7 @@
         <v>1032</v>
       </c>
       <c r="B1034">
-        <v>23.83868325959578</v>
+        <v>23.85022393030897</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8654,7 +8654,7 @@
         <v>1033</v>
       </c>
       <c r="B1035">
-        <v>24.92516231165827</v>
+        <v>24.93483545476688</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8662,7 +8662,7 @@
         <v>1034</v>
       </c>
       <c r="B1036">
-        <v>17.17457821989764</v>
+        <v>17.19757369049664</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8670,7 +8670,7 @@
         <v>1035</v>
       </c>
       <c r="B1037">
-        <v>19.69344912094984</v>
+        <v>19.71211495359486</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8678,7 +8678,7 @@
         <v>1036</v>
       </c>
       <c r="B1038">
-        <v>20.6543028635855</v>
+        <v>20.67131710351476</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8686,7 +8686,7 @@
         <v>1037</v>
       </c>
       <c r="B1039">
-        <v>21.68665446935837</v>
+        <v>21.70189422029216</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8694,7 +8694,7 @@
         <v>1038</v>
       </c>
       <c r="B1040">
-        <v>25.37306639493558</v>
+        <v>25.38196964447069</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8702,7 +8702,7 @@
         <v>1039</v>
       </c>
       <c r="B1041">
-        <v>23.90588796964938</v>
+        <v>23.91731312350003</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8710,7 +8710,7 @@
         <v>1040</v>
       </c>
       <c r="B1042">
-        <v>36.58440598896813</v>
+        <v>36.57403828602908</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8718,7 +8718,7 @@
         <v>1041</v>
       </c>
       <c r="B1043">
-        <v>49.8882531587882</v>
+        <v>49.85501773300612</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8726,7 +8726,7 @@
         <v>1042</v>
       </c>
       <c r="B1044">
-        <v>62.59438239159853</v>
+        <v>62.53930664865006</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8734,7 +8734,7 @@
         <v>1043</v>
       </c>
       <c r="B1045">
-        <v>49.92010540324408</v>
+        <v>49.88681522726235</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8742,7 +8742,7 @@
         <v>1044</v>
       </c>
       <c r="B1046">
-        <v>43.96756059211192</v>
+        <v>43.94450212904797</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8750,7 +8750,7 @@
         <v>1045</v>
       </c>
       <c r="B1047">
-        <v>39.57882920617557</v>
+        <v>39.56331444770176</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8758,7 +8758,7 @@
         <v>1046</v>
       </c>
       <c r="B1048">
-        <v>34.97843467438896</v>
+        <v>34.97082744415045</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8766,7 +8766,7 @@
         <v>1047</v>
       </c>
       <c r="B1049">
-        <v>31.5387407064526</v>
+        <v>31.53704589893748</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8774,7 +8774,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>34.4795151284019</v>
+        <v>34.47276548121808</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8782,7 +8782,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>34.36638063500813</v>
+        <v>34.3598254524931</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8790,7 +8790,7 @@
         <v>1050</v>
       </c>
       <c r="B1052">
-        <v>34.67127697059404</v>
+        <v>34.66419770772842</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8798,7 +8798,7 @@
         <v>1051</v>
       </c>
       <c r="B1053">
-        <v>37.30208190642624</v>
+        <v>37.29048060438232</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8806,7 +8806,7 @@
         <v>1052</v>
       </c>
       <c r="B1054">
-        <v>33.92162470486836</v>
+        <v>33.91583400462795</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8814,7 +8814,7 @@
         <v>1053</v>
       </c>
       <c r="B1055">
-        <v>33.03725509907817</v>
+        <v>33.03298452446577</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8822,7 +8822,7 @@
         <v>1054</v>
       </c>
       <c r="B1056">
-        <v>30.74949202396819</v>
+        <v>30.74915384058574</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8830,7 +8830,7 @@
         <v>1055</v>
       </c>
       <c r="B1057">
-        <v>34.08629459560679</v>
+        <v>34.08022084751003</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8838,7 +8838,7 @@
         <v>1056</v>
       </c>
       <c r="B1058">
-        <v>32.55583137372732</v>
+        <v>32.55238830894611</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8846,7 +8846,7 @@
         <v>1057</v>
       </c>
       <c r="B1059">
-        <v>35.30592299419585</v>
+        <v>35.29775285068558</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8854,7 +8854,7 @@
         <v>1058</v>
       </c>
       <c r="B1060">
-        <v>31.9456511866414</v>
+        <v>31.94325694865586</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8862,7 +8862,7 @@
         <v>1059</v>
       </c>
       <c r="B1061">
-        <v>31.45048529230543</v>
+        <v>31.44894218529603</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8870,7 +8870,7 @@
         <v>1060</v>
       </c>
       <c r="B1062">
-        <v>29.91218335021939</v>
+        <v>29.91328440034874</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8878,7 +8878,7 @@
         <v>1061</v>
       </c>
       <c r="B1063">
-        <v>31.02612745931937</v>
+        <v>31.02531377269437</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8886,7 +8886,7 @@
         <v>1062</v>
       </c>
       <c r="B1064">
-        <v>30.80142114678974</v>
+        <v>30.80099370345282</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8894,7 +8894,7 @@
         <v>1063</v>
       </c>
       <c r="B1065">
-        <v>33.25808297048196</v>
+        <v>33.25343281915841</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8902,7 +8902,7 @@
         <v>1064</v>
       </c>
       <c r="B1066">
-        <v>32.4808279533503</v>
+        <v>32.47751381048176</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8910,7 +8910,7 @@
         <v>1065</v>
       </c>
       <c r="B1067">
-        <v>34.49442976509808</v>
+        <v>34.48765448143671</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8918,7 +8918,7 @@
         <v>1066</v>
       </c>
       <c r="B1068">
-        <v>35.0509505633603</v>
+        <v>35.0432186869774</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8926,7 +8926,7 @@
         <v>1067</v>
       </c>
       <c r="B1069">
-        <v>34.95247527197752</v>
+        <v>34.94491266284789</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8934,7 +8934,7 @@
         <v>1068</v>
       </c>
       <c r="B1070">
-        <v>36.45104158112225</v>
+        <v>36.44090311565739</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8942,7 +8942,7 @@
         <v>1069</v>
       </c>
       <c r="B1071">
-        <v>37.21596303948844</v>
+        <v>37.2045097654809</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8950,7 +8950,7 @@
         <v>1070</v>
       </c>
       <c r="B1072">
-        <v>36.23720635085455</v>
+        <v>36.227435442586</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8958,7 +8958,7 @@
         <v>1071</v>
       </c>
       <c r="B1073">
-        <v>42.26014828179076</v>
+        <v>42.24002465637237</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8966,7 +8966,7 @@
         <v>1072</v>
       </c>
       <c r="B1074">
-        <v>41.64521853735768</v>
+        <v>41.62615190265545</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8974,7 +8974,7 @@
         <v>1073</v>
       </c>
       <c r="B1075">
-        <v>45.16607830186503</v>
+        <v>45.14095973013772</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8982,7 +8982,7 @@
         <v>1074</v>
       </c>
       <c r="B1076">
-        <v>46.03328229977423</v>
+        <v>46.00667310804705</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8990,7 +8990,7 @@
         <v>1075</v>
       </c>
       <c r="B1077">
-        <v>67.19568543986396</v>
+        <v>67.1327006070525</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -8998,7 +8998,7 @@
         <v>1076</v>
       </c>
       <c r="B1078">
-        <v>63.42461940121383</v>
+        <v>63.3681165801014</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9006,7 +9006,7 @@
         <v>1077</v>
       </c>
       <c r="B1079">
-        <v>59.85676655639772</v>
+        <v>59.80639644779748</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9014,7 +9014,7 @@
         <v>1078</v>
       </c>
       <c r="B1080">
-        <v>62.1577694063043</v>
+        <v>62.10344414888331</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9022,7 +9022,7 @@
         <v>1079</v>
       </c>
       <c r="B1081">
-        <v>66.44375303373899</v>
+        <v>66.38206068284177</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9030,7 +9030,7 @@
         <v>1080</v>
       </c>
       <c r="B1082">
-        <v>70.42038988944013</v>
+        <v>70.35186217518353</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9038,7 +9038,7 @@
         <v>1081</v>
       </c>
       <c r="B1083">
-        <v>70.44999673083647</v>
+        <v>70.38141812595836</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9046,7 +9046,7 @@
         <v>1082</v>
       </c>
       <c r="B1084">
-        <v>72.50156198341382</v>
+        <v>72.42945698312684</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9054,7 +9054,7 @@
         <v>1083</v>
       </c>
       <c r="B1085">
-        <v>89.55535056361795</v>
+        <v>89.45393213950103</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9062,7 +9062,7 @@
         <v>1084</v>
       </c>
       <c r="B1086">
-        <v>94.04283739119172</v>
+        <v>93.93370551368486</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9070,7 +9070,7 @@
         <v>1085</v>
       </c>
       <c r="B1087">
-        <v>107.4488280810446</v>
+        <v>107.3166529081981</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9078,7 +9078,7 @@
         <v>1086</v>
       </c>
       <c r="B1088">
-        <v>134.800594898711</v>
+        <v>134.6214053085355</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9086,7 +9086,7 @@
         <v>1087</v>
       </c>
       <c r="B1089">
-        <v>156.5718122633724</v>
+        <v>156.355200553246</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9094,7 +9094,7 @@
         <v>1088</v>
       </c>
       <c r="B1090">
-        <v>121.3230430486737</v>
+        <v>121.1670197589231</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9102,7 +9102,7 @@
         <v>1089</v>
       </c>
       <c r="B1091">
-        <v>97.42051731262553</v>
+        <v>97.30557960712798</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9110,7 +9110,7 @@
         <v>1090</v>
       </c>
       <c r="B1092">
-        <v>122.993213114184</v>
+        <v>122.8343190017558</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9118,7 +9118,7 @@
         <v>1091</v>
       </c>
       <c r="B1093">
-        <v>114.2916790539592</v>
+        <v>114.1477418383313</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9126,7 +9126,7 @@
         <v>1092</v>
       </c>
       <c r="B1094">
-        <v>105.1791391965406</v>
+        <v>105.0508653475457</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9134,7 +9134,7 @@
         <v>1093</v>
       </c>
       <c r="B1095">
-        <v>114.954701765363</v>
+        <v>114.8096248929605</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9142,7 +9142,7 @@
         <v>1094</v>
       </c>
       <c r="B1096">
-        <v>122.5822840206282</v>
+        <v>122.4240962461874</v>
       </c>
     </row>
   </sheetData>

--- a/UCED/Validation_and_Price_Calculation/weighted_daily_prices.xlsx
+++ b/UCED/Validation_and_Price_Calculation/weighted_daily_prices.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56.25819957329556</v>
+        <v>55.01607242513309</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56.07801218513846</v>
+        <v>55.31360642655004</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60.86185266257682</v>
+        <v>60.02794693193354</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64.71452716640751</v>
+        <v>63.52372169984064</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68.77959974469655</v>
+        <v>67.18062603118993</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88.83344651651097</v>
+        <v>87.25755278516867</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>88.01716734588588</v>
+        <v>86.59251350975752</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59.93769428785097</v>
+        <v>59.13139057259946</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>69.95507635028531</v>
+        <v>68.92341437832569</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76.35226903953952</v>
+        <v>75.1858224615908</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>78.02250779704795</v>
+        <v>76.8154330037668</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76.55080279404183</v>
+        <v>75.36876341517603</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>79.09239610823565</v>
+        <v>77.86009036716374</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>77.51413680848012</v>
+        <v>75.77048426683736</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>87.65086022567945</v>
+        <v>86.23108545515437</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>56.08565067028338</v>
+        <v>55.3603926909027</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>61.34828793773147</v>
+        <v>60.43636937484108</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>57.58588885750778</v>
+        <v>56.99591395330823</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>63.2808074504</v>
+        <v>62.39985236040894</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>64.83190397156834</v>
+        <v>63.91320486313926</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>57.84423798956238</v>
+        <v>57.08099502478225</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>49.64386571532019</v>
+        <v>49.05873243033818</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>69.22672733027355</v>
+        <v>68.21629243987145</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>69.65054094425747</v>
+        <v>68.62538087942454</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>69.15561294038066</v>
+        <v>68.15127451734575</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>78.94389315266132</v>
+        <v>77.71823308165321</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>65.79912216620492</v>
+        <v>64.85858710155301</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>67.74357747844486</v>
+        <v>66.76354563188974</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>79.29938371934691</v>
+        <v>77.90970711726006</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>82.5439343808159</v>
+        <v>81.1735069285504</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87.36107988191341</v>
+        <v>85.94653838832647</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>78.84767116977541</v>
+        <v>77.6242443050444</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>76.83578635904674</v>
+        <v>75.65152061601898</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>61.16966577653903</v>
+        <v>60.33322314435546</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>83.7255266700362</v>
+        <v>82.39423715512503</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>76.96673728659897</v>
+        <v>75.48889256012423</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>65.30191865114759</v>
+        <v>63.43822438046313</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>69.82086907912412</v>
+        <v>68.79163029207976</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>79.42434631090302</v>
+        <v>78.18605410038927</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>84.26613156110707</v>
+        <v>82.92624360057961</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>102.6966157313771</v>
+        <v>100.9487788268676</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>124.0861506331709</v>
+        <v>121.8376803661905</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>109.2578149744048</v>
+        <v>107.3657813814901</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>145.9179633803788</v>
+        <v>142.9778707648523</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>140.9913636644829</v>
+        <v>138.4033479302522</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>135.6363407789761</v>
+        <v>133.1640355689831</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>125.0634484628839</v>
+        <v>122.826269136987</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>134.1790238337864</v>
+        <v>131.7424241041826</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>125.9025077520733</v>
+        <v>123.6469435035142</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>107.3965593163097</v>
+        <v>105.596145044579</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>91.56532055207654</v>
+        <v>90.88144865777099</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>113.0694715116398</v>
+        <v>111.0956955951121</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>128.0440388243999</v>
+        <v>125.7546980124327</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>162.5625988728374</v>
+        <v>159.6021044089355</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>181.6484616680231</v>
+        <v>178.352407469691</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>149.083136208674</v>
+        <v>146.3168033227233</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>127.8260488747285</v>
+        <v>126.0370389653722</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>103.0806978715287</v>
+        <v>101.3253999299482</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>101.1361019770278</v>
+        <v>99.33939793280142</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>89.72867598277546</v>
+        <v>88.26316609521798</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>83.0289160404392</v>
+        <v>81.71163221818641</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>56.30135159286982</v>
+        <v>55.57292887042631</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>88.33443842492115</v>
+        <v>86.89891359151888</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>97.39780332991455</v>
+        <v>95.77061328262165</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>53.944610562481</v>
+        <v>53.26525049345992</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>47.80865255031993</v>
+        <v>47.3669760761707</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>40.75342995814812</v>
+        <v>39.9426535950946</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>34.27727549197353</v>
+        <v>34.03359835710486</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>28.19112695104255</v>
+        <v>28.07584211440646</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>38.78853849042447</v>
+        <v>38.4402484122262</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>32.89323513464288</v>
+        <v>32.68083429554227</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>31.81731310163381</v>
+        <v>31.54164703326202</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>38.2671429203393</v>
+        <v>39.0248685926824</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>39.69498136610515</v>
+        <v>39.48357378233193</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>41.9081538993292</v>
+        <v>41.49213641584811</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>83.61379735390257</v>
+        <v>82.28534670357111</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>77.0315654864638</v>
+        <v>75.84753175377396</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>58.51890205057366</v>
+        <v>57.74187182115843</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>67.59546594275776</v>
+        <v>66.61985685560391</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>63.21347327307898</v>
+        <v>62.33063033405799</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>61.2303408344384</v>
+        <v>60.39561870508908</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>57.18195995446057</v>
+        <v>56.43131529701006</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>35.87486895856514</v>
+        <v>35.59340412586501</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>29.46080137472577</v>
+        <v>29.3537231781306</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>43.3471909548928</v>
+        <v>42.89813858426746</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>64.39107364297237</v>
+        <v>63.48580151583239</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>67.76155191500996</v>
+        <v>66.77773968539887</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>65.60639525538031</v>
+        <v>64.67206641599772</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>64.59746017633984</v>
+        <v>63.68451826496006</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>37.65090458710797</v>
+        <v>37.33011525360975</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>28.28499957434292</v>
+        <v>28.16924814395032</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>29.87843396337342</v>
+        <v>29.72797166816137</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>30.36176910059978</v>
+        <v>30.19991354114197</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>33.22477111264529</v>
+        <v>32.97828504737852</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>34.51047464198636</v>
+        <v>34.25970421828238</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>35.90530668307536</v>
+        <v>35.6215841089315</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>49.35309370109482</v>
+        <v>48.77564223117243</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>34.64171596684884</v>
+        <v>34.38807507171971</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31.70280744212916</v>
+        <v>31.51213505690435</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>26.10410290605407</v>
+        <v>26.03372989986872</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>29.80321593209573</v>
+        <v>29.1131735147019</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>28.82914048789755</v>
+        <v>28.70033884401731</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>29.59131122847619</v>
+        <v>29.46652635997728</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>31.21181637098708</v>
+        <v>31.03444896285552</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>25.85472840392428</v>
+        <v>25.7916817439874</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>24.96353369352998</v>
+        <v>24.92297236939706</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>20.56557455115002</v>
+        <v>20.61851117458334</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>25.48656154406618</v>
+        <v>23.93892070074876</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>26.61120923332678</v>
+        <v>26.58246951104383</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>27.63331662527566</v>
+        <v>27.58208885128279</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>31.14344520356912</v>
+        <v>30.96730817602209</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>31.09708366173119</v>
+        <v>30.90965784138827</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>32.91984744012585</v>
+        <v>32.68936737756387</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>28.21891139393483</v>
+        <v>28.10456321974749</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>27.11658809627537</v>
+        <v>27.18719446523877</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>27.46859252724198</v>
+        <v>27.29433667559793</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>26.58369604127404</v>
+        <v>26.52814915963797</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>29.16970014774903</v>
+        <v>29.06006028221615</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>25.0916513951077</v>
+        <v>25.02978158143344</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>21.10891124257798</v>
+        <v>21.1429002834041</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>20.48340760243273</v>
+        <v>23.64101207621865</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>19.2258379309723</v>
+        <v>19.23977324384277</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>20.51283021592178</v>
+        <v>20.47403152728086</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>21.1238016773251</v>
+        <v>21.15946694996313</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>23.35280768135787</v>
+        <v>22.8338241417646</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>21.28410333814365</v>
+        <v>21.32034676466327</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>21.07021396103303</v>
+        <v>21.11043294693164</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>22.31177120973681</v>
+        <v>22.32879056045629</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>22.132690731573</v>
+        <v>22.18822364344662</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>24.33548886309698</v>
+        <v>24.39671014501059</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>25.31519336667978</v>
+        <v>25.55275544738231</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>25.31519336667978</v>
+        <v>24.19641165384965</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>19.7671160980955</v>
+        <v>19.84383220139212</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>23.1010035945605</v>
+        <v>20.72477926434516</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>18.83874581130908</v>
+        <v>18.93204116879023</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>21.14948208906636</v>
+        <v>20.82072440610035</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>21.1356626729577</v>
+        <v>21.17540924466694</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>21.32393409145431</v>
+        <v>21.34744450318068</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>20.94808998453725</v>
+        <v>22.13361191850832</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>19.99511858929043</v>
+        <v>20.20513538162422</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>22.25798732083949</v>
+        <v>22.27759206832661</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>19.34836273479839</v>
+        <v>19.41322374522839</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>20.06810811342198</v>
+        <v>20.13533060820842</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>21.99996250377372</v>
+        <v>23.08948360409014</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>22.06390234019007</v>
+        <v>21.89913947447059</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>27.59094641059193</v>
+        <v>25.4939396186187</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>25.87080566106144</v>
+        <v>25.77894455814051</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>19.5797235249541</v>
+        <v>19.4306229075944</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>19.57583530680558</v>
+        <v>19.48302851864419</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>22.1225267554632</v>
+        <v>20.31527457688854</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>19.11618746216318</v>
+        <v>19.19823170307415</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>19.35849712785978</v>
+        <v>19.43953061272916</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>17.02796500009747</v>
+        <v>17.17539176646816</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>16.80020179294665</v>
+        <v>16.93471722866838</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>17.49960025503292</v>
+        <v>17.62173439338393</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>16.82879170451907</v>
+        <v>16.96177334239543</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>17.77552064148195</v>
+        <v>17.88659293437666</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>17.11130722782749</v>
+        <v>17.24086756168763</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>18.35756052591439</v>
+        <v>19.15094594123731</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>25.07055876656347</v>
+        <v>25.10591332298233</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>29.82881935760333</v>
+        <v>29.68355801685867</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>24.88771861593058</v>
+        <v>24.84496751228244</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>18.91956354565346</v>
+        <v>19.00613329561203</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>20.47329143703837</v>
+        <v>20.54246268261513</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>20.88821665838044</v>
+        <v>20.9342768341733</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>21.77424715101899</v>
+        <v>21.80277808481191</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>22.15427191009663</v>
+        <v>22.17432096346995</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>21.99847268211693</v>
+        <v>22.06488938964159</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>19.76619686017358</v>
+        <v>19.82256193352361</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>19.51987518287393</v>
+        <v>21.81884525388675</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>20.79087200762969</v>
+        <v>20.84116217816187</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>23.78619638330396</v>
+        <v>23.75298276225832</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>25.94760412025614</v>
+        <v>25.92225871131324</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>26.54197694410087</v>
+        <v>22.67839717460024</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>19.17417728179031</v>
+        <v>19.22595381344679</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>18.71619755472024</v>
+        <v>18.80396168888537</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>17.73457450459237</v>
+        <v>17.86103531310218</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>17.8906124199879</v>
+        <v>18.00201847801533</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>17.41513646304593</v>
+        <v>17.53486345592489</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>18.09432703651898</v>
+        <v>18.2032743393543</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>18.63635387512083</v>
+        <v>18.73798639618169</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>17.0496336038897</v>
+        <v>18.15927693595507</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>14.05685423577012</v>
+        <v>14.58878566937095</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>15.17103828802219</v>
+        <v>15.34086238140249</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>18.26827273490586</v>
+        <v>17.81558104204071</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>19.95458585541186</v>
+        <v>20.01570096074447</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>20.93858700692003</v>
+        <v>20.98322758762411</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>19.27885787901261</v>
+        <v>19.35931964172602</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>18.41772915965548</v>
+        <v>18.51858212625041</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>19.69644286517616</v>
+        <v>19.76641009134238</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>22.76252701323528</v>
+        <v>22.76593410870486</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>24.18465200554117</v>
+        <v>23.6477136674649</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>22.02780800482919</v>
+        <v>22.04819784871151</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>20.53417483516749</v>
+        <v>20.58754233056346</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>21.20441966170318</v>
+        <v>21.24513076850204</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>22.25476470867931</v>
+        <v>22.27093210187072</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>22.84748334500387</v>
+        <v>22.83057740811735</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>24.67494099984491</v>
+        <v>24.70573258856395</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>28.88006490343545</v>
+        <v>28.7284355775031</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>33.38928833289453</v>
+        <v>33.20909450986551</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>36.83929826852513</v>
+        <v>36.53837011637529</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>26.52399724711421</v>
+        <v>26.43665787045016</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>20.51980853382701</v>
+        <v>20.5749300190876</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>17.76824620409144</v>
+        <v>17.8843451956978</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>17.95039570966835</v>
+        <v>18.06978363670404</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>23.53928106146557</v>
+        <v>23.61874281338177</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>29.04402382553992</v>
+        <v>28.92165785430467</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>35.07570570254423</v>
+        <v>34.87454399653222</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>39.7777764596969</v>
+        <v>38.14879163020023</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>35.33642982505869</v>
+        <v>35.03937816631553</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>24.95407822741615</v>
+        <v>24.90736307301607</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>22.09482468432412</v>
+        <v>22.11296602249506</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>22.89210199344746</v>
+        <v>22.89326434238344</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>22.13844697776055</v>
+        <v>22.15733804900743</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>23.92127612580729</v>
+        <v>22.15733804900743</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>21.03480560087062</v>
+        <v>22.80106543175969</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>20.14467289333269</v>
+        <v>18.50064184160986</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>17.80300939067573</v>
+        <v>17.91889377168773</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>18.96059327349674</v>
+        <v>18.9737908335106</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>20.19300118953928</v>
+        <v>22.35925990699199</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>19.33095179062062</v>
+        <v>19.4127242477442</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>21.19233413189671</v>
+        <v>21.42940371537849</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>21.91558127108047</v>
+        <v>22.84764357216059</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>25.75687836821443</v>
+        <v>25.95081331749287</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>24.22334159553558</v>
+        <v>24.19849289336712</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>28.96272576452241</v>
+        <v>29.313014133169</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>31.78299659729689</v>
+        <v>31.66244217485576</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>28.82645066589716</v>
+        <v>28.54932410462998</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>31.27188169463204</v>
+        <v>31.07016303297526</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>27.23347523417143</v>
+        <v>31.68304644607868</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>27.90154770780799</v>
+        <v>27.79891238421242</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>28.61470454131301</v>
+        <v>28.16683390611006</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>24.72057323243013</v>
+        <v>24.68591918835769</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>26.06396791795759</v>
+        <v>25.99776608100689</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>25.73269700247532</v>
+        <v>25.67072010323229</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>27.8921969638151</v>
+        <v>27.78584220004272</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>31.97707616483765</v>
+        <v>58.01855180261039</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>29.45248715041867</v>
+        <v>29.31438775125052</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>26.58161829036971</v>
+        <v>26.51757646288923</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>25.96025011914402</v>
+        <v>26.47607654691095</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>28.59541840524582</v>
+        <v>28.53184169268326</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>31.12460526141356</v>
+        <v>30.94853539557455</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>34.2126625542658</v>
+        <v>33.96358545973732</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>34.29266619165083</v>
+        <v>34.92520136638736</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>31.77737245948072</v>
+        <v>30.96027358645305</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>26.98804055477094</v>
+        <v>27.19006657577287</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>28.88138811069539</v>
+        <v>28.33720417300985</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>29.93591738829112</v>
+        <v>29.25956790236046</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>29.9008709054044</v>
+        <v>29.72110357775373</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>32.38924815155202</v>
+        <v>31.97633471887999</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>32.38924815155202</v>
+        <v>35.57612983787003</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>36.4638924066919</v>
+        <v>36.29911082144743</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>26.16110699188578</v>
+        <v>25.99381172592372</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>23.14085728087898</v>
+        <v>23.61907581170456</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>25.59860340590215</v>
+        <v>68.96058531610765</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>23.25643608109149</v>
+        <v>23.25036341879027</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>23.51906574219638</v>
+        <v>23.51097623116737</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>22.83796448371921</v>
+        <v>22.14763947285603</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>25.83240092937058</v>
+        <v>26.22058358374682</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>38.72403473246361</v>
+        <v>38.45356834513794</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>37.33433588665947</v>
+        <v>37.04028183840742</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>35.69703847967481</v>
+        <v>35.73234767605104</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>30.75246852747744</v>
+        <v>30.58236211487156</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>28.74357782548324</v>
+        <v>28.57638021835704</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>26.10587647889566</v>
+        <v>25.94344572960104</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>22.75212319290663</v>
+        <v>24.99390101215232</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>22.04539084348202</v>
+        <v>22.13760789838185</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>19.20659905425069</v>
+        <v>19.28718388005064</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>21.13708050621406</v>
+        <v>21.17769860813614</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>22.00491278519978</v>
+        <v>21.92657021131079</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>23.19597606892587</v>
+        <v>23.19104809254248</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>25.34709642586817</v>
+        <v>26.32185669866672</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>23.43737002702009</v>
+        <v>23.4262697828065</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>21.9819038968806</v>
+        <v>22.00553243860346</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>17.80952776255709</v>
+        <v>17.92472124233663</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>21.88983068413164</v>
+        <v>21.91112741409119</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>23.93202413739887</v>
+        <v>23.90899247648759</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>28.81547518872149</v>
+        <v>28.68718541026692</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>28.04739669212123</v>
+        <v>27.93681531463971</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>26.4735517891169</v>
+        <v>26.39686457087621</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>24.85942593885758</v>
+        <v>24.81999263807284</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>25.16330926918135</v>
+        <v>25.11723526595735</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>25.76861974716077</v>
+        <v>25.70876516161156</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>25.76895785710735</v>
+        <v>25.70664229730376</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>26.42997136293588</v>
+        <v>26.35665502339875</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>27.19210881446215</v>
+        <v>27.10215501855511</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>27.23516148349782</v>
+        <v>27.14082444878962</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>26.97310537735355</v>
+        <v>26.88429086586675</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>36.68770244637814</v>
+        <v>36.38323452274339</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>37.97850846101005</v>
+        <v>37.65170838384861</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>38.95625183629217</v>
+        <v>38.5682862673407</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>40.65687173196598</v>
+        <v>40.26949144891748</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>34.09349034343337</v>
+        <v>33.85090715226171</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>27.88594366714408</v>
+        <v>27.77884923526404</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>38.95550642595708</v>
+        <v>38.60412521183146</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>40.57059308189651</v>
+        <v>40.18574237073466</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>50.24266157069749</v>
+        <v>49.6266610698643</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>44.79110701731413</v>
+        <v>44.31213271243394</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>47.91525036439577</v>
+        <v>47.36701770096101</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>44.41823431567995</v>
+        <v>43.94587618215029</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>48.01532561812759</v>
+        <v>47.46304609229692</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>43.65349499598423</v>
+        <v>43.38252626956255</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>36.3172795114854</v>
+        <v>36.04607372091388</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>40.63544651806808</v>
+        <v>40.2498445478726</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>36.8531167285212</v>
+        <v>36.55098242785115</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>38.81377298029412</v>
+        <v>38.46613903182343</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>35.45057330833946</v>
+        <v>35.17865471482435</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>32.74334801738024</v>
+        <v>32.53023580405843</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>26.19599020807836</v>
+        <v>26.12896742018796</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>36.00516208911748</v>
+        <v>35.71936074146207</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>34.60839512679494</v>
+        <v>34.35523311213408</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>31.21929665950157</v>
+        <v>31.04102567973073</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>31.97605475676189</v>
+        <v>35.00761845127899</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>24.34875659989077</v>
+        <v>24.32049515388099</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>26.12276530087324</v>
+        <v>26.19286147337418</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>25.52832977981214</v>
+        <v>25.55521131001291</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>24.43419376722282</v>
+        <v>24.39829188704386</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>24.75196865866641</v>
+        <v>24.97571097876967</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>25.4000354161164</v>
+        <v>27.31248508419024</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>23.56910252498717</v>
+        <v>23.55384976522717</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>24.69220328546989</v>
+        <v>23.87619214169231</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>20.89420615126904</v>
+        <v>20.94122817416165</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>23.01640692260007</v>
+        <v>23.01405948397717</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>35.96986668454045</v>
+        <v>35.68368829613267</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>36.96645715592572</v>
+        <v>36.66112162311546</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>36.57296264313199</v>
+        <v>36.27829842627276</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>35.61365232103252</v>
+        <v>35.33849390976576</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>23.60070925002702</v>
+        <v>23.59027145678282</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>26.74304543618735</v>
+        <v>26.66001649546462</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>25.35390340066821</v>
+        <v>25.08868065977772</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>25.20771036216532</v>
+        <v>26.48198726714055</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>24.69081051454663</v>
+        <v>24.65470059559568</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>24.62681039242873</v>
+        <v>24.59388677689533</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>24.15505201234857</v>
+        <v>24.12968711491969</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>24.06081665664561</v>
+        <v>24.03653083411791</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>27.35308626036522</v>
+        <v>31.59921411831513</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>26.43946078847588</v>
+        <v>26.33484363325571</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>22.7449279430102</v>
+        <v>22.64301610280332</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>23.39082523620665</v>
+        <v>23.27113418917458</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>24.59826760858393</v>
+        <v>24.56329255598859</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>23.40200675537306</v>
+        <v>23.39430194381822</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>22.89315682292086</v>
+        <v>22.79203285225389</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>21.92054991193583</v>
+        <v>21.9440526232575</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>16.62245140749106</v>
+        <v>16.76164135039588</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>17.50187685750176</v>
+        <v>16.36778758411061</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>16.03422916194109</v>
+        <v>16.18846798728573</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>17.44085459075353</v>
+        <v>17.56208606881334</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>18.04828570046373</v>
+        <v>17.93491931597222</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>20.00895268468579</v>
+        <v>20.08613010601553</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>21.42792584450621</v>
+        <v>21.46266192286759</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>24.04432485348095</v>
+        <v>24.01925654612295</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>27.67757948490507</v>
+        <v>27.57800962182856</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>27.11390845284771</v>
+        <v>27.02481615808606</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>22.25317823643149</v>
+        <v>22.26876761277257</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>20.69898095247054</v>
+        <v>20.66596343558158</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>17.68066272517137</v>
+        <v>17.62943497959856</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>15.20149170473177</v>
+        <v>16.7857004792178</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>18.65432706726837</v>
+        <v>18.64591235992899</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>24.30733732679138</v>
+        <v>25.0589605594683</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>28.74694126284012</v>
+        <v>28.38931841052718</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>33.37605531875811</v>
+        <v>32.63475565262556</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>37.72844786099678</v>
+        <v>37.3988377824765</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>36.54512649794584</v>
+        <v>36.20320730448258</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>37.27042098578026</v>
+        <v>36.99366207321621</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>39.48263644202757</v>
+        <v>38.91414665035317</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>54.36599234500436</v>
+        <v>53.6778354154024</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>58.0843259539982</v>
+        <v>57.3182563297734</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>57.90058590154416</v>
+        <v>57.13689711822138</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>59.66355608297039</v>
+        <v>58.86361829628231</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>45.23712814532055</v>
+        <v>44.74794426739132</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>40.25035657778562</v>
+        <v>39.87272394730772</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>32.62887996924664</v>
+        <v>32.16901587340699</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>34.67920730306236</v>
+        <v>34.42503788554991</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>36.07472914400456</v>
+        <v>35.79178787666986</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>37.40394645958364</v>
+        <v>37.08619398216275</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>41.30915089932779</v>
+        <v>40.90772435934362</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>47.86861601743691</v>
+        <v>47.3249766627082</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>40.55415127711274</v>
+        <v>39.68761850462431</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>32.69909465311056</v>
+        <v>32.48765364353105</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>43.18962265509188</v>
+        <v>42.74325273937768</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>41.92107339707944</v>
+        <v>41.50362485798452</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>41.13473804239521</v>
+        <v>40.77032092640053</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>41.73359044914473</v>
+        <v>41.38241346848727</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>43.95527118196826</v>
+        <v>43.64172383906774</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>41.72585299458115</v>
+        <v>41.41542192723431</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>41.11570503446945</v>
+        <v>40.71604219978498</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>40.22374067855326</v>
+        <v>39.93191439918445</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>44.00929928682353</v>
+        <v>43.54557057336086</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>38.15440469324523</v>
+        <v>37.81978928727918</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>36.99291370750811</v>
+        <v>36.68667924438995</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>40.52776021023213</v>
+        <v>46.61739685156012</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>31.07475663545513</v>
+        <v>30.9016658816412</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>26.91766845695179</v>
+        <v>57.36371060083485</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>25.79924385932206</v>
+        <v>25.62718057252689</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>26.85233040687168</v>
+        <v>26.61776733326006</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>22.65316399481872</v>
+        <v>22.65745990505454</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>22.70124303363106</v>
+        <v>22.70978226652363</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>23.38877492408401</v>
+        <v>22.21773561980428</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>21.47831525207216</v>
+        <v>21.50595170483089</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>27.85596262176913</v>
+        <v>29.8822747659863</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>29.2285752966967</v>
+        <v>29.12686807072684</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>34.97514810972424</v>
+        <v>34.71778503607668</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>39.67230107106917</v>
+        <v>39.30883291244547</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>43.73994798293939</v>
+        <v>43.07408657307406</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>47.74749709181901</v>
+        <v>47.0544987750183</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>52.76261064534754</v>
+        <v>51.92343375175921</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>51.76434707594508</v>
+        <v>50.96831131240366</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>56.79176988226624</v>
+        <v>56.05044846531375</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>51.1665139796461</v>
+        <v>50.55377002531478</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>45.2241631471628</v>
+        <v>44.73749644501366</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>39.24104446293708</v>
+        <v>38.88438492525343</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>29.74834136560296</v>
+        <v>29.59993381304685</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>37.22196965629058</v>
+        <v>36.90957999671056</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>29.01046735076958</v>
+        <v>28.87836807234137</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>22.11445010155892</v>
+        <v>22.13257129874958</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>25.9721168222332</v>
+        <v>25.68379028740196</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>26.19715039495046</v>
+        <v>26.12522118905653</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>27.89171040616854</v>
+        <v>27.96482879854481</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>24.41379719148967</v>
+        <v>24.38230796754972</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>21.99427003135748</v>
+        <v>22.01306652565669</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>26.48593829169322</v>
+        <v>26.41168299624056</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>19.70848176345044</v>
+        <v>19.77977164904451</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>23.01342131181634</v>
+        <v>23.01122899823341</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>25.37804245255524</v>
+        <v>25.32257035675054</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>28.90828476600437</v>
+        <v>28.78104931250466</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>38.23284541895256</v>
+        <v>37.89900126331393</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>33.17715580732169</v>
+        <v>32.9553914126864</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>28.71924959076555</v>
+        <v>28.59573574586949</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>25.66912395450661</v>
+        <v>25.60924028788635</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>25.66912395450661</v>
+        <v>22.19255262164295</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>18.68475462555563</v>
+        <v>18.77744669743284</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>15.44133115965799</v>
+        <v>15.60742753879954</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>16.56689894644688</v>
+        <v>16.64138733107671</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>15.75580110361627</v>
+        <v>16.02925316419957</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>17.34708284576704</v>
+        <v>16.81109160133089</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>17.46214065024969</v>
+        <v>18.38617366814922</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>16.33682180196374</v>
+        <v>16.481631385716</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>17.09354678960532</v>
+        <v>17.21127233574926</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>16.79541098624317</v>
+        <v>16.92847351011596</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>17.65233939685732</v>
+        <v>21.09074442109642</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>23.78733752571664</v>
+        <v>23.76979917755945</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>29.05053889301941</v>
+        <v>29.07500358195156</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>26.49411383327442</v>
+        <v>26.60215803687905</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>23.98808225069881</v>
+        <v>23.98508259324616</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>22.53000140968487</v>
+        <v>23.64683954686755</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>17.74023451672391</v>
+        <v>17.84813162809389</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>19.64962985780854</v>
+        <v>19.72091419549058</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>17.44053227178205</v>
+        <v>17.56233581755544</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>18.4858263207464</v>
+        <v>18.0068053289055</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>18.89952023046263</v>
+        <v>18.32569284777165</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>19.44218791406388</v>
+        <v>18.79888346446274</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>19.00966352363462</v>
+        <v>19.08709351284145</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>20.91538089229332</v>
+        <v>21.67869458478057</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>17.55042404300399</v>
+        <v>17.54227266860707</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>17.39640943292464</v>
+        <v>17.21747442951132</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>24.1292897456939</v>
+        <v>24.14737765081814</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>31.68699754033374</v>
+        <v>31.51280105354993</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>38.34579886191972</v>
+        <v>37.97708937000928</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>44.83134660035687</v>
+        <v>44.29269393534084</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>38.77009904722345</v>
+        <v>38.18775243396718</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>31.59594033955305</v>
+        <v>24.87547848360849</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>16.95525332702135</v>
+        <v>17.39567015699676</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>35.58017231413251</v>
+        <v>35.30640119640644</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>35.66580957891435</v>
+        <v>35.36925462983392</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>38.26559450917007</v>
+        <v>37.9305112296084</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>36.89760505767822</v>
+        <v>36.59202447113557</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>37.96737902006554</v>
+        <v>37.63963719464731</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>34.69054369931158</v>
+        <v>34.41071895766974</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>27.95662543841264</v>
+        <v>27.84765501371146</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>26.98493352631742</v>
+        <v>26.87833852084682</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>26.55888539800383</v>
+        <v>26.48182076797917</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>25.37841619408559</v>
+        <v>25.32556734165572</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>25.41296948388622</v>
+        <v>25.2923091341666</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>23.59318544218597</v>
+        <v>23.56741944688105</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>23.93123763032096</v>
+        <v>23.99573853957557</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>23.08768311172016</v>
+        <v>24.91090118019575</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>23.17744288309982</v>
+        <v>23.22826065511477</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>25.12316235792825</v>
+        <v>23.52188192623889</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>23.37863206769983</v>
+        <v>23.29669181044906</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>23.68683225794402</v>
+        <v>23.59892941317549</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>24.0863770265309</v>
+        <v>23.9910349382661</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>25.94191795589951</v>
+        <v>25.12876533288411</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>24.56069343032951</v>
+        <v>24.5229581341401</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>23.67204985035379</v>
+        <v>23.65628837427685</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>24.75797441736788</v>
+        <v>24.72200788159053</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>26.83157614615985</v>
+        <v>26.74497269256758</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>25.07931285125701</v>
+        <v>25.03565067687267</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>23.53431166671152</v>
+        <v>23.68450998213369</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>24.51022106196558</v>
+        <v>24.51209406385891</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>24.2236455348032</v>
+        <v>24.24015930850679</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>23.96611600527829</v>
+        <v>23.81612756921825</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>23.34912489764766</v>
+        <v>23.19999742246759</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>23.94379866080888</v>
+        <v>23.91019959540771</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>23.65692818696787</v>
+        <v>23.64392581154312</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>22.60940919864333</v>
+        <v>22.61712548320604</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>23.18052057059393</v>
+        <v>23.17531392179044</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>25.34843953621253</v>
+        <v>24.26817279241189</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>23.18569821330328</v>
+        <v>23.18301450800508</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>24.87326740746242</v>
+        <v>23.18301450800508</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>22.58033008640377</v>
+        <v>22.59073536612457</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>23.75550726588235</v>
+        <v>23.88006324719481</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>21.23907591543992</v>
+        <v>21.19389065158203</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>20.38718172693002</v>
+        <v>20.44572666984331</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>20.35081265191931</v>
+        <v>21.2144532980146</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>20.51695242591621</v>
+        <v>20.8823707206077</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>20.67260735685176</v>
+        <v>20.75000388729686</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>20.54615578276476</v>
+        <v>20.59911402228057</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>20.53430338558339</v>
+        <v>20.5911220625335</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>19.9282789764733</v>
+        <v>20.21346033969409</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>21.30947369489861</v>
+        <v>21.35002524018233</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>22.0466207678805</v>
+        <v>24.55825595635631</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>20.50734578607651</v>
+        <v>20.56427407275818</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>22.30280866367326</v>
+        <v>23.11749708799523</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>21.63550689806575</v>
+        <v>23.11749708799523</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>21.46045790853033</v>
+        <v>21.30727658049357</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>22.76466920483769</v>
+        <v>23.57445403645008</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>22.56054730131478</v>
+        <v>22.09011401259328</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>22.07897135831933</v>
+        <v>22.04915521888955</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>22.02714170701877</v>
+        <v>22.01094366134886</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>22.64695660967713</v>
+        <v>22.67864692334233</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>21.94209613473495</v>
+        <v>21.96182640873666</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>21.3769041726845</v>
+        <v>21.41200455301247</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>22.60544635725352</v>
+        <v>22.0151061403838</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>21.32707138240301</v>
+        <v>21.33911954511081</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>19.83291821515966</v>
+        <v>19.90214853267152</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>21.35117091884752</v>
+        <v>21.30411309642703</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>20.81317000215912</v>
+        <v>21.19505614571181</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>21.33883774860063</v>
+        <v>21.39206627843515</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>21.50120012681527</v>
+        <v>21.5330494433483</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>21.9293562805888</v>
+        <v>21.95466694479658</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>23.58804279324629</v>
+        <v>24.00601986279186</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>23.54054411723747</v>
+        <v>24.34825888904399</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>23.57462569920486</v>
+        <v>23.56229959766809</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>23.73700631609578</v>
+        <v>23.71889205896222</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>24.11505117292133</v>
+        <v>24.08722982876337</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>24.13783617246422</v>
+        <v>24.11386969458695</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>24.54993905076784</v>
+        <v>24.51509104876406</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>24.87740971342269</v>
+        <v>24.834311565953</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>26.39727864081839</v>
+        <v>26.33796549253192</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>25.78210131674523</v>
+        <v>25.62355921576649</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>26.04024837036267</v>
+        <v>25.97137596392545</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>29.11460640556599</v>
+        <v>27.89698039027541</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>26.7984310947809</v>
+        <v>26.71462822040291</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>27.50484130803041</v>
+        <v>27.40830535157437</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>29.51970151579744</v>
+        <v>30.04544394415566</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>28.33358233957897</v>
+        <v>28.20800082376553</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>30.42927878977669</v>
+        <v>30.27708590244963</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>28.8176466923324</v>
+        <v>28.69800785575776</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>29.88271373072871</v>
+        <v>29.74945005998163</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>30.16674491204153</v>
+        <v>30.08885860048999</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>31.72886333362678</v>
+        <v>31.19691051958895</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>35.44693815492378</v>
+        <v>35.52430697388515</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>33.26284353609941</v>
+        <v>32.84200548377484</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>31.2781143505423</v>
+        <v>30.87527576455973</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>29.93859392547951</v>
+        <v>29.78753674315125</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>29.52587282265643</v>
+        <v>29.38090416622873</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>28.77297809665616</v>
+        <v>28.65001447248498</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>28.45787405169444</v>
+        <v>28.4038454623591</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>28.45787405169444</v>
+        <v>29.14805508901464</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>29.91299647493626</v>
+        <v>29.59631245628647</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>30.50929257290241</v>
+        <v>29.94121546912095</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>29.05809442294116</v>
+        <v>29.16724411736566</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>29.71448469062656</v>
+        <v>29.56363699586226</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>28.27117308738175</v>
+        <v>28.16092318588046</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>25.84920949611083</v>
+        <v>25.80358643402731</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>26.95531360139583</v>
+        <v>27.01952980971171</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>28.82445458843413</v>
+        <v>28.19513876354761</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>34.29365696476323</v>
+        <v>34.12941862448902</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>32.76082196122923</v>
+        <v>32.54742684247269</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>31.18742991873996</v>
+        <v>31.01734117402196</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>30.61867635556904</v>
+        <v>30.45270089293341</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>29.76798867698263</v>
+        <v>29.61874821828475</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>31.94902575345653</v>
+        <v>31.5243311204767</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>28.23422659294876</v>
+        <v>28.31510140933436</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>26.86664368271232</v>
+        <v>26.71575208974235</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>26.38023922543996</v>
+        <v>26.31723634693795</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>26.77272765048875</v>
+        <v>26.69419044834141</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>27.24613836987258</v>
+        <v>27.34686716101877</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>26.49920496345202</v>
+        <v>26.41992470472972</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>28.00557854470251</v>
+        <v>27.82026590166161</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>28.14647305778224</v>
+        <v>28.0812117123615</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>28.02200612872479</v>
+        <v>27.91063332150999</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>28.98591062150765</v>
+        <v>28.85776380111846</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>50.0697306016928</v>
+        <v>34.98489131574829</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>28.25314028927732</v>
+        <v>28.06760040591728</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>32.15702537320956</v>
+        <v>31.45802282945024</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>35.89262614601087</v>
+        <v>36.48721324903599</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>46.36308962634634</v>
+        <v>47.06811008146255</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>46.86758552155396</v>
+        <v>46.35008244793677</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>44.77932426431659</v>
+        <v>43.76526621682456</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>44.22796054170957</v>
+        <v>43.78254050481954</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>42.01269733593033</v>
+        <v>41.59769688417398</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>33.07752543501544</v>
+        <v>32.85761478015585</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>31.0792986044188</v>
+        <v>30.90757660187081</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>29.73331613338027</v>
+        <v>29.58877836923325</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>27.99194973571398</v>
+        <v>27.88274471197593</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>27.89525658334253</v>
+        <v>27.78838131225403</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>27.99228702393594</v>
+        <v>27.88237008886279</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>26.02338514849558</v>
+        <v>25.95701541125492</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>27.26072753844666</v>
+        <v>27.16667344359656</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>28.79596294761917</v>
+        <v>29.30768616000427</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>27.69918710746964</v>
+        <v>27.59482603712968</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>29.63067731675739</v>
+        <v>28.99487586052913</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>31.16216294373286</v>
+        <v>30.94940951617187</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>30.58000041207538</v>
+        <v>30.23088238516187</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>29.66892412084063</v>
+        <v>29.57233657704526</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>29.4854049965336</v>
+        <v>29.06538825538086</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>29.32654244524394</v>
+        <v>31.01796554587721</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>26.40182804056995</v>
+        <v>28.28517318507319</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>19.30098169650563</v>
+        <v>19.3786335444481</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>20.66687062215149</v>
+        <v>20.71499743861308</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>23.63084292553441</v>
+        <v>23.61774381841339</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>25.00639036980684</v>
+        <v>24.96026818155006</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>28.02728731505269</v>
+        <v>27.93556657092923</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>33.95844834789767</v>
+        <v>33.82892926295727</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>53.00567582955566</v>
+        <v>52.35050410074325</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>32.65959214035673</v>
+        <v>32.47512458163593</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>31.36534062482743</v>
+        <v>31.19462115611972</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>29.11876818772174</v>
+        <v>28.9873417734759</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>29.59555910836918</v>
+        <v>29.44966831988581</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>28.06265846231825</v>
+        <v>27.91471255096423</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>30.41762136882465</v>
+        <v>30.71019184603432</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>23.81567107521062</v>
+        <v>23.79839540852944</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>23.93646814639199</v>
+        <v>23.91760880808989</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>25.58796113442497</v>
+        <v>25.71854698734365</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>29.08614403459491</v>
+        <v>28.95345919413154</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>29.62953912127089</v>
+        <v>29.4843417702468</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>32.61364490489579</v>
+        <v>32.3997420863133</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>28.28882671861654</v>
+        <v>28.17594973519657</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>27.34321751899214</v>
+        <v>27.25008952345659</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>21.4188315267668</v>
+        <v>21.4532130954583</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>21.39590836967029</v>
+        <v>21.43344132004238</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>21.37776115145845</v>
+        <v>21.41100555804409</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>20.50093548558487</v>
+        <v>20.55569936594622</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>21.53718058199524</v>
+        <v>21.57092800256619</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>23.19411731519734</v>
+        <v>23.18701048787859</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>22.19322889798887</v>
+        <v>22.20741267179766</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>22.27082159729574</v>
+        <v>22.18901451446326</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>23.39202558591046</v>
+        <v>23.36245897920098</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>22.32818168561161</v>
+        <v>22.32454483184065</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>22.68356047135018</v>
+        <v>23.26930269839921</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>22.70394945737809</v>
+        <v>22.70853352281315</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>22.74287234718357</v>
+        <v>22.74924256777479</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>25.92017223554295</v>
+        <v>25.39724523063724</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>25.95942730175479</v>
+        <v>25.9207185940703</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>26.9112621448665</v>
+        <v>25.9207185940703</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>26.24871603374786</v>
+        <v>26.48648274449829</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>26.27333867968175</v>
+        <v>26.20118643144405</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>26.474858315246</v>
+        <v>26.40156817218569</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>26.71279521131112</v>
+        <v>26.63162838844636</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>22.30280590242366</v>
+        <v>22.32017422885398</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>16.91330638881272</v>
+        <v>17.04439855123883</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>20.57545146919213</v>
+        <v>20.62525439061993</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>23.31362140201549</v>
+        <v>23.1189955804478</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>26.24103547700161</v>
+        <v>26.56648559154969</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>28.18717165653801</v>
+        <v>27.91000894965474</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>26.15935262317841</v>
+        <v>25.23495017306523</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>19.47718115535508</v>
+        <v>19.55291654164071</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>27.74694416082791</v>
+        <v>27.64415141369362</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>29.46505462769062</v>
+        <v>29.32379495386947</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>30.12192954295923</v>
+        <v>29.96369285590958</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>32.74261954479361</v>
+        <v>32.53181754609169</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>27.70906339112765</v>
+        <v>27.60460786286177</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>30.10662243259976</v>
+        <v>29.93176664171165</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>27.62363902092301</v>
+        <v>27.52543751161737</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>26.67451886185442</v>
+        <v>26.5929173334215</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>25.43313607917286</v>
+        <v>25.42434296915465</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>25.87193786128433</v>
+        <v>25.84204774031008</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>26.61780149977802</v>
+        <v>26.42254706652173</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>21.62454144300525</v>
+        <v>21.64810036387383</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>21.26651284693872</v>
+        <v>20.87429551127993</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>19.67440584185553</v>
+        <v>19.75196628909117</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5766,7 +5766,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>20.47674570844566</v>
+        <v>20.14823429321672</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5774,7 +5774,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>22.69405801014472</v>
+        <v>22.69084298691468</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>20.98886302100665</v>
+        <v>21.03159559401001</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>22.36696659421608</v>
+        <v>22.42927280435955</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>23.09879084104731</v>
+        <v>23.14875730554758</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>28.37213887118343</v>
+        <v>28.51818876144868</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>23.23144063804969</v>
+        <v>23.2211011911747</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>22.33661292495364</v>
+        <v>22.34868721024327</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>24.19029597137704</v>
+        <v>24.16198795223076</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>25.45126399357127</v>
+        <v>25.38937814526122</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>25.74281118015841</v>
+        <v>25.69881683671808</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>27.89576517443288</v>
+        <v>27.73676657222085</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>28.17048363289246</v>
+        <v>28.05744395707204</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>29.79399552989307</v>
+        <v>29.64626220470566</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>31.43494977427062</v>
+        <v>31.25098112225272</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>32.10742739503043</v>
+        <v>31.90794518833605</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>36.93520583132015</v>
+        <v>35.92461258267457</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>33.87548604794493</v>
+        <v>33.39823755721281</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>33.12924934558458</v>
+        <v>32.86419149703102</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>32.6159858689462</v>
+        <v>32.40823354354455</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>32.48072467237807</v>
+        <v>32.27137123287598</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>30.17825833516152</v>
+        <v>29.7479099427387</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>30.58399814733437</v>
+        <v>30.285827108423</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>29.26511703857179</v>
+        <v>29.0819549219399</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>28.07515885986799</v>
+        <v>27.96308055735014</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>25.94918314863006</v>
+        <v>25.8838390298208</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>29.7613357042137</v>
+        <v>28.70296120580933</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>31.68830390366015</v>
+        <v>31.58193983032017</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5990,7 +5990,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>35.1245662110836</v>
+        <v>34.85735295811794</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5998,7 +5998,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>39.87111283221212</v>
+        <v>39.55200493766621</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6006,7 +6006,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>42.51406334373272</v>
+        <v>42.08628867329432</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6014,7 +6014,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>45.54612436167636</v>
+        <v>45.05259610795802</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6022,7 +6022,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>54.76516422828151</v>
+        <v>54.06939981821849</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6030,7 +6030,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>62.28640284738003</v>
+        <v>61.42470839689538</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6038,7 +6038,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>75.89102945861895</v>
+        <v>74.73444323504275</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6046,7 +6046,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>71.9919247398376</v>
+        <v>70.91399510241099</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6054,7 +6054,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>66.84342344614927</v>
+        <v>65.88151632438763</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6062,7 +6062,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>54.1594405385366</v>
+        <v>53.47920191585543</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6070,7 +6070,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>41.25953768897286</v>
+        <v>40.8580243596665</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6078,7 +6078,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>67.61490055245008</v>
+        <v>65.99344538563697</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6086,7 +6086,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>82.79483502911047</v>
+        <v>81.48814871880093</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6094,7 +6094,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>74.37534391568249</v>
+        <v>73.24847984436232</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6102,7 +6102,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>68.79810336063251</v>
+        <v>67.79196932705044</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6110,7 +6110,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>69.30355777104343</v>
+        <v>68.28880282465992</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6118,7 +6118,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>65.47251949451584</v>
+        <v>64.62215829236887</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6126,7 +6126,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>63.82272512048558</v>
+        <v>63.39618334221031</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6134,7 +6134,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>62.1304596129677</v>
+        <v>61.41938042373066</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6142,7 +6142,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>49.97755593222206</v>
+        <v>49.48667689991953</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6150,7 +6150,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>59.8317880440948</v>
+        <v>59.02233362188426</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6158,7 +6158,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>38.67446207889094</v>
+        <v>38.32956809468733</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6166,7 +6166,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>46.21399018564634</v>
+        <v>45.70460682398979</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6174,7 +6174,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>44.86794375341508</v>
+        <v>44.3895131976933</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6182,7 +6182,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>44.81311330297927</v>
+        <v>44.33390247778667</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6190,7 +6190,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>45.32140506504012</v>
+        <v>44.94199903999989</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6198,7 +6198,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>42.4085216388694</v>
+        <v>42.08258406695322</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6206,7 +6206,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>45.21294793435447</v>
+        <v>44.88068572381536</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6214,7 +6214,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>41.07191443523469</v>
+        <v>40.82135291936879</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6222,7 +6222,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>42.41660039850156</v>
+        <v>42.23093481975822</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6230,7 +6230,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>46.40111800491015</v>
+        <v>45.89891134534047</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6238,7 +6238,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>46.19496284060388</v>
+        <v>45.68612541707471</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6246,7 +6246,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>45.65027031294314</v>
+        <v>45.15266210395782</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6254,7 +6254,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>80.33077885280454</v>
+        <v>79.01934077839232</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6262,7 +6262,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>80.14307797848261</v>
+        <v>78.88647444759731</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6270,7 +6270,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>80.94050898107959</v>
+        <v>79.66702251622776</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6278,7 +6278,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>76.16040066200006</v>
+        <v>74.99926015124514</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6286,7 +6286,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>77.06982129478371</v>
+        <v>74.84237631641852</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6294,7 +6294,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>70.71043812430986</v>
+        <v>69.49225876323955</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6302,7 +6302,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>64.43836194842231</v>
+        <v>63.35626516826531</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6310,7 +6310,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>58.30648373493105</v>
+        <v>57.53075088450669</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6318,7 +6318,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>56.16855601890867</v>
+        <v>55.43943816777607</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6326,7 +6326,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>52.29966352459302</v>
+        <v>51.65545335149024</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6334,7 +6334,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>47.64851910348918</v>
+        <v>47.10632163900323</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6342,7 +6342,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>43.69798858448186</v>
+        <v>43.24732895050795</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6350,7 +6350,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>41.3435047036016</v>
+        <v>40.94218968575285</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6358,7 +6358,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>36.51445979614329</v>
+        <v>36.21815060421798</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6366,7 +6366,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>32.17565400373093</v>
+        <v>31.97346260834588</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6374,7 +6374,7 @@
         <v>748</v>
       </c>
       <c r="B750">
-        <v>34.41117822824741</v>
+        <v>34.1608037164124</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6382,7 +6382,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>32.58463705037234</v>
+        <v>32.37576620707208</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6390,7 +6390,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>32.13600399200197</v>
+        <v>31.93645816972534</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6398,7 +6398,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>35.69832876589918</v>
+        <v>35.4216602408837</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6406,7 +6406,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>32.31526500109896</v>
+        <v>32.11207316020914</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6414,7 +6414,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>32.55865070949463</v>
+        <v>32.32710682715373</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6422,7 +6422,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>34.16495570095334</v>
+        <v>33.92050380172577</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6430,7 +6430,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>35.17111766830045</v>
+        <v>34.88902942357377</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6438,7 +6438,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>35.26213382798896</v>
+        <v>35.33928478078241</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6446,7 +6446,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>37.07982338533127</v>
+        <v>36.77051157215347</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6454,7 +6454,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>38.39367388874058</v>
+        <v>39.62047771779085</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6462,7 +6462,7 @@
         <v>759</v>
       </c>
       <c r="B761">
-        <v>38.20168383638177</v>
+        <v>37.98903568483952</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6470,7 +6470,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>38.20468582790972</v>
+        <v>37.80214037617107</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6478,7 +6478,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>41.3307895332986</v>
+        <v>40.87296765940195</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6486,7 +6486,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>40.68332968168289</v>
+        <v>40.28468449739496</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6494,7 +6494,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>38.9220917237125</v>
+        <v>38.57602847834566</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6502,7 +6502,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>36.61800451251067</v>
+        <v>36.32067246284836</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6510,7 +6510,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>31.30270722751289</v>
+        <v>31.12435851001008</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6518,7 +6518,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>28.23679617095587</v>
+        <v>28.12167100858106</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6526,7 +6526,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>31.67107528831801</v>
+        <v>31.48054184102921</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6534,7 +6534,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>47.1157130413583</v>
+        <v>46.58671938107267</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6542,7 +6542,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>48.14563204866742</v>
+        <v>47.60869123372917</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6550,7 +6550,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>45.1640170500065</v>
+        <v>44.67714049900715</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6558,7 +6558,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>42.97128114265875</v>
+        <v>42.5345044157758</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6566,7 +6566,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>39.95644912192183</v>
+        <v>39.57531482026184</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6574,7 +6574,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>37.83838697777448</v>
+        <v>37.51214046180736</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6582,7 +6582,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>35.52708600617273</v>
+        <v>35.2533712135014</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6590,7 +6590,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>34.83793103834884</v>
+        <v>34.57771761655119</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6598,7 +6598,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>30.9510074129158</v>
+        <v>30.76351320247181</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6606,7 +6606,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>30.70435632387661</v>
+        <v>30.58977132755373</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6614,7 +6614,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>30.12450092711617</v>
+        <v>29.96569084584636</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6622,7 +6622,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>28.69291503412672</v>
+        <v>28.56826338423892</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6630,7 +6630,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>30.20683965877318</v>
+        <v>29.21182426782979</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6638,7 +6638,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>26.29514682432531</v>
+        <v>26.22025058542402</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6646,7 +6646,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>23.81753955245077</v>
+        <v>23.79960252744957</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6654,7 +6654,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>23.11675330186919</v>
+        <v>23.11458335267078</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6662,7 +6662,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>23.70259896329046</v>
+        <v>23.8617483394411</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6670,7 +6670,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>23.37194852364001</v>
+        <v>23.43904859344374</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6678,7 +6678,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>23.42840767158242</v>
+        <v>23.48371199348857</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6686,7 +6686,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>23.2770570397498</v>
+        <v>23.27184181061051</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6694,7 +6694,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>26.65048174263254</v>
+        <v>26.57185518950474</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6702,7 +6702,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>31.48616094983445</v>
+        <v>31.30168011689817</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6710,7 +6710,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>35.54247541243762</v>
+        <v>35.2675652670105</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6718,7 +6718,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>34.94358480228054</v>
+        <v>34.68232071469905</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6726,7 +6726,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>37.77854795683784</v>
+        <v>37.45528099819018</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6734,7 +6734,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>38.92731022927197</v>
+        <v>38.57723559726577</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6742,7 +6742,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>40.45799386532533</v>
+        <v>40.07860016037547</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6750,7 +6750,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>42.43303056342481</v>
+        <v>42.00840869055075</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6758,7 +6758,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>46.14310746526512</v>
+        <v>45.6384234073344</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6766,7 +6766,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>47.65548095152493</v>
+        <v>47.18753160497474</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6774,7 +6774,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>61.52736644455963</v>
+        <v>60.63092364493382</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6782,7 +6782,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>59.96650861314261</v>
+        <v>59.15624057243805</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6790,7 +6790,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>59.51871023482877</v>
+        <v>58.71784828047898</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6798,7 +6798,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>58.71001528460611</v>
+        <v>57.93213873784521</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6806,7 +6806,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>60.35468377544187</v>
+        <v>59.5334444225836</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6814,7 +6814,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>55.77400857346569</v>
+        <v>55.0584464617087</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6822,7 +6822,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>49.35833476749182</v>
+        <v>48.78076208038537</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6830,7 +6830,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>37.83957408006461</v>
+        <v>37.51018409666092</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6838,7 +6838,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>40.54207893126454</v>
+        <v>40.15843650826548</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6846,7 +6846,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>44.69238671006883</v>
+        <v>44.21622919546913</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6854,7 +6854,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>47.63399184390273</v>
+        <v>47.01915932801174</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6862,7 +6862,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>50.84646947506182</v>
+        <v>50.24828568894108</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6870,7 +6870,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>37.41200325904937</v>
+        <v>37.09693317807286</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6878,7 +6878,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>28.0251507910275</v>
+        <v>29.32999704763152</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6886,7 +6886,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>25.86456994605982</v>
+        <v>25.80196306720368</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6894,7 +6894,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>26.14191410550753</v>
+        <v>26.07156683429625</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6902,7 +6902,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>26.90104875284143</v>
+        <v>26.81910644417973</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6910,7 +6910,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>27.24860865243003</v>
+        <v>27.15610074684783</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6918,7 +6918,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>27.07023426495526</v>
+        <v>26.98023600762195</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6926,7 +6926,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>29.9365287751784</v>
+        <v>29.78491438135925</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6934,7 +6934,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>33.40923286988833</v>
+        <v>33.17999878141134</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6942,7 +6942,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>35.24749032415684</v>
+        <v>35.69334524749374</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6950,7 +6950,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>33.33528233625839</v>
+        <v>33.10736352225177</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6958,7 +6958,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>33.37990135304646</v>
+        <v>33.25671327002513</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6966,7 +6966,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>32.89353883250241</v>
+        <v>32.51212902025647</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6974,7 +6974,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>34.15382395254365</v>
+        <v>33.85769199308863</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6982,7 +6982,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>30.86523876910641</v>
+        <v>30.3315727530169</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6990,7 +6990,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>33.4055898399732</v>
+        <v>33.44698018671188</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -6998,7 +6998,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>29.47866755782904</v>
+        <v>29.33524177121551</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7006,7 +7006,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>29.0503185156933</v>
+        <v>28.91574713407505</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7014,7 +7014,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>29.53178539236673</v>
+        <v>29.39026974405733</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7022,7 +7022,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>27.81123273053464</v>
+        <v>27.70771246855703</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7030,7 +7030,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>28.5966664307324</v>
+        <v>28.4741497332591</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7038,7 +7038,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>28.61664428755942</v>
+        <v>28.49475400448202</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7046,7 +7046,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>25.58304228056575</v>
+        <v>25.52649020467187</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7054,7 +7054,7 @@
         <v>833</v>
       </c>
       <c r="B835">
-        <v>26.92492980191968</v>
+        <v>26.83991883935438</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7062,7 +7062,7 @@
         <v>834</v>
       </c>
       <c r="B836">
-        <v>27.16843816282755</v>
+        <v>27.07551515273155</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7070,7 +7070,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>29.28746325598544</v>
+        <v>29.15026120290315</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7078,7 +7078,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>30.12911988130492</v>
+        <v>29.97272543541537</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7086,7 +7086,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>30.10934778957727</v>
+        <v>29.88235801556702</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7094,7 +7094,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>29.63762694104138</v>
+        <v>29.49204235646142</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7102,7 +7102,7 @@
         <v>839</v>
       </c>
       <c r="B841">
-        <v>26.87205816475715</v>
+        <v>26.76191398223974</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7110,7 +7110,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>26.88634360383979</v>
+        <v>26.79754480277877</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7118,7 +7118,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>28.56518779623427</v>
+        <v>28.43922653415603</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7126,7 +7126,7 @@
         <v>842</v>
       </c>
       <c r="B844">
-        <v>29.99931905108792</v>
+        <v>29.84506220341402</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7134,7 +7134,7 @@
         <v>843</v>
       </c>
       <c r="B845">
-        <v>31.10755433894547</v>
+        <v>31.01459393785892</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7142,7 +7142,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>25.75572224835836</v>
+        <v>25.69465435768314</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7150,7 +7150,7 @@
         <v>845</v>
       </c>
       <c r="B847">
-        <v>27.05205687774406</v>
+        <v>26.96246222214277</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7158,7 +7158,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>27.50952303434712</v>
+        <v>27.35885510063939</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7166,7 +7166,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>27.4806670168845</v>
+        <v>27.34682553622841</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7174,7 +7174,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>28.35153192407652</v>
+        <v>28.30715107437763</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7182,7 +7182,7 @@
         <v>849</v>
       </c>
       <c r="B851">
-        <v>27.80453629185986</v>
+        <v>27.69751439492146</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7190,7 +7190,7 @@
         <v>850</v>
       </c>
       <c r="B852">
-        <v>27.78698405999397</v>
+        <v>27.68019848213614</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7198,7 +7198,7 @@
         <v>851</v>
       </c>
       <c r="B853">
-        <v>26.09623788611681</v>
+        <v>26.02552981616991</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7206,7 +7206,7 @@
         <v>852</v>
       </c>
       <c r="B854">
-        <v>28.52762983196366</v>
+        <v>28.40526070523097</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7214,7 +7214,7 @@
         <v>853</v>
       </c>
       <c r="B855">
-        <v>31.29461950641728</v>
+        <v>34.78242833548917</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7222,7 +7222,7 @@
         <v>854</v>
       </c>
       <c r="B856">
-        <v>29.91074203967831</v>
+        <v>29.75948163445581</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7230,7 +7230,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>29.87335892731179</v>
+        <v>29.7234345660133</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7238,7 +7238,7 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>29.97175880711236</v>
+        <v>29.55959939119837</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7246,7 +7246,7 @@
         <v>857</v>
       </c>
       <c r="B859">
-        <v>29.24709303326392</v>
+        <v>29.11121714955547</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7254,7 +7254,7 @@
         <v>858</v>
       </c>
       <c r="B860">
-        <v>29.73097342329483</v>
+        <v>29.58457426540797</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7262,7 +7262,7 @@
         <v>859</v>
       </c>
       <c r="B861">
-        <v>30.37128087674583</v>
+        <v>31.47329912750844</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7270,7 +7270,7 @@
         <v>860</v>
       </c>
       <c r="B862">
-        <v>29.70709318156575</v>
+        <v>29.55697702940637</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7278,7 +7278,7 @@
         <v>861</v>
       </c>
       <c r="B863">
-        <v>31.51435291100259</v>
+        <v>31.32719611338233</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7286,7 +7286,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>32.44120017222615</v>
+        <v>32.23528253964312</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7294,7 +7294,7 @@
         <v>863</v>
       </c>
       <c r="B865">
-        <v>35.67135902641652</v>
+        <v>35.39689349062584</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7302,7 +7302,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>34.80370184835203</v>
+        <v>34.54579140235329</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7310,7 +7310,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>37.75778723869016</v>
+        <v>37.43621684421018</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7318,7 +7318,7 @@
         <v>866</v>
       </c>
       <c r="B868">
-        <v>41.36842148659667</v>
+        <v>40.9334484797795</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7326,7 +7326,7 @@
         <v>867</v>
       </c>
       <c r="B869">
-        <v>44.23889472236697</v>
+        <v>44.04319494198698</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7334,7 +7334,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>37.36773224028404</v>
+        <v>36.66923845723358</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7342,7 +7342,7 @@
         <v>869</v>
       </c>
       <c r="B871">
-        <v>34.63094197699733</v>
+        <v>34.3511955074702</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7350,7 +7350,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>32.37695835024683</v>
+        <v>32.11448739804939</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7358,7 +7358,7 @@
         <v>871</v>
       </c>
       <c r="B873">
-        <v>30.08488647036145</v>
+        <v>29.93226613919585</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7366,7 +7366,7 @@
         <v>872</v>
       </c>
       <c r="B874">
-        <v>27.07302937288135</v>
+        <v>26.98277511983324</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7374,7 +7374,7 @@
         <v>873</v>
       </c>
       <c r="B875">
-        <v>27.95461108278125</v>
+        <v>30.12178380965631</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7382,7 +7382,7 @@
         <v>874</v>
       </c>
       <c r="B876">
-        <v>24.93371028971742</v>
+        <v>24.89104615519915</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7390,7 +7390,7 @@
         <v>875</v>
       </c>
       <c r="B877">
-        <v>26.17494167846649</v>
+        <v>26.10536616405991</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7398,7 +7398,7 @@
         <v>876</v>
       </c>
       <c r="B878">
-        <v>26.64064314448259</v>
+        <v>28.22739797606834</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7406,7 +7406,7 @@
         <v>877</v>
       </c>
       <c r="B879">
-        <v>25.46133715014657</v>
+        <v>25.24373300382894</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7414,7 +7414,7 @@
         <v>878</v>
       </c>
       <c r="B880">
-        <v>23.83989019605835</v>
+        <v>23.82066467136632</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7422,7 +7422,7 @@
         <v>879</v>
       </c>
       <c r="B881">
-        <v>24.03440516847898</v>
+        <v>24.01118133679517</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7430,7 +7430,7 @@
         <v>880</v>
       </c>
       <c r="B882">
-        <v>24.52238015202953</v>
+        <v>24.01118133679517</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7438,7 +7438,7 @@
         <v>881</v>
       </c>
       <c r="B883">
-        <v>29.91891076010929</v>
+        <v>29.70104042880537</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7446,7 +7446,7 @@
         <v>882</v>
       </c>
       <c r="B884">
-        <v>24.98727847373354</v>
+        <v>24.94674012468654</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7454,7 +7454,7 @@
         <v>883</v>
       </c>
       <c r="B885">
-        <v>25.19934669639228</v>
+        <v>25.15344883356126</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7462,7 +7462,7 @@
         <v>884</v>
       </c>
       <c r="B886">
-        <v>27.55559423066558</v>
+        <v>26.39353458764825</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7470,7 +7470,7 @@
         <v>885</v>
       </c>
       <c r="B887">
-        <v>25.22770394655114</v>
+        <v>25.17734146322175</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7478,7 +7478,7 @@
         <v>886</v>
       </c>
       <c r="B888">
-        <v>26.15748670989766</v>
+        <v>26.0872177554676</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7486,7 +7486,7 @@
         <v>887</v>
       </c>
       <c r="B889">
-        <v>26.4339658942978</v>
+        <v>26.36110887596613</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7494,7 +7494,7 @@
         <v>888</v>
       </c>
       <c r="B890">
-        <v>26.46833240313515</v>
+        <v>26.3937427116</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7502,7 +7502,7 @@
         <v>889</v>
       </c>
       <c r="B891">
-        <v>27.28727191297863</v>
+        <v>27.19360468295257</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7510,7 +7510,7 @@
         <v>890</v>
       </c>
       <c r="B892">
-        <v>28.81890822756989</v>
+        <v>28.39789311733913</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7518,7 +7518,7 @@
         <v>891</v>
       </c>
       <c r="B893">
-        <v>32.61346038482855</v>
+        <v>32.99202122819381</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7526,7 +7526,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>33.07109073614705</v>
+        <v>32.97349819648834</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7534,7 +7534,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>29.83515426342187</v>
+        <v>29.43389252434342</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7542,7 +7542,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>23.44903697418935</v>
+        <v>23.43650948123245</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7550,7 +7550,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>24.09857544894819</v>
+        <v>24.07549163788487</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7558,7 +7558,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>24.93682843810209</v>
+        <v>24.89246139807102</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7566,7 +7566,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>29.02327075043732</v>
+        <v>25.55346306881825</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7574,7 +7574,7 @@
         <v>898</v>
       </c>
       <c r="B900">
-        <v>26.6292218829086</v>
+        <v>26.68399237470582</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7582,7 +7582,7 @@
         <v>899</v>
       </c>
       <c r="B901">
-        <v>25.98082367452769</v>
+        <v>25.91722211168097</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7590,7 +7590,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>25.90249828766757</v>
+        <v>25.83647001840328</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7598,7 +7598,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>27.83949502604892</v>
+        <v>27.73335333941223</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7606,7 +7606,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>26.61037232208688</v>
+        <v>26.53310250968953</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7614,7 +7614,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>25.86493649405686</v>
+        <v>25.7952198511671</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7622,7 +7622,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>26.74964855715145</v>
+        <v>26.33700812235388</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7630,7 +7630,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>25.46565018892749</v>
+        <v>25.4123134047437</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7638,7 +7638,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>24.94402213606618</v>
+        <v>24.66373317510148</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7646,7 +7646,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>24.07631671602255</v>
+        <v>24.0498507670297</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7654,7 +7654,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>32.56471189852522</v>
+        <v>31.91069242449911</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7662,7 +7662,7 @@
         <v>909</v>
       </c>
       <c r="B911">
-        <v>29.90619456887225</v>
+        <v>29.86250299057039</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7670,7 +7670,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>30.1421850870687</v>
+        <v>30.01226898624723</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7678,7 +7678,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>28.93788531777584</v>
+        <v>28.80548306443972</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7686,7 +7686,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>29.51711043439576</v>
+        <v>29.48171940845478</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7694,7 +7694,7 @@
         <v>913</v>
       </c>
       <c r="B915">
-        <v>25.89607037107866</v>
+        <v>25.69498735600593</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7702,7 +7702,7 @@
         <v>914</v>
       </c>
       <c r="B916">
-        <v>25.30092777396706</v>
+        <v>24.97512823170476</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7710,7 +7710,7 @@
         <v>915</v>
       </c>
       <c r="B917">
-        <v>24.62688092969526</v>
+        <v>24.2859882026814</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7718,7 +7718,7 @@
         <v>916</v>
       </c>
       <c r="B918">
-        <v>23.56320186526235</v>
+        <v>23.56908443849504</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7726,7 +7726,7 @@
         <v>917</v>
       </c>
       <c r="B919">
-        <v>24.25521773428431</v>
+        <v>23.10088879664586</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7734,7 +7734,7 @@
         <v>918</v>
       </c>
       <c r="B920">
-        <v>24.82622686371439</v>
+        <v>23.10088879664586</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7742,7 +7742,7 @@
         <v>919</v>
       </c>
       <c r="B921">
-        <v>24.27369730323367</v>
+        <v>24.24690252454338</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7750,7 +7750,7 @@
         <v>920</v>
       </c>
       <c r="B922">
-        <v>24.50046948214813</v>
+        <v>24.46776366213689</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7758,7 +7758,7 @@
         <v>921</v>
       </c>
       <c r="B923">
-        <v>26.78992735488832</v>
+        <v>26.97832126726588</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7766,7 +7766,7 @@
         <v>922</v>
       </c>
       <c r="B924">
-        <v>27.80059885406918</v>
+        <v>27.68381983889654</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7774,7 +7774,7 @@
         <v>923</v>
       </c>
       <c r="B925">
-        <v>26.20205979242282</v>
+        <v>25.69611122534537</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7782,7 +7782,7 @@
         <v>924</v>
       </c>
       <c r="B926">
-        <v>26.68257757992875</v>
+        <v>25.280321194546</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7790,7 +7790,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>28.40624372071782</v>
+        <v>28.10447997016678</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7798,7 +7798,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>33.80698162593633</v>
+        <v>29.77425843502983</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7806,7 +7806,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>28.53680370424965</v>
+        <v>28.41595827635075</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7814,7 +7814,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>32.44792605226723</v>
+        <v>28.41595827635075</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7822,7 +7822,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>39.40840297188166</v>
+        <v>38.02857923567139</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7830,7 +7830,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>34.47738523784076</v>
+        <v>33.41330573131927</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7838,7 +7838,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>33.0239386401187</v>
+        <v>32.80529241868675</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7846,7 +7846,7 @@
         <v>932</v>
       </c>
       <c r="B934">
-        <v>32.43736407138303</v>
+        <v>32.19049426522727</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7854,7 +7854,7 @@
         <v>933</v>
       </c>
       <c r="B935">
-        <v>30.14831620694535</v>
+        <v>29.8303686524207</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7862,7 +7862,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>28.73454069592582</v>
+        <v>28.61105366871802</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7870,7 +7870,7 @@
         <v>935</v>
       </c>
       <c r="B937">
-        <v>28.5674818361366</v>
+        <v>28.44351388756201</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7878,7 +7878,7 @@
         <v>936</v>
       </c>
       <c r="B938">
-        <v>30.47794390668798</v>
+        <v>29.31105776802257</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7886,7 +7886,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>28.57437363155197</v>
+        <v>28.37425023642074</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7894,7 +7894,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>30.98171222621322</v>
+        <v>30.690253571457</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7902,7 +7902,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>27.73001606235616</v>
+        <v>27.42191665801859</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7910,7 +7910,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>27.50254898184174</v>
+        <v>27.15302051236198</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7918,7 +7918,7 @@
         <v>941</v>
       </c>
       <c r="B943">
-        <v>27.14643776899339</v>
+        <v>26.75462964392863</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7926,7 +7926,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>29.06057518242806</v>
+        <v>28.83270567732817</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7934,7 +7934,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>31.81195655773747</v>
+        <v>31.03827844356767</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7942,7 +7942,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>29.64412389579794</v>
+        <v>29.49782820231997</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7950,7 +7950,7 @@
         <v>945</v>
       </c>
       <c r="B947">
-        <v>28.80869073062405</v>
+        <v>28.67648783914715</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7958,7 +7958,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>27.44245483321756</v>
+        <v>27.32738675913529</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7966,7 +7966,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>26.46465052625755</v>
+        <v>26.38937210861333</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7974,7 +7974,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>24.06868628324879</v>
+        <v>24.03482421771359</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7982,7 +7982,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>24.57300159233215</v>
+        <v>24.54039892129645</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7990,7 +7990,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>24.40920695108099</v>
+        <v>24.06346207347392</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -7998,7 +7998,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>26.27779108146516</v>
+        <v>24.31283619245671</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8006,7 +8006,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>24.0758128668372</v>
+        <v>24.09189180528251</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8014,7 +8014,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>22.9593002824434</v>
+        <v>22.96252799352471</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8022,7 +8022,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>24.6066468772604</v>
+        <v>81.89236705788319</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8030,7 +8030,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>22.86115046451793</v>
+        <v>81.89236705788319</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8038,7 +8038,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>22.77786271502174</v>
+        <v>22.83299164595762</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8046,7 +8046,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>23.9782566162239</v>
+        <v>24.59463602312162</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8054,7 +8054,7 @@
         <v>958</v>
       </c>
       <c r="B960">
-        <v>23.43908396464748</v>
+        <v>23.53220487424552</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8062,7 +8062,7 @@
         <v>959</v>
       </c>
       <c r="B961">
-        <v>24.22107539891513</v>
+        <v>52.61590376401051</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8070,7 +8070,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>25.0118878911657</v>
+        <v>24.90777932091957</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8078,7 +8078,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>23.89223672531737</v>
+        <v>23.87140529080216</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8086,7 +8086,7 @@
         <v>962</v>
       </c>
       <c r="B964">
-        <v>23.72004686400273</v>
+        <v>23.7027416403067</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8094,7 +8094,7 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>24.1027461495772</v>
+        <v>23.75423150596881</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8102,7 +8102,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>23.82387030990301</v>
+        <v>23.80663711701861</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8110,7 +8110,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>23.01224142407369</v>
+        <v>23.00585940027835</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8118,7 +8118,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>23.91454599591207</v>
+        <v>24.22313476925391</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8126,7 +8126,7 @@
         <v>967</v>
       </c>
       <c r="B969">
-        <v>24.76536000935346</v>
+        <v>24.55030562139959</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8134,7 +8134,7 @@
         <v>968</v>
       </c>
       <c r="B970">
-        <v>24.28240989441668</v>
+        <v>23.86158184027972</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8142,7 +8142,7 @@
         <v>969</v>
       </c>
       <c r="B971">
-        <v>22.9269425282648</v>
+        <v>22.92718854651814</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8150,7 +8150,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>24.48540198315317</v>
+        <v>24.45864783305038</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8158,7 +8158,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>27.30360388672822</v>
+        <v>26.22328919511953</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8166,7 +8166,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>25.10074509498331</v>
+        <v>25.05150972199578</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8174,7 +8174,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>24.78531233936437</v>
+        <v>24.74744062849397</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8182,7 +8182,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>26.35996503939668</v>
+        <v>26.28472738567513</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8190,7 +8190,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>25.51761818324123</v>
+        <v>25.46363677124441</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8198,7 +8198,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>25.85457655664507</v>
+        <v>25.70864028724051</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8206,7 +8206,7 @@
         <v>977</v>
       </c>
       <c r="B979">
-        <v>27.51168826272195</v>
+        <v>27.41679680880562</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8214,7 +8214,7 @@
         <v>978</v>
       </c>
       <c r="B980">
-        <v>25.79644132718052</v>
+        <v>25.77057797528032</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8222,7 +8222,7 @@
         <v>979</v>
       </c>
       <c r="B981">
-        <v>27.60181963004176</v>
+        <v>27.40093776368255</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8230,7 +8230,7 @@
         <v>980</v>
       </c>
       <c r="B982">
-        <v>26.96218352517002</v>
+        <v>26.98381573959199</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8238,7 +8238,7 @@
         <v>981</v>
       </c>
       <c r="B983">
-        <v>26.77740208819753</v>
+        <v>26.69339957732477</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8246,7 +8246,7 @@
         <v>982</v>
       </c>
       <c r="B984">
-        <v>27.24757636521417</v>
+        <v>27.15655861954167</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8254,7 +8254,7 @@
         <v>983</v>
       </c>
       <c r="B985">
-        <v>26.93025339334853</v>
+        <v>26.84416456797</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8262,7 +8262,7 @@
         <v>984</v>
       </c>
       <c r="B986">
-        <v>27.6055758299102</v>
+        <v>27.50237737776383</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8270,7 +8270,7 @@
         <v>985</v>
       </c>
       <c r="B987">
-        <v>28.81659900326951</v>
+        <v>28.66999437185266</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8278,7 +8278,7 @@
         <v>986</v>
       </c>
       <c r="B988">
-        <v>30.19014220483194</v>
+        <v>63.96219724138038</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8286,7 +8286,7 @@
         <v>987</v>
       </c>
       <c r="B989">
-        <v>30.12691330611901</v>
+        <v>29.97330818248028</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8294,7 +8294,7 @@
         <v>988</v>
       </c>
       <c r="B990">
-        <v>30.56302034150823</v>
+        <v>34.09407917748244</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8302,7 +8302,7 @@
         <v>989</v>
       </c>
       <c r="B991">
-        <v>30.96146868782351</v>
+        <v>43.37241144550765</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8310,7 +8310,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>28.15580985962853</v>
+        <v>28.04241740775593</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8318,7 +8318,7 @@
         <v>991</v>
       </c>
       <c r="B993">
-        <v>30.09481225273621</v>
+        <v>29.60884151818161</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8326,7 +8326,7 @@
         <v>992</v>
       </c>
       <c r="B994">
-        <v>31.43708847790963</v>
+        <v>34.36330832146184</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8334,7 +8334,7 @@
         <v>993</v>
       </c>
       <c r="B995">
-        <v>30.0811340796062</v>
+        <v>29.76056387900489</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8342,7 +8342,7 @@
         <v>994</v>
       </c>
       <c r="B996">
-        <v>29.41058395822878</v>
+        <v>29.21939997967337</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8350,7 +8350,7 @@
         <v>995</v>
       </c>
       <c r="B997">
-        <v>31.47745646276652</v>
+        <v>32.97603730869966</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8358,7 +8358,7 @@
         <v>996</v>
       </c>
       <c r="B998">
-        <v>31.47745646276652</v>
+        <v>31.67513773591229</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8366,7 +8366,7 @@
         <v>997</v>
       </c>
       <c r="B999">
-        <v>30.83673267901631</v>
+        <v>30.65391512948204</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8374,7 +8374,7 @@
         <v>998</v>
       </c>
       <c r="B1000">
-        <v>30.26887698828437</v>
+        <v>29.64572108243111</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8382,7 +8382,7 @@
         <v>999</v>
       </c>
       <c r="B1001">
-        <v>34.16143794422862</v>
+        <v>33.26791033862911</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8390,7 +8390,7 @@
         <v>1000</v>
       </c>
       <c r="B1002">
-        <v>29.71197227247609</v>
+        <v>29.56384511981399</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8398,7 +8398,7 @@
         <v>1001</v>
       </c>
       <c r="B1003">
-        <v>28.99467516151637</v>
+        <v>28.58353968229712</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8406,7 +8406,7 @@
         <v>1002</v>
       </c>
       <c r="B1004">
-        <v>30.11990305587176</v>
+        <v>30.74411605016902</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8414,7 +8414,7 @@
         <v>1003</v>
       </c>
       <c r="B1005">
-        <v>28.59966506774866</v>
+        <v>28.47897820893963</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8422,7 +8422,7 @@
         <v>1004</v>
       </c>
       <c r="B1006">
-        <v>28.59966506774866</v>
+        <v>27.69006355744894</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8430,7 +8430,7 @@
         <v>1005</v>
       </c>
       <c r="B1007">
-        <v>27.13431081960489</v>
+        <v>27.04554530368003</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8438,7 +8438,7 @@
         <v>1006</v>
       </c>
       <c r="B1008">
-        <v>27.19282828172697</v>
+        <v>27.10049002694114</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8446,7 +8446,7 @@
         <v>1007</v>
       </c>
       <c r="B1009">
-        <v>26.46537545130644</v>
+        <v>26.38645837328889</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8454,7 +8454,7 @@
         <v>1008</v>
       </c>
       <c r="B1010">
-        <v>31.90912419886119</v>
+        <v>28.90983641384544</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8462,7 +8462,7 @@
         <v>1009</v>
       </c>
       <c r="B1011">
-        <v>26.52373027537764</v>
+        <v>26.44415033271305</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8470,7 +8470,7 @@
         <v>1010</v>
       </c>
       <c r="B1012">
-        <v>28.79326215768958</v>
+        <v>27.87229688959826</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8478,7 +8478,7 @@
         <v>1011</v>
       </c>
       <c r="B1013">
-        <v>25.52621856694991</v>
+        <v>25.47549983649397</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8486,7 +8486,7 @@
         <v>1012</v>
       </c>
       <c r="B1014">
-        <v>26.86069197642815</v>
+        <v>26.71700083345285</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8494,7 +8494,7 @@
         <v>1013</v>
       </c>
       <c r="B1015">
-        <v>26.98598819905236</v>
+        <v>26.86705820266215</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8502,7 +8502,7 @@
         <v>1014</v>
       </c>
       <c r="B1016">
-        <v>28.97411923026034</v>
+        <v>27.47299027577722</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8510,7 +8510,7 @@
         <v>1015</v>
       </c>
       <c r="B1017">
-        <v>26.7610933922412</v>
+        <v>27.47299027577722</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8518,7 +8518,7 @@
         <v>1016</v>
       </c>
       <c r="B1018">
-        <v>27.49711246699146</v>
+        <v>27.28284823346152</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8526,7 +8526,7 @@
         <v>1017</v>
       </c>
       <c r="B1019">
-        <v>29.00067948562976</v>
+        <v>29.95445215245202</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8534,7 +8534,7 @@
         <v>1018</v>
       </c>
       <c r="B1020">
-        <v>26.28692078368624</v>
+        <v>26.21342411980675</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8542,7 +8542,7 @@
         <v>1019</v>
       </c>
       <c r="B1021">
-        <v>27.60103188553827</v>
+        <v>27.5037926206357</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8550,7 +8550,7 @@
         <v>1020</v>
       </c>
       <c r="B1022">
-        <v>28.58250657953844</v>
+        <v>28.46132929783153</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8558,7 +8558,7 @@
         <v>1021</v>
       </c>
       <c r="B1023">
-        <v>27.92303340288897</v>
+        <v>27.81235719149525</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8566,7 +8566,7 @@
         <v>1022</v>
       </c>
       <c r="B1024">
-        <v>28.08368095607047</v>
+        <v>27.97332025577608</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8574,7 +8574,7 @@
         <v>1023</v>
       </c>
       <c r="B1025">
-        <v>28.23396091200738</v>
+        <v>28.12379387288886</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8582,7 +8582,7 @@
         <v>1024</v>
       </c>
       <c r="B1026">
-        <v>29.39764799886921</v>
+        <v>29.25802778511753</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8590,7 +8590,7 @@
         <v>1025</v>
       </c>
       <c r="B1027">
-        <v>28.277830698589</v>
+        <v>28.15921656947614</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8598,7 +8598,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>28.49076042985251</v>
+        <v>28.36979638385336</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8606,7 +8606,7 @@
         <v>1027</v>
       </c>
       <c r="B1029">
-        <v>28.71124819464409</v>
+        <v>28.59065752144686</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8614,7 +8614,7 @@
         <v>1028</v>
       </c>
       <c r="B1030">
-        <v>28.88614268989924</v>
+        <v>28.72922644851974</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8622,7 +8622,7 @@
         <v>1029</v>
       </c>
       <c r="B1031">
-        <v>26.42110960330541</v>
+        <v>26.34674832329563</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8630,7 +8630,7 @@
         <v>1030</v>
       </c>
       <c r="B1032">
-        <v>26.7994168227291</v>
+        <v>26.7182495771633</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8638,7 +8638,7 @@
         <v>1031</v>
       </c>
       <c r="B1033">
-        <v>28.02316977199639</v>
+        <v>27.91075819588103</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8646,7 +8646,7 @@
         <v>1032</v>
       </c>
       <c r="B1034">
-        <v>23.85022393030897</v>
+        <v>23.82803225925815</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8654,7 +8654,7 @@
         <v>1033</v>
       </c>
       <c r="B1035">
-        <v>24.93483545476688</v>
+        <v>25.12002412691076</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8662,7 +8662,7 @@
         <v>1034</v>
       </c>
       <c r="B1036">
-        <v>17.19757369049664</v>
+        <v>17.32199427807847</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8670,7 +8670,7 @@
         <v>1035</v>
       </c>
       <c r="B1037">
-        <v>19.71211495359486</v>
+        <v>20.08933521487243</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8678,7 +8678,7 @@
         <v>1036</v>
       </c>
       <c r="B1038">
-        <v>20.67131710351476</v>
+        <v>20.72353052063469</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8686,7 +8686,7 @@
         <v>1037</v>
       </c>
       <c r="B1039">
-        <v>21.70189422029216</v>
+        <v>21.43618855620543</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8694,7 +8694,7 @@
         <v>1038</v>
       </c>
       <c r="B1040">
-        <v>25.38196964447069</v>
+        <v>23.50843711895607</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8702,7 +8702,7 @@
         <v>1039</v>
       </c>
       <c r="B1041">
-        <v>23.91731312350003</v>
+        <v>23.90045939446599</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8710,7 +8710,7 @@
         <v>1040</v>
       </c>
       <c r="B1042">
-        <v>36.57403828602908</v>
+        <v>36.27542631573864</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8718,7 +8718,7 @@
         <v>1041</v>
       </c>
       <c r="B1043">
-        <v>49.85501773300612</v>
+        <v>49.26527464005149</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8726,7 +8726,7 @@
         <v>1042</v>
       </c>
       <c r="B1044">
-        <v>62.53930664865006</v>
+        <v>61.67100228139229</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8734,7 +8734,7 @@
         <v>1043</v>
       </c>
       <c r="B1045">
-        <v>49.88681522726235</v>
+        <v>49.30827304848235</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8742,7 +8742,7 @@
         <v>1044</v>
       </c>
       <c r="B1046">
-        <v>43.94450212904797</v>
+        <v>43.4830917630465</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8750,7 +8750,7 @@
         <v>1045</v>
       </c>
       <c r="B1047">
-        <v>39.56331444770176</v>
+        <v>39.20052520795653</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8758,7 +8758,7 @@
         <v>1046</v>
       </c>
       <c r="B1048">
-        <v>34.97082744415045</v>
+        <v>34.70775346160248</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8766,7 +8766,7 @@
         <v>1047</v>
       </c>
       <c r="B1049">
-        <v>31.53704589893748</v>
+        <v>31.4208518916683</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8774,7 +8774,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>34.47276548121808</v>
+        <v>34.20600823873178</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8782,7 +8782,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>34.3598254524931</v>
+        <v>34.11168646380021</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8790,7 +8790,7 @@
         <v>1050</v>
       </c>
       <c r="B1052">
-        <v>34.66419770772842</v>
+        <v>34.40584885719886</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8798,7 +8798,7 @@
         <v>1051</v>
       </c>
       <c r="B1053">
-        <v>37.29048060438232</v>
+        <v>35.74308687196117</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8806,7 +8806,7 @@
         <v>1052</v>
       </c>
       <c r="B1054">
-        <v>33.91583400462795</v>
+        <v>33.67412666764812</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8814,7 +8814,7 @@
         <v>1053</v>
       </c>
       <c r="B1055">
-        <v>33.03298452446577</v>
+        <v>32.81349250238554</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8822,7 +8822,7 @@
         <v>1054</v>
       </c>
       <c r="B1056">
-        <v>30.74915384058574</v>
+        <v>30.58107174637074</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8830,7 +8830,7 @@
         <v>1055</v>
       </c>
       <c r="B1057">
-        <v>34.08022084751003</v>
+        <v>33.83667147396223</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8838,7 +8838,7 @@
         <v>1056</v>
       </c>
       <c r="B1058">
-        <v>32.55238830894611</v>
+        <v>32.3444643647294</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8846,7 +8846,7 @@
         <v>1057</v>
       </c>
       <c r="B1059">
-        <v>35.29775285068558</v>
+        <v>37.38630872058133</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8854,7 +8854,7 @@
         <v>1058</v>
       </c>
       <c r="B1060">
-        <v>31.94325694865586</v>
+        <v>31.74789786944293</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8862,7 +8862,7 @@
         <v>1059</v>
       </c>
       <c r="B1061">
-        <v>31.44894218529603</v>
+        <v>31.2723346397019</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8870,7 +8870,7 @@
         <v>1060</v>
       </c>
       <c r="B1062">
-        <v>29.91328440034874</v>
+        <v>29.76289486726447</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8878,7 +8878,7 @@
         <v>1061</v>
       </c>
       <c r="B1063">
-        <v>31.02531377269437</v>
+        <v>31.22217676733097</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8886,7 +8886,7 @@
         <v>1062</v>
       </c>
       <c r="B1064">
-        <v>30.80099370345282</v>
+        <v>30.93159410590237</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8894,7 +8894,7 @@
         <v>1063</v>
       </c>
       <c r="B1065">
-        <v>33.25343281915841</v>
+        <v>32.40269744642809</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8902,7 +8902,7 @@
         <v>1064</v>
       </c>
       <c r="B1066">
-        <v>32.47751381048176</v>
+        <v>32.17388597387787</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8910,7 +8910,7 @@
         <v>1065</v>
       </c>
       <c r="B1067">
-        <v>34.48765448143671</v>
+        <v>34.09337155604649</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8918,7 +8918,7 @@
         <v>1066</v>
       </c>
       <c r="B1068">
-        <v>35.0432186869774</v>
+        <v>37.26680394748843</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8926,7 +8926,7 @@
         <v>1067</v>
       </c>
       <c r="B1069">
-        <v>34.94491266284789</v>
+        <v>34.71786828565737</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8934,7 +8934,7 @@
         <v>1068</v>
       </c>
       <c r="B1070">
-        <v>36.44090311565739</v>
+        <v>36.14514072194527</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8942,7 +8942,7 @@
         <v>1069</v>
       </c>
       <c r="B1071">
-        <v>37.2045097654809</v>
+        <v>36.89372095158748</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8950,7 +8950,7 @@
         <v>1070</v>
       </c>
       <c r="B1072">
-        <v>36.227435442586</v>
+        <v>35.95166869640161</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8958,7 +8958,7 @@
         <v>1071</v>
       </c>
       <c r="B1073">
-        <v>42.24002465637237</v>
+        <v>42.02888808740262</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8966,7 +8966,7 @@
         <v>1072</v>
       </c>
       <c r="B1074">
-        <v>41.62615190265545</v>
+        <v>41.21537318481546</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8974,7 +8974,7 @@
         <v>1073</v>
       </c>
       <c r="B1075">
-        <v>45.14095973013772</v>
+        <v>44.65641135341322</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8982,7 +8982,7 @@
         <v>1074</v>
       </c>
       <c r="B1076">
-        <v>46.00667310804705</v>
+        <v>45.50106159918161</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8990,7 +8990,7 @@
         <v>1075</v>
       </c>
       <c r="B1077">
-        <v>67.1327006070525</v>
+        <v>66.15794655709746</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -8998,7 +8998,7 @@
         <v>1076</v>
       </c>
       <c r="B1078">
-        <v>63.3681165801014</v>
+        <v>62.48401768649525</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9006,7 +9006,7 @@
         <v>1077</v>
       </c>
       <c r="B1079">
-        <v>59.80639644779748</v>
+        <v>59.00239534730693</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9014,7 +9014,7 @@
         <v>1078</v>
       </c>
       <c r="B1080">
-        <v>62.10344414888331</v>
+        <v>61.24576342318362</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9022,7 +9022,7 @@
         <v>1079</v>
       </c>
       <c r="B1081">
-        <v>66.38206068284177</v>
+        <v>65.4298873490975</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9030,7 +9030,7 @@
         <v>1080</v>
       </c>
       <c r="B1082">
-        <v>70.35186217518353</v>
+        <v>69.31497878114178</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9038,7 +9038,7 @@
         <v>1081</v>
       </c>
       <c r="B1083">
-        <v>70.38141812595836</v>
+        <v>69.38969527981882</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9046,7 +9046,7 @@
         <v>1082</v>
       </c>
       <c r="B1084">
-        <v>72.42945698312684</v>
+        <v>71.34693454683429</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9054,7 +9054,7 @@
         <v>1083</v>
       </c>
       <c r="B1085">
-        <v>89.45393213950103</v>
+        <v>87.99855730296728</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9062,7 +9062,7 @@
         <v>1084</v>
       </c>
       <c r="B1086">
-        <v>93.93370551368486</v>
+        <v>92.374155264488</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9070,7 +9070,7 @@
         <v>1085</v>
       </c>
       <c r="B1087">
-        <v>107.3166529081981</v>
+        <v>105.4680655646742</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9078,7 +9078,7 @@
         <v>1086</v>
       </c>
       <c r="B1088">
-        <v>134.6214053085355</v>
+        <v>132.1787767814147</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9086,7 +9086,7 @@
         <v>1087</v>
       </c>
       <c r="B1089">
-        <v>156.355200553246</v>
+        <v>153.4452984187867</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9094,7 +9094,7 @@
         <v>1088</v>
       </c>
       <c r="B1090">
-        <v>121.1670197589231</v>
+        <v>119.0161023275713</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9102,7 +9102,7 @@
         <v>1089</v>
       </c>
       <c r="B1091">
-        <v>97.30557960712798</v>
+        <v>95.67708237870671</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9110,7 +9110,7 @@
         <v>1090</v>
       </c>
       <c r="B1092">
-        <v>122.8343190017558</v>
+        <v>124.2940424942847</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9118,7 +9118,7 @@
         <v>1091</v>
       </c>
       <c r="B1093">
-        <v>114.1477418383313</v>
+        <v>110.1911889008213</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9126,7 +9126,7 @@
         <v>1092</v>
       </c>
       <c r="B1094">
-        <v>105.0508653475457</v>
+        <v>102.9300355979146</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9134,7 +9134,7 @@
         <v>1093</v>
       </c>
       <c r="B1095">
-        <v>114.8096248929605</v>
+        <v>114.137219025937</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9142,7 +9142,7 @@
         <v>1094</v>
       </c>
       <c r="B1096">
-        <v>122.4240962461874</v>
+        <v>119.2279725104494</v>
       </c>
     </row>
   </sheetData>

--- a/UCED/Validation_and_Price_Calculation/weighted_daily_prices.xlsx
+++ b/UCED/Validation_and_Price_Calculation/weighted_daily_prices.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55.01607242513309</v>
+        <v>51.95791365850154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55.31360642655004</v>
+        <v>52.21197000175594</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60.02794693193354</v>
+        <v>56.47299275213581</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63.52372169984064</v>
+        <v>59.57206915043817</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67.18062603118993</v>
+        <v>62.89297167050081</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>87.25755278516867</v>
+        <v>81.38017624717725</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>86.59251350975752</v>
+        <v>79.95869369315722</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59.13139057259946</v>
+        <v>53.90329954446036</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68.92341437832569</v>
+        <v>63.72839775851484</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>75.1858224615908</v>
+        <v>69.81666496774341</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76.8154330037668</v>
+        <v>71.38401270763077</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>75.36876341517603</v>
+        <v>70.43033703740096</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>77.86009036716374</v>
+        <v>72.63482650487956</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75.77048426683736</v>
+        <v>70.19848854251393</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>86.23108545515437</v>
+        <v>82.06587961722107</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>55.3603926909027</v>
+        <v>51.49432482383307</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>60.43636937484108</v>
+        <v>58.67654487536514</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>56.99591395330823</v>
+        <v>53.66903558554633</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>62.39985236040894</v>
+        <v>58.34944778407132</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>63.91320486313926</v>
+        <v>59.94661028142584</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>57.08099502478225</v>
+        <v>54.79377658126813</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>49.05873243033818</v>
+        <v>47.1235246411828</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>68.21629243987145</v>
+        <v>64.16357785208993</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>68.62538087942454</v>
+        <v>64.50495141733421</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>68.15127451734575</v>
+        <v>63.66999400144483</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>77.71823308165321</v>
+        <v>71.79399266158123</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>64.85858710155301</v>
+        <v>60.20556965613804</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>66.76354563188974</v>
+        <v>61.22713068103617</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>77.90970711726006</v>
+        <v>72.31540842608938</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>81.1735069285504</v>
+        <v>77.19904406819674</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>85.94653838832647</v>
+        <v>79.28218350709665</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>77.6242443050444</v>
+        <v>71.94540980954048</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>75.65152061601898</v>
+        <v>69.63766826783451</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>60.33322314435546</v>
+        <v>54.94447269518945</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>82.39423715512503</v>
+        <v>76.89992309757352</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>75.48889256012423</v>
+        <v>70.13766932141694</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>63.43822438046313</v>
+        <v>57.91826942940651</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>68.79163029207976</v>
+        <v>62.82378845456416</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>78.18605410038927</v>
+        <v>72.3279544183489</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>82.92624360057961</v>
+        <v>78.53876136231874</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>100.9487788268676</v>
+        <v>97.85630873704199</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>121.8376803661905</v>
+        <v>115.9532896924064</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>107.3657813814901</v>
+        <v>105.5353933440916</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>142.9778707648523</v>
+        <v>135.5184401557447</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>138.4033479302522</v>
+        <v>131.3311070840384</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>133.1640355689831</v>
+        <v>127.6811246290779</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>122.826269136987</v>
+        <v>121.2483113048382</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>131.7424241041826</v>
+        <v>124.5614266572915</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>123.6469435035142</v>
+        <v>120.8464429838142</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>105.596145044579</v>
+        <v>101.3749187902971</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>90.88144865777099</v>
+        <v>84.13856406257133</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>111.0956955951121</v>
+        <v>107.7501214949084</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>125.7546980124327</v>
+        <v>129.2047416545665</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>159.6021044089355</v>
+        <v>151.935664164713</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>178.352407469691</v>
+        <v>163.2202434265849</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>146.3168033227233</v>
+        <v>142.90770513126</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>126.0370389653722</v>
+        <v>128.7291836548688</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>101.3253999299482</v>
+        <v>96.06677435837544</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>99.33939793280142</v>
+        <v>92.98493067357892</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>88.26316609521798</v>
+        <v>83.52755981885403</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>81.71163221818641</v>
+        <v>77.95742766926108</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>55.57292887042631</v>
+        <v>50.5450474612345</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>86.89891359151888</v>
+        <v>83.56519779563247</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>95.77061328262165</v>
+        <v>88.78187905984633</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>53.26525049345992</v>
+        <v>49.02060124660224</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>47.3669760761707</v>
+        <v>44.1034375217325</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>39.9426535950946</v>
+        <v>38.87262399037574</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>34.03359835710486</v>
+        <v>33.7811142351415</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>28.07584211440646</v>
+        <v>28.62103414290289</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>38.4402484122262</v>
+        <v>37.597763707963</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>32.68083429554227</v>
+        <v>32.60946997525425</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>31.54164703326202</v>
+        <v>31.69501855668629</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>39.0248685926824</v>
+        <v>38.0738985348909</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>39.48357378233193</v>
+        <v>38.36638599236544</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>41.49213641584811</v>
+        <v>40.20567171964716</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>82.28534670357111</v>
+        <v>78.16677990216559</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>75.84753175377396</v>
+        <v>72.02302912372053</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>57.74187182115843</v>
+        <v>53.52601848412867</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>66.61985685560391</v>
+        <v>62.00444142559539</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>62.33063033405799</v>
+        <v>57.77864118796698</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>60.39561870508908</v>
+        <v>56.05291832165467</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>56.43131529701006</v>
+        <v>53.16907058366579</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>35.59340412586501</v>
+        <v>35.13207966025476</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>29.3537231781306</v>
+        <v>29.72782139108092</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>42.89813858426746</v>
+        <v>41.58335145586465</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>63.48580151583239</v>
+        <v>59.37241482534336</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>66.77773968539887</v>
+        <v>62.1411855308833</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>64.67206641599772</v>
+        <v>60.31743808711836</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>63.68451826496006</v>
+        <v>59.46211145965827</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>37.33011525360975</v>
+        <v>36.63626481842196</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>28.16924814395032</v>
+        <v>28.70193416195537</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>29.72797166816137</v>
+        <v>30.05196224281934</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>30.19991354114197</v>
+        <v>30.46071643890541</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>32.97828504737852</v>
+        <v>32.88025430818798</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>34.25970421828238</v>
+        <v>33.97694707983541</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>35.6215841089315</v>
+        <v>35.15648666243771</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>48.77564223117243</v>
+        <v>46.55697214590207</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>34.38807507171971</v>
+        <v>34.08813052847978</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31.51213505690435</v>
+        <v>31.5972463411469</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>26.03372989986872</v>
+        <v>26.85233764793169</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>29.1131735147019</v>
+        <v>29.98587947324571</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>28.70033884401731</v>
+        <v>29.16051181006041</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>29.46652635997728</v>
+        <v>29.81131713266987</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>31.03444896285552</v>
+        <v>31.1835170101993</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>25.7916817439874</v>
+        <v>26.64269700141195</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>24.92297236939706</v>
+        <v>25.89029798286224</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>20.61851117458334</v>
+        <v>22.16215543819314</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>23.93892070074876</v>
+        <v>25.24133129704943</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>26.58246951104383</v>
+        <v>27.32075741065407</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>27.58208885128279</v>
+        <v>28.19338885502378</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>30.96730817602209</v>
+        <v>33.74502648154456</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>30.90965784138827</v>
+        <v>31.0357771358334</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>32.68936737756387</v>
+        <v>32.8378214550575</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>28.10456321974749</v>
+        <v>31.17399936089902</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>27.18719446523877</v>
+        <v>27.84080321049018</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>27.29433667559793</v>
+        <v>29.63725951592058</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>26.52814915963797</v>
+        <v>27.2805597630411</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>29.06006028221615</v>
+        <v>29.47347663421134</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>25.02978158143344</v>
+        <v>25.98280664992496</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>21.1429002834041</v>
+        <v>22.61633477866699</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>23.64101207621865</v>
+        <v>22.15930735374343</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>19.23977324384277</v>
+        <v>20.96945698439917</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>20.47403152728086</v>
+        <v>22.03701998091542</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>21.15946694996313</v>
+        <v>22.6315846485686</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>22.8338241417646</v>
+        <v>24.26436622739546</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>21.32034676466327</v>
+        <v>22.7700231838456</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>21.11043294693164</v>
+        <v>22.58821445118886</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>22.32879056045629</v>
+        <v>23.64344776565699</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>22.18822364344662</v>
+        <v>23.5217011683574</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>24.39671014501059</v>
+        <v>23.5217011683574</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>25.55275544738231</v>
+        <v>26.44711651863131</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>24.19641165384965</v>
+        <v>25.39786778667774</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>19.84383220139212</v>
+        <v>21.4856813038344</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>20.72477926434516</v>
+        <v>24.30896218263962</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>18.93204116879023</v>
+        <v>20.70148468421326</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>20.82072440610035</v>
+        <v>22.65783028754819</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>21.17540924466694</v>
+        <v>22.64449115784704</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>21.34744450318068</v>
+        <v>22.79349284177928</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>22.13361191850832</v>
+        <v>23.25499067773782</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>20.20513538162422</v>
+        <v>21.80412598667338</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>22.27759206832661</v>
+        <v>23.59910417232607</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>19.41322374522839</v>
+        <v>23.59910417232607</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>20.13533060820842</v>
+        <v>21.74759691810196</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>23.08948360409014</v>
+        <v>24.43467446714767</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>21.89913947447059</v>
+        <v>23.27132209869628</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>25.4939396186187</v>
+        <v>26.38481917775665</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>25.77894455814051</v>
+        <v>27.39794410441139</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>19.4306229075944</v>
+        <v>21.13367248653113</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>19.48302851864419</v>
+        <v>21.17942209623595</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>20.31527457688854</v>
+        <v>23.21039472249364</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>19.19823170307415</v>
+        <v>20.9306653531601</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>19.43953061272916</v>
+        <v>21.14156780924615</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>17.17539176646816</v>
+        <v>19.18003076083833</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>16.93471722866838</v>
+        <v>18.98048459084921</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>17.62173439338393</v>
+        <v>19.5247931860607</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>16.96177334239543</v>
+        <v>19.29557646541196</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>17.88659293437666</v>
+        <v>19.89125873582389</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>17.24086756168763</v>
+        <v>19.23674008791924</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>19.15094594123731</v>
+        <v>20.29950820808345</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>25.10591332298233</v>
+        <v>26.07279169785499</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>29.68355801685867</v>
+        <v>30.01349507689734</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>24.84496751228244</v>
+        <v>27.24836559324882</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>19.00613329561203</v>
+        <v>20.76565671358646</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>20.54246268261513</v>
+        <v>22.08367088316762</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>20.9342768341733</v>
+        <v>22.43589601068226</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>21.80277808481191</v>
+        <v>23.18786240880924</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>22.17432096346995</v>
+        <v>23.50965989992445</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>22.06488938964159</v>
+        <v>23.46506394468028</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>19.82256193352361</v>
+        <v>21.46974645159679</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>21.81884525388675</v>
+        <v>21.49044012848455</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>20.84116217816187</v>
+        <v>22.35499599162976</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>23.75298276225832</v>
+        <v>24.93795622560258</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>25.92225871131324</v>
+        <v>26.74183918162336</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>22.67839717460024</v>
+        <v>23.88405682410457</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>19.22595381344679</v>
+        <v>20.96275136784669</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>18.80396168888537</v>
+        <v>20.64120623864474</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>17.86103531310218</v>
+        <v>19.80581620233261</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>18.00201847801533</v>
+        <v>19.89864933471236</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>17.53486345592489</v>
+        <v>19.49169772372103</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>18.2032743393543</v>
+        <v>20.07631212165119</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>18.73798639618169</v>
+        <v>20.51679181540491</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>18.15927693595507</v>
+        <v>20.03261745895438</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>14.58878566937095</v>
+        <v>16.70378356447486</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>15.34086238140249</v>
+        <v>17.59440480809019</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>17.81558104204071</v>
+        <v>19.78101263142882</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>20.01570096074447</v>
+        <v>21.73696166604291</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>20.98322758762411</v>
+        <v>22.47804045019758</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>19.35931964172602</v>
+        <v>21.20101706567109</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>18.51858212625041</v>
+        <v>20.29078369622484</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>19.76641009134238</v>
+        <v>21.42435735891092</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>22.76593410870486</v>
+        <v>24.02206273895882</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>23.6477136674649</v>
+        <v>24.76144709312442</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>22.04819784871151</v>
+        <v>23.40042324318246</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>20.58754233056346</v>
+        <v>22.13533297198322</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>21.24513076850204</v>
+        <v>22.70487775852124</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>22.27093210187072</v>
+        <v>23.59333590002286</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>22.83057740811735</v>
+        <v>24.07120120864177</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>24.70573258856395</v>
+        <v>25.91564232929447</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>28.7284355775031</v>
+        <v>29.76044818129597</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>33.20909450986551</v>
+        <v>32.92059616260855</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>36.53837011637529</v>
+        <v>35.71478331798447</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>26.43665787045016</v>
+        <v>27.27302495734504</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>20.5749300190876</v>
+        <v>22.12440930630902</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>17.8843451956978</v>
+        <v>19.78923241946089</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>18.06978363670404</v>
+        <v>19.89179951135231</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>23.61874281338177</v>
+        <v>24.79187472952384</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>28.92165785430467</v>
+        <v>29.35562362071644</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>34.87454399653222</v>
+        <v>34.50946676852723</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>38.14879163020023</v>
+        <v>37.34532969129383</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>35.03937816631553</v>
+        <v>34.41922935868391</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>24.90736307301607</v>
+        <v>25.8767785946516</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>22.11296602249506</v>
+        <v>23.45651969133116</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>22.89326434238344</v>
+        <v>24.08309827026714</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>22.15733804900743</v>
+        <v>23.49495080555128</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>22.15733804900743</v>
+        <v>24.88081427809894</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>22.80106543175969</v>
+        <v>22.77737773103219</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>18.50064184160986</v>
+        <v>20.44944723626496</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>17.91889377168773</v>
+        <v>19.82398626008772</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>18.9737908335106</v>
+        <v>20.82445703937727</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>22.35925990699199</v>
+        <v>24.67546378410471</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>19.4127242477442</v>
+        <v>21.11780973769731</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>21.42940371537849</v>
+        <v>22.95684310306575</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>22.84764357216059</v>
+        <v>23.95284347132033</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>25.95081331749287</v>
+        <v>26.57643397332885</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>24.19849289336712</v>
+        <v>25.26281811137889</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>29.313014133169</v>
+        <v>29.69256282662759</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>31.66244217485576</v>
+        <v>31.72742903668994</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>28.54932410462998</v>
+        <v>29.03112225195908</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>31.07016303297526</v>
+        <v>70.9123843434397</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>31.68304644607868</v>
+        <v>27.77832561110607</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>27.79891238421242</v>
+        <v>28.38024482594584</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>28.16683390611006</v>
+        <v>28.97949621484536</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>24.68591918835769</v>
+        <v>25.68498354056995</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>25.99776608100689</v>
+        <v>26.82118897749435</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>25.67072010323229</v>
+        <v>26.53793075570495</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>27.78584220004272</v>
+        <v>28.36986193580005</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>58.01855180261039</v>
+        <v>70.18601465365819</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>29.31438775125052</v>
+        <v>29.69288729194464</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>26.51757646288923</v>
+        <v>27.27140263075975</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>26.47607654691095</v>
+        <v>27.23545908397038</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>28.53184169268326</v>
+        <v>29.01598053716316</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>30.94853539557455</v>
+        <v>31.10910629748793</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>33.96358545973732</v>
+        <v>33.72047527255404</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>34.92520136638736</v>
+        <v>33.79055978103802</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>30.96027358645305</v>
+        <v>31.66091364669358</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>27.19006657577287</v>
+        <v>27.8581440791017</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>28.33720417300985</v>
+        <v>28.84740277910191</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>29.25956790236046</v>
+        <v>29.65903474386519</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>29.72110357775373</v>
+        <v>30.04601371200665</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>31.97633471887999</v>
+        <v>31.99929492068051</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>35.57612983787003</v>
+        <v>35.11711820396829</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>36.29911082144743</v>
+        <v>35.62703347557191</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>25.99381172592372</v>
+        <v>26.8004592489047</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>23.61907581170456</v>
+        <v>23.91023035968037</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>68.96058531610765</v>
+        <v>24.93366607307707</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>23.25036341879027</v>
+        <v>24.44163244561342</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>23.51097623116737</v>
+        <v>24.66735215117833</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>22.14763947285603</v>
+        <v>23.48655075900973</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>26.22058358374682</v>
+        <v>27.01417373773857</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>38.45356834513794</v>
+        <v>37.60930025256937</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>37.04028183840742</v>
+        <v>36.38523681812671</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>35.73234767605104</v>
+        <v>35.25242024118043</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>30.58236211487156</v>
+        <v>30.79325733718538</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>28.57638021835704</v>
+        <v>29.05199618735632</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>25.94344572960104</v>
+        <v>26.72817558660511</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>24.99390101215232</v>
+        <v>23.68962999578455</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>22.13760789838185</v>
+        <v>23.47786229885303</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>19.28718388005064</v>
+        <v>21.00907780478183</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>21.17769860813614</v>
+        <v>22.63717266236234</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>21.92657021131079</v>
+        <v>23.27809981865255</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>23.19104809254248</v>
+        <v>24.71605800043855</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>26.32185669866672</v>
+        <v>25.25805928672874</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>23.4262697828065</v>
+        <v>24.5939869378219</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>22.00553243860346</v>
+        <v>23.36347024874003</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>17.92472124233663</v>
+        <v>19.82903349835302</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>21.91112741409119</v>
+        <v>23.37255527761759</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>23.90899247648759</v>
+        <v>25.11897182081763</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>28.68718541026692</v>
+        <v>29.17936685015152</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>27.93681531463971</v>
+        <v>28.50062145857341</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>26.39686457087621</v>
+        <v>27.16685269526411</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>24.81999263807284</v>
+        <v>25.80110607237389</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>25.11723526595735</v>
+        <v>26.05855127560645</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>25.70876516161156</v>
+        <v>26.57088201123702</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>25.70664229730376</v>
+        <v>26.56904337444038</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>26.35665502339875</v>
+        <v>27.13202675123348</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>27.10215501855511</v>
+        <v>27.77771273217385</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>27.14082444878962</v>
+        <v>27.81120476323434</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>26.88429086586675</v>
+        <v>27.60560190732687</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>36.38323452274339</v>
+        <v>35.81616070371334</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>37.65170838384861</v>
+        <v>36.91480026726312</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>38.5682862673407</v>
+        <v>37.74171815362992</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>40.26949144891748</v>
+        <v>39.18209179944288</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>33.85090715226171</v>
+        <v>33.62288331552414</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>27.77884923526404</v>
+        <v>28.36380524988169</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>38.60412521183146</v>
+        <v>37.7396992583238</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>40.18574237073466</v>
+        <v>39.10955577523006</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>49.6266610698643</v>
+        <v>42.96604237864553</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>44.31213271243394</v>
+        <v>42.76653226035831</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>47.36701770096101</v>
+        <v>45.33507181357309</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>43.94587618215029</v>
+        <v>42.36408711210387</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>47.46304609229692</v>
+        <v>45.42325427640841</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>43.38252626956255</v>
+        <v>41.93359373977507</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>36.04607372091388</v>
+        <v>35.52414191836343</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>40.2498445478726</v>
+        <v>39.16507539614842</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>36.55098242785115</v>
+        <v>35.9614490623504</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>38.46613903182343</v>
+        <v>37.62018786654168</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>35.17865471482435</v>
+        <v>34.77286050257246</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>32.53023580405843</v>
+        <v>32.47903491779797</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>26.12896742018796</v>
+        <v>26.93482394186755</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>35.71936074146207</v>
+        <v>35.24117211018919</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>34.35523311213408</v>
+        <v>34.05968573568457</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>31.04102567973073</v>
+        <v>31.18921317909873</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>35.00761845127899</v>
+        <v>31.81197027763383</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>24.32049515388099</v>
+        <v>25.4114232265903</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>26.19286147337418</v>
+        <v>26.87205792886827</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>25.55521131001291</v>
+        <v>26.369929824874</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>24.39829188704386</v>
+        <v>25.44105772554802</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>24.97571097876967</v>
+        <v>25.70928238764721</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>27.31248508419024</v>
+        <v>26.25824165240314</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>23.55384976522717</v>
+        <v>24.68137626321551</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>23.87619214169231</v>
+        <v>24.98536421359457</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>20.94122817416165</v>
+        <v>22.44166428298547</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>23.01405948397717</v>
+        <v>24.23696693395521</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>35.68368829613267</v>
+        <v>35.21027580166511</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>36.66112162311546</v>
+        <v>36.05684186556471</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>36.27829842627276</v>
+        <v>35.72527436323593</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>35.33849390976576</v>
+        <v>34.91129903784946</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>23.59027145678282</v>
+        <v>24.7360306432884</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>26.66001649546462</v>
+        <v>27.39477155464463</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>25.08868065977772</v>
+        <v>26.06147146345995</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>26.48198726714055</v>
+        <v>26.46824281594181</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>24.65470059559568</v>
+        <v>25.65794476414864</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>24.59388677689533</v>
+        <v>25.60527322767998</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>24.12968711491969</v>
+        <v>25.20322464814637</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>24.03653083411791</v>
+        <v>25.12254093930525</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>31.59921411831513</v>
+        <v>28.93738782703196</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>26.33484363325571</v>
+        <v>27.11313565944048</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>22.64301610280332</v>
+        <v>23.91300634072628</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>23.27113418917458</v>
+        <v>24.25055842556965</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>24.56329255598859</v>
+        <v>25.57877522678712</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>23.39430194381822</v>
+        <v>24.5662992307665</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>22.79203285225389</v>
+        <v>24.04466715604701</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>21.9440526232575</v>
+        <v>23.31022188504103</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>16.76164135039588</v>
+        <v>18.82167684400151</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>16.36778758411061</v>
+        <v>18.48055564067054</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>16.18846798728573</v>
+        <v>18.32524490890667</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>17.56208606881334</v>
+        <v>19.77661432379762</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>17.93491931597222</v>
+        <v>19.98647128052871</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>20.08613010601553</v>
+        <v>21.70105417095545</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>21.46266192286759</v>
+        <v>22.89328395262477</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>24.01925654612295</v>
+        <v>25.1075794830188</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>27.57800962182856</v>
+        <v>28.18985578823807</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>27.02481615808606</v>
+        <v>27.71072867005284</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>22.26876761277257</v>
+        <v>23.58489980177944</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>20.66596343558158</v>
+        <v>22.23876530472012</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>17.62943497959856</v>
+        <v>19.57328272510954</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>16.7857004792178</v>
+        <v>17.63380931826149</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>18.64591235992899</v>
+        <v>20.45701809366292</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>25.0589605594683</v>
+        <v>25.11320354851442</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>28.38931841052718</v>
+        <v>28.87022350640146</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>32.63475565262556</v>
+        <v>32.54951599500277</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>37.3988377824765</v>
+        <v>36.57209278904877</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>36.20320730448258</v>
+        <v>35.87939538883726</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>36.99366207321621</v>
+        <v>36.28879851555746</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>38.91414665035317</v>
+        <v>37.9973607717677</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>53.6778354154024</v>
+        <v>50.79521022068425</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>57.3182563297734</v>
+        <v>53.94821996502162</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>57.13689711822138</v>
+        <v>53.79114269986486</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>58.86361829628231</v>
+        <v>55.28667544957727</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>44.74794426739132</v>
+        <v>43.07437774284012</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>39.87272394730772</v>
+        <v>38.83844697697923</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>32.16901587340699</v>
+        <v>32.38032535800931</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>34.42503788554991</v>
+        <v>34.12014443976258</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>35.79178787666986</v>
+        <v>35.30390207148655</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>37.08619398216275</v>
+        <v>36.42500184531698</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>40.90772435934362</v>
+        <v>39.91267953834608</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>47.3249766627082</v>
+        <v>45.29292737405778</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>39.68761850462431</v>
+        <v>39.09675742105729</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>32.48765364353105</v>
+        <v>32.44215402675931</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>42.74325273937768</v>
+        <v>41.33466681619259</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>41.50362485798452</v>
+        <v>40.2549183444358</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>40.77032092640053</v>
+        <v>39.61586587664415</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>41.38241346848727</v>
+        <v>40.12913395652396</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>43.64172383906774</v>
+        <v>42.10282042847039</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>41.41542192723431</v>
+        <v>40.17459515261363</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>40.71604219978498</v>
+        <v>39.56885445737298</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>39.93191439918445</v>
+        <v>38.95431714686994</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>43.54557057336086</v>
+        <v>40.12138284061651</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>37.81978928727918</v>
+        <v>37.06037703951534</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>36.68667924438995</v>
+        <v>36.07897761052827</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>46.61739685156012</v>
+        <v>45.4399822660877</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>30.9016658816412</v>
+        <v>31.0685120811541</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>57.36371060083485</v>
+        <v>28.28099449062876</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>25.62718057252689</v>
+        <v>26.50022067552272</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>26.61776733326006</v>
+        <v>27.3679130367328</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>22.65745990505454</v>
+        <v>23.92811200382032</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>22.70978226652363</v>
+        <v>23.9734289931024</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>22.21773561980428</v>
+        <v>23.54726182500099</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>21.50595170483089</v>
+        <v>23.09236145048924</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>29.8822747659863</v>
+        <v>28.34058795386128</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>29.12686807072684</v>
+        <v>29.50210168551604</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>34.71778503607668</v>
+        <v>34.37369605919046</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>39.30883291244547</v>
+        <v>38.350054571407</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>43.07408657307406</v>
+        <v>41.47198774871083</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>47.0544987750183</v>
+        <v>45.18808902494699</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>51.92343375175921</v>
+        <v>49.43483530137639</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>50.96831131240366</v>
+        <v>48.5927396485118</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>56.05044846531375</v>
+        <v>52.85015722870214</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>50.55377002531478</v>
+        <v>48.08942183835501</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>44.73749644501366</v>
+        <v>43.05188148085763</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>38.88438492525343</v>
+        <v>37.98243536718316</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>29.59993381304685</v>
+        <v>29.94106720779016</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>36.90957999671056</v>
+        <v>36.27203447417627</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>28.87836807234137</v>
+        <v>29.31611095543946</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>22.13257129874958</v>
+        <v>23.47350004292372</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>25.68379028740196</v>
+        <v>26.5294946574615</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>26.12522118905653</v>
+        <v>26.93157928869701</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>27.96482879854481</v>
+        <v>28.36870828133942</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>24.38230796754972</v>
+        <v>25.42202242694743</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>22.01306652565669</v>
+        <v>23.36999560678304</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>26.41168299624056</v>
+        <v>27.17968710113875</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>19.77977164904451</v>
+        <v>21.43571364500787</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>23.01122899823341</v>
+        <v>24.23451541822634</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>25.32257035675054</v>
+        <v>26.23639432105472</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>28.78104931250466</v>
+        <v>29.23182207640883</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>37.89900126331393</v>
+        <v>37.12898342822162</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>32.9553914126864</v>
+        <v>32.84726700095401</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>28.59573574586949</v>
+        <v>29.07131989957207</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>25.60924028788635</v>
+        <v>26.48468239200596</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>22.19255262164295</v>
+        <v>23.52545054535448</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>18.77744669743284</v>
+        <v>20.56758866337503</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>15.60742753879954</v>
+        <v>17.826000941064</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>16.64138733107671</v>
+        <v>18.89215792120634</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>16.02925316419957</v>
+        <v>18.18734714915809</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>16.81109160133089</v>
+        <v>19.12130253845128</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>18.38617366814922</v>
+        <v>20.8170664404888</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>16.481631385716</v>
+        <v>18.57915704535351</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>17.21127233574926</v>
+        <v>19.21110732787185</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>16.92847351011596</v>
+        <v>18.96617206519687</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>21.09074442109642</v>
+        <v>19.69207308285373</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>23.76979917755945</v>
+        <v>24.90922301919223</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>29.07500358195156</v>
+        <v>29.35133346819094</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>26.60215803687905</v>
+        <v>27.34559703325976</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>23.98508259324616</v>
+        <v>25.07798103576297</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>23.64683954686755</v>
+        <v>24.01831336196173</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>17.84813162809389</v>
+        <v>19.87182686850245</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>19.72091419549058</v>
+        <v>20.17303883783561</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>17.56233581755544</v>
+        <v>19.51516738165471</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>18.0068053289055</v>
+        <v>19.97994592248571</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>18.32569284777165</v>
+        <v>20.19903211490193</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>18.79888346446274</v>
+        <v>20.58615528985099</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>19.08709351284145</v>
+        <v>20.83577727377232</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>21.67869458478057</v>
+        <v>22.6986047623915</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>17.54227266860707</v>
+        <v>19.4977904613413</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>17.21747442951132</v>
+        <v>19.21647903145422</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>24.14737765081814</v>
+        <v>25.23549092134243</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>31.51280105354993</v>
+        <v>31.59782316837721</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>37.97708937000928</v>
+        <v>37.19661642097675</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>44.29269393534084</v>
+        <v>42.68051289963673</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>38.18775243396718</v>
+        <v>37.37907408426758</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>24.87547848360849</v>
+        <v>25.849162991</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>17.39567015699676</v>
+        <v>19.37081636726693</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>35.30640119640644</v>
+        <v>34.88350317568838</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>35.36925462983392</v>
+        <v>34.93794124554991</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>37.9305112296084</v>
+        <v>37.15627456655619</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>36.59202447113557</v>
+        <v>35.99699604041891</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>37.63963719464731</v>
+        <v>36.90434527371355</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>34.41071895766974</v>
+        <v>34.10795896452206</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>27.84765501371146</v>
+        <v>28.42339871311421</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>26.87833852084682</v>
+        <v>27.60123965139758</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>26.48182076797917</v>
+        <v>27.2404342188319</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>25.32556734165572</v>
+        <v>26.23899004359119</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>25.2923091341666</v>
+        <v>26.21018473377704</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>23.56741944688105</v>
+        <v>24.71623825894802</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>23.99573853957557</v>
+        <v>25.08721027144809</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>24.91090118019575</v>
+        <v>25.87984298931267</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>23.22826065511477</v>
+        <v>24.42248899190714</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>23.52188192623889</v>
+        <v>24.67679769707483</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>23.29669181044906</v>
+        <v>24.4817579898226</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>23.59892941317549</v>
+        <v>24.74352939728257</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>23.9910349382661</v>
+        <v>25.78917295904663</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>25.12876533288411</v>
+        <v>26.06853759703138</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>24.5229581341401</v>
+        <v>25.49787520773463</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>23.65628837427685</v>
+        <v>24.79320864249395</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>24.72200788159053</v>
+        <v>25.71624036611293</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>26.74497269256758</v>
+        <v>27.46835307821242</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>25.03565067687267</v>
+        <v>25.98788993989214</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>23.68450998213369</v>
+        <v>24.8176516963788</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>24.51209406385891</v>
+        <v>25.5344316334562</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>24.24015930850679</v>
+        <v>25.29890586497583</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>23.81612756921825</v>
+        <v>25.02184853591238</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>23.19999742246759</v>
+        <v>24.73357912755954</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>23.91019959540771</v>
+        <v>25.00393084007052</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>23.64392581154312</v>
+        <v>24.78250128703113</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>22.61712548320604</v>
+        <v>23.89317790468401</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>23.17531392179044</v>
+        <v>24.37663122709665</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>24.26817279241189</v>
+        <v>25.70848925020551</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>23.18301450800508</v>
+        <v>24.38330079194724</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>23.18301450800508</v>
+        <v>24.96232717608364</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>22.59073536612457</v>
+        <v>23.86199318254478</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>23.88006324719481</v>
+        <v>25.02790522183074</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>21.19389065158203</v>
+        <v>22.66049811348843</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>20.44572666984331</v>
+        <v>22.01358637468363</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>21.2144532980146</v>
+        <v>23.24745587204175</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>20.8823707206077</v>
+        <v>22.84511887889298</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>20.75000388729686</v>
+        <v>22.27604276447961</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>20.59911402228057</v>
+        <v>22.14535534511005</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>20.5911220625335</v>
+        <v>22.1384334183462</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>20.21346033969409</v>
+        <v>21.84886614872514</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>21.35002524018233</v>
+        <v>22.8479669633427</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>24.55825595635631</v>
+        <v>25.57441297085781</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>20.56427407275818</v>
+        <v>22.11518007062389</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>23.11749708799523</v>
+        <v>24.32655541316441</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>23.11749708799523</v>
+        <v>23.13050415109421</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>21.30727658049357</v>
+        <v>23.52811837129472</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>23.57445403645008</v>
+        <v>24.46301110483718</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>22.09011401259328</v>
+        <v>23.45388791709282</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>22.04915521888955</v>
+        <v>23.40125243232605</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>22.01094366134886</v>
+        <v>23.36815696998638</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>22.67864692334233</v>
+        <v>23.94646232008489</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>21.96182640873666</v>
+        <v>23.32561596175022</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>21.41200455301247</v>
+        <v>22.84940903141849</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>22.0151061403838</v>
+        <v>23.40867908291642</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>21.33911954511081</v>
+        <v>22.78628250140026</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>19.90214853267152</v>
+        <v>21.54170564857931</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>21.30411309642703</v>
+        <v>22.56546582729308</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>21.19505614571181</v>
+        <v>22.36602781240965</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>21.39206627843515</v>
+        <v>22.83214026621077</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>21.5330494433483</v>
+        <v>22.9542473805293</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>21.95466694479658</v>
+        <v>23.31941506902428</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>24.00601986279186</v>
+        <v>25.09611504181618</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>24.34825888904399</v>
+        <v>24.93828069091963</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>23.56229959766809</v>
+        <v>24.71180389961493</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>23.71889205896222</v>
+        <v>24.8474304021441</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>24.08722982876337</v>
+        <v>25.16645191221341</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>24.11386969458695</v>
+        <v>25.18952500142625</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>24.51509104876406</v>
+        <v>25.53702735599264</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>24.834311565953</v>
+        <v>25.81350785782579</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>26.33796549253192</v>
+        <v>27.11583953708262</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>25.62355921576649</v>
+        <v>26.49708417745784</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>25.97137596392545</v>
+        <v>26.79833219849291</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>27.89698039027541</v>
+        <v>28.51843099930957</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>26.71462822040291</v>
+        <v>27.44207138753092</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>27.40830535157437</v>
+        <v>28.04287299961194</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>30.04544394415566</v>
+        <v>30.33626596396373</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>28.20800082376553</v>
+        <v>28.74353782594225</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>30.27708590244963</v>
+        <v>30.51504635366127</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>28.69800785575776</v>
+        <v>29.15928605219598</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>29.74945005998163</v>
+        <v>30.05012360602269</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>30.08885860048999</v>
+        <v>30.20756138819839</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>31.19691051958895</v>
+        <v>31.31712461742237</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>35.52430697388515</v>
+        <v>34.98888230032762</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>32.84200548377484</v>
+        <v>32.7490621649919</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>30.87527576455973</v>
+        <v>31.33789039771391</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>29.78753674315125</v>
+        <v>30.10355222823116</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>29.38090416622873</v>
+        <v>29.75136315241841</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>28.65001447248498</v>
+        <v>29.1183313188432</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>28.4038454623591</v>
+        <v>28.90512155383588</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>29.14805508901464</v>
+        <v>29.5496899320175</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>29.59631245628647</v>
+        <v>30.23319414824576</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>29.94121546912095</v>
+        <v>30.03901968183903</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>29.16724411736566</v>
+        <v>29.56630976659111</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>29.56363699586226</v>
+        <v>29.91377606945561</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>28.16092318588046</v>
+        <v>28.68686455056324</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>25.80358643402731</v>
+        <v>26.63923603803002</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>27.01952980971171</v>
+        <v>27.60023020374452</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>28.19513876354761</v>
+        <v>28.65726610330739</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>34.12941862448902</v>
+        <v>33.88883672040392</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>32.54742684247269</v>
+        <v>32.49392427068062</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>31.01734117402196</v>
+        <v>30.74256864432093</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>30.45270089293341</v>
+        <v>30.67965842451407</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>29.61874821828475</v>
+        <v>29.95736257704673</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>31.5243311204767</v>
+        <v>31.64836765443409</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>28.31510140933436</v>
+        <v>29.36687175170769</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>26.71575208974235</v>
+        <v>27.52304350998721</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>26.31723634693795</v>
+        <v>27.09190120702429</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>26.69419044834141</v>
+        <v>27.42437000190046</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>27.34686716101877</v>
+        <v>27.98966068761485</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>26.41992470472972</v>
+        <v>27.18682533811396</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>27.82026590166161</v>
+        <v>28.39967669326727</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>28.0812117123615</v>
+        <v>28.62568481244734</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>27.91063332150999</v>
+        <v>28.47794493808142</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>28.85776380111846</v>
+        <v>29.16804661575649</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>34.98489131574829</v>
+        <v>34.2102736945002</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>28.06760040591728</v>
+        <v>28.61389590592766</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>31.45802282945024</v>
+        <v>31.53797734323144</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>36.48721324903599</v>
+        <v>36.92752651803208</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>47.06811008146255</v>
+        <v>44.41903412012176</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>46.35008244793677</v>
+        <v>44.31304211655032</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>43.76526621682456</v>
+        <v>42.21508542817161</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>43.78254050481954</v>
+        <v>42.29703094657906</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>41.59769688417398</v>
+        <v>40.33293422733669</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>32.85761478015585</v>
+        <v>32.76056265789643</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>30.90757660187081</v>
+        <v>31.22641853545441</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>29.58877836923325</v>
+        <v>31.92747993050559</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>27.88274471197593</v>
+        <v>28.45368214270605</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>27.78838131225403</v>
+        <v>28.37206108961566</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>27.88237008886279</v>
+        <v>28.45346583249467</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>25.95701541125492</v>
+        <v>26.7858943613391</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>27.16667344359656</v>
+        <v>27.83359287011118</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>29.30768616000427</v>
+        <v>29.13473484320546</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>27.59482603712968</v>
+        <v>28.20442067580367</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>28.99487586052913</v>
+        <v>29.84430443990385</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>30.94940951617187</v>
+        <v>30.96569262734942</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>30.23088238516187</v>
+        <v>30.48753890511534</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>29.57233657704526</v>
+        <v>29.91716492943375</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>29.06538825538086</v>
+        <v>29.47809125205391</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>31.01796554587721</v>
+        <v>32.45084248691602</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>28.28517318507319</v>
+        <v>29.98566316303435</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>19.3786335444481</v>
+        <v>21.08828339384526</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>20.71499743861308</v>
+        <v>22.24572328318587</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>23.61774381841339</v>
+        <v>24.75982476653914</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>24.96026818155006</v>
+        <v>25.92260030776021</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>27.93556657092923</v>
+        <v>28.49305060117545</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>33.82892926295727</v>
+        <v>33.60384801692355</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>52.35050410074325</v>
+        <v>64.99384854673298</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>32.47512458163593</v>
+        <v>32.43130246448892</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>31.19462115611972</v>
+        <v>31.30861641577513</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>28.9873417734759</v>
+        <v>29.4104943110007</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>29.44966831988581</v>
+        <v>29.81092056394903</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>27.91471255096423</v>
+        <v>28.48147800486714</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>30.71019184603432</v>
+        <v>100.0796532446116</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>23.79839540852944</v>
+        <v>24.91628915276366</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>23.91760880808989</v>
+        <v>25.01954122699108</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>25.71854698734365</v>
+        <v>26.42307003346732</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>28.95345919413154</v>
+        <v>29.38114822565812</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>29.4843417702468</v>
+        <v>29.84095163162761</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>32.3997420863133</v>
+        <v>32.36601283235697</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>28.17594973519657</v>
+        <v>28.70773848596048</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>27.25008952345659</v>
+        <v>27.90584048070885</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>21.4532130954583</v>
+        <v>22.88510021629459</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>21.43344132004238</v>
+        <v>22.86797565789445</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>21.41100555804409</v>
+        <v>22.84854379057301</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>20.55569936594622</v>
+        <v>22.1077534200335</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>21.57092800256619</v>
+        <v>22.9870544292538</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>23.18701048787859</v>
+        <v>22.9870544292538</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>22.20741267179766</v>
+        <v>23.39353736812049</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>22.18901451446326</v>
+        <v>23.52238615069341</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>23.36245897920098</v>
+        <v>24.5436948136783</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>22.32454483184065</v>
+        <v>23.6557774477051</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>23.26930269839921</v>
+        <v>24.2888813846841</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>22.70853352281315</v>
+        <v>23.97234744204555</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>22.74924256777479</v>
+        <v>24.0076060064989</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>25.39724523063724</v>
+        <v>26.70409304973924</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>25.9207185940703</v>
+        <v>26.78474070687846</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>25.9207185940703</v>
+        <v>28.28348205805952</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>26.48648274449829</v>
+        <v>27.24447200944415</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>26.20118643144405</v>
+        <v>26.99737364465548</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>26.40156817218569</v>
+        <v>27.17092653757826</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>26.63162838844636</v>
+        <v>27.37018429395218</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>22.32017422885398</v>
+        <v>23.63598506336472</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>17.04439855123883</v>
+        <v>19.06891941559777</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>20.62525439061993</v>
+        <v>22.16799581390013</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>23.1189955804478</v>
+        <v>22.16799581390013</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>26.56648559154969</v>
+        <v>22.16799581390013</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>27.91000894965474</v>
+        <v>28.61897919589487</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>25.23495017306523</v>
+        <v>31.8384682785267</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>19.55291654164071</v>
+        <v>21.23923186967984</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>27.64415141369362</v>
+        <v>28.2471419425493</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>29.32379495386947</v>
+        <v>29.70190021741841</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>29.96369285590958</v>
+        <v>30.25612303065101</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>32.53181754609169</v>
+        <v>32.48040488246997</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>27.60460786286177</v>
+        <v>28.21289282574901</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>29.93176664171165</v>
+        <v>30.22847137529751</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>27.52543751161737</v>
+        <v>28.14662979766591</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>26.5929173334215</v>
+        <v>27.33665621118979</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>25.42434296915465</v>
+        <v>26.32454073218814</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>25.84204774031008</v>
+        <v>26.68631956070496</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>26.42254706652173</v>
+        <v>27.18909659533335</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>21.64810036387383</v>
+        <v>23.05389428456723</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>20.87429551127993</v>
+        <v>22.38369314633822</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>19.75196628909117</v>
+        <v>21.41163110814197</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5766,7 +5766,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>20.14823429321672</v>
+        <v>21.75484331018286</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5774,7 +5774,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>22.69084298691468</v>
+        <v>23.95010354197629</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>21.03159559401001</v>
+        <v>22.51993252779962</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>22.42927280435955</v>
+        <v>23.68779135898791</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>23.14875730554758</v>
+        <v>24.3536302412876</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>28.51818876144868</v>
+        <v>29.96998067270999</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>23.2211011911747</v>
+        <v>24.4257336450777</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>22.34868721024327</v>
+        <v>23.66068047916283</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>24.16198795223076</v>
+        <v>25.23120076881693</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>25.38937814526122</v>
+        <v>26.29425730259629</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>25.69881683671808</v>
+        <v>26.5622656544841</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>27.73676657222085</v>
+        <v>28.32735697926578</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>28.05744395707204</v>
+        <v>28.60509929066526</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>29.64626220470566</v>
+        <v>29.98119275199936</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>31.25098112225272</v>
+        <v>31.37105796345737</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>31.90794518833605</v>
+        <v>31.80652647064769</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>35.92461258267457</v>
+        <v>35.60331145572496</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>33.39823755721281</v>
+        <v>33.23082105741545</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>32.86419149703102</v>
+        <v>32.91234032287458</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>32.40823354354455</v>
+        <v>32.37336737954357</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>32.27137123287598</v>
+        <v>32.25482938371263</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>29.7479099427387</v>
+        <v>30.06923100802707</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>30.285827108423</v>
+        <v>30.53512715161683</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>29.0819549219399</v>
+        <v>29.49243982940816</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>27.96308055735014</v>
+        <v>28.35983956267324</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>25.8838390298208</v>
+        <v>26.65657690664157</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>28.70296120580933</v>
+        <v>29.16418908365372</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>31.58193983032017</v>
+        <v>31.58433983186849</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5990,7 +5990,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>34.85735295811794</v>
+        <v>34.49457741564456</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5998,7 +5998,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>39.55200493766621</v>
+        <v>38.56066861387788</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6006,7 +6006,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>42.08628867329432</v>
+        <v>40.75564043205615</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6014,7 +6014,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>45.05259610795802</v>
+        <v>43.32479286420316</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6022,7 +6022,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>54.06939981821849</v>
+        <v>51.14732719309322</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6030,7 +6030,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>61.42470839689538</v>
+        <v>57.50486456377595</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6038,7 +6038,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>74.73444323504275</v>
+        <v>69.87405927716031</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6046,7 +6046,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>70.91399510241099</v>
+        <v>65.7676262245065</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6054,7 +6054,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>65.88151632438763</v>
+        <v>60.43125331000103</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6062,7 +6062,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>53.47920191585543</v>
+        <v>50.64065657466016</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6070,7 +6070,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>40.8580243596665</v>
+        <v>39.6924396914692</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6078,7 +6078,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>65.99344538563697</v>
+        <v>61.46189936377677</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6086,7 +6086,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>81.48814871880093</v>
+        <v>75.8209317115566</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6094,7 +6094,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>73.24847984436232</v>
+        <v>66.97849473605551</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6102,7 +6102,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>67.79196932705044</v>
+        <v>62.20979191958955</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6110,7 +6110,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>68.28880282465992</v>
+        <v>62.54027787086152</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6118,7 +6118,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>64.62215829236887</v>
+        <v>59.33885069087908</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6126,7 +6126,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>63.39618334221031</v>
+        <v>58.4122137970706</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6134,7 +6134,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>61.41938042373066</v>
+        <v>56.54585324166571</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6142,7 +6142,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>49.48667689991953</v>
+        <v>46.858256218639</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6150,7 +6150,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>59.02233362188426</v>
+        <v>55.42414058890308</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6158,7 +6158,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>38.32956809468733</v>
+        <v>37.5028395768733</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6166,7 +6166,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>45.70460682398979</v>
+        <v>41.58677636754466</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6174,7 +6174,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>44.3895131976933</v>
+        <v>42.59283516062796</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6182,7 +6182,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>44.33390247778667</v>
+        <v>42.69731299271983</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6190,7 +6190,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>44.94199903999989</v>
+        <v>43.1912934120858</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6198,7 +6198,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>42.08258406695322</v>
+        <v>40.66720560730759</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6206,7 +6206,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>44.88068572381536</v>
+        <v>43.08490483979351</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6214,7 +6214,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>40.82135291936879</v>
+        <v>39.5374894767243</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6222,7 +6222,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>42.23093481975822</v>
+        <v>40.69514567627625</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6230,7 +6230,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>45.89891134534047</v>
+        <v>44.05541665480829</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6238,7 +6238,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>45.68612541707471</v>
+        <v>43.87760966106188</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6246,7 +6246,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>45.15266210395782</v>
+        <v>43.51182909363472</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6254,7 +6254,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>79.01934077839232</v>
+        <v>74.27092484028073</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6262,7 +6262,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>78.88647444759731</v>
+        <v>74.2501590599892</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6270,7 +6270,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>79.66702251622776</v>
+        <v>74.26843727285002</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6278,7 +6278,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>74.99926015124514</v>
+        <v>70.00005997528356</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6286,7 +6286,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>74.84237631641852</v>
+        <v>69.49558851066612</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6294,7 +6294,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>69.49225876323955</v>
+        <v>64.17767406753093</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6302,7 +6302,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>63.35626516826531</v>
+        <v>59.17780773851391</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6310,7 +6310,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>57.53075088450669</v>
+        <v>54.14881163436567</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6318,7 +6318,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>55.43943816777607</v>
+        <v>52.35498710317364</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6326,7 +6326,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>51.65545335149024</v>
+        <v>49.14988264959793</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6334,7 +6334,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>47.10632163900323</v>
+        <v>45.19425386597104</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6342,7 +6342,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>43.24732895050795</v>
+        <v>41.78361865989163</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6350,7 +6350,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>40.94218968575285</v>
+        <v>39.76638173205596</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6358,7 +6358,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>36.21815060421798</v>
+        <v>35.67317965399757</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6366,7 +6366,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>31.97346260834588</v>
+        <v>31.99680735324975</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6374,7 +6374,7 @@
         <v>748</v>
       </c>
       <c r="B750">
-        <v>34.1608037164124</v>
+        <v>33.89128823613278</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6382,7 +6382,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>32.37576620707208</v>
+        <v>32.34524705206542</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6390,7 +6390,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>31.93645816972534</v>
+        <v>31.96475739026506</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6398,7 +6398,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>35.4216602408837</v>
+        <v>34.98333033823577</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6406,7 +6406,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>32.11207316020914</v>
+        <v>32.11685952056028</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6414,7 +6414,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>32.32710682715373</v>
+        <v>32.30310261255011</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6422,7 +6422,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>33.92050380172577</v>
+        <v>33.68316176109266</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6430,7 +6430,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>34.88902942357377</v>
+        <v>34.53596476942008</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6438,7 +6438,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>35.33928478078241</v>
+        <v>34.91198402018547</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6446,7 +6446,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>36.77051157215347</v>
+        <v>36.15158573814489</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6454,7 +6454,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>39.62047771779085</v>
+        <v>38.61997366349524</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6462,7 +6462,7 @@
         <v>759</v>
       </c>
       <c r="B761">
-        <v>37.98903568483952</v>
+        <v>37.20696325942061</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6470,7 +6470,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>37.80214037617107</v>
+        <v>37.04509111791184</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6478,7 +6478,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>40.87296765940195</v>
+        <v>39.70476937351733</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6486,7 +6486,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>40.28468449739496</v>
+        <v>39.19525067063456</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6494,7 +6494,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>38.57602847834566</v>
+        <v>37.71536435954462</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6502,7 +6502,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>36.32067246284836</v>
+        <v>35.76197499576509</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6510,7 +6510,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>31.12435851001008</v>
+        <v>31.26138868629262</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6518,7 +6518,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>28.12167100858106</v>
+        <v>28.66072706668934</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6526,7 +6526,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>31.48054184102921</v>
+        <v>31.56988309940856</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6534,7 +6534,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>46.58671938107267</v>
+        <v>44.65398306137182</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6542,7 +6542,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>47.60869123372917</v>
+        <v>45.62319701511835</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6550,7 +6550,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>44.67714049900715</v>
+        <v>43.01301774621477</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6558,7 +6558,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>42.5345044157758</v>
+        <v>41.15116365354676</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6566,7 +6566,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>39.57531482026184</v>
+        <v>38.58803185561624</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6574,7 +6574,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>37.51214046180736</v>
+        <v>36.79391891080903</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6582,7 +6582,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>35.2533712135014</v>
+        <v>34.83757330747408</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6590,7 +6590,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>34.57771761655119</v>
+        <v>34.2523820823136</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6598,7 +6598,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>30.76351320247181</v>
+        <v>30.95974409653673</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6606,7 +6606,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>30.58977132755373</v>
+        <v>30.7530596895724</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6614,7 +6614,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>29.96569084584636</v>
+        <v>30.25785351234199</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6622,7 +6622,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>28.56826338423892</v>
+        <v>29.04752577632133</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6630,7 +6630,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>29.21182426782979</v>
+        <v>29.60492113932071</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6638,7 +6638,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>26.22025058542402</v>
+        <v>27.0138853241234</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6646,7 +6646,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>23.79960252744957</v>
+        <v>24.91733465211861</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6654,7 +6654,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>23.11458335267078</v>
+        <v>24.31051240582112</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6662,7 +6662,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>23.8617483394411</v>
+        <v>25.0726093321806</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6670,7 +6670,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>23.43904859344374</v>
+        <v>24.35716330807331</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6678,7 +6678,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>23.48371199348857</v>
+        <v>24.64373828643708</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6686,7 +6686,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>23.27184181061051</v>
+        <v>24.4504651125777</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6694,7 +6694,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>26.57185518950474</v>
+        <v>27.2674369435513</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6702,7 +6702,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>31.30168011689817</v>
+        <v>31.36640729391289</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6710,7 +6710,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>35.2675652670105</v>
+        <v>34.84986693782028</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6718,7 +6718,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>34.68232071469905</v>
+        <v>34.34298000917588</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6726,7 +6726,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>37.45528099819018</v>
+        <v>36.74467228602037</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6734,7 +6734,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>38.57723559726577</v>
+        <v>37.71640985889957</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6742,7 +6742,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>40.07860016037547</v>
+        <v>39.01675869455217</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6750,7 +6750,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>42.00840869055075</v>
+        <v>40.68858426653137</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6758,7 +6758,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>45.6384234073344</v>
+        <v>43.86135034350723</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6766,7 +6766,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>47.18753160497474</v>
+        <v>45.19108131620425</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6774,7 +6774,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>60.63092364493382</v>
+        <v>56.85928673794129</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6782,7 +6782,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>59.15624057243805</v>
+        <v>55.54631980662543</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6790,7 +6790,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>58.71784828047898</v>
+        <v>55.1604223895408</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6798,7 +6798,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>57.93213873784521</v>
+        <v>54.47991046456983</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6806,7 +6806,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>59.5334444225836</v>
+        <v>55.86681943647243</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6814,7 +6814,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>55.0584464617087</v>
+        <v>51.99097306913929</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6822,7 +6822,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>48.78076208038537</v>
+        <v>46.58148730319071</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6830,7 +6830,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>37.51018409666092</v>
+        <v>36.79222448081995</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6838,7 +6838,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>40.15843650826548</v>
+        <v>39.08590585878687</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6846,7 +6846,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>44.21622919546913</v>
+        <v>42.6740235932956</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6854,7 +6854,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>47.01915932801174</v>
+        <v>45.02805552023485</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6862,7 +6862,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>50.24828568894108</v>
+        <v>47.7834870960736</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6870,7 +6870,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>37.09693317807286</v>
+        <v>36.43430318440589</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6878,7 +6878,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>29.32999704763152</v>
+        <v>27.90973406451352</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6886,7 +6886,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>25.80196306720368</v>
+        <v>26.65160177178003</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6894,7 +6894,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>26.07156683429625</v>
+        <v>26.88510864495428</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6902,7 +6902,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>26.81910644417973</v>
+        <v>27.53256115928751</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6910,7 +6910,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>27.15610074684783</v>
+        <v>27.82443573782983</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6918,7 +6918,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>26.98023600762195</v>
+        <v>27.67211729732325</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6926,7 +6926,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>29.78491438135925</v>
+        <v>30.10128097101178</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6934,7 +6934,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>33.17999878141134</v>
+        <v>33.04180198437972</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6942,7 +6942,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>35.69334524749374</v>
+        <v>35.21863979650477</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6950,7 +6950,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>33.10736352225177</v>
+        <v>32.97889176457284</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6958,7 +6958,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>33.25671327002513</v>
+        <v>33.10420748036004</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6966,7 +6966,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>32.51212902025647</v>
+        <v>32.60438668528706</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6974,7 +6974,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>33.85769199308863</v>
+        <v>40.01149725324042</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6982,7 +6982,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>30.3315727530169</v>
+        <v>30.58736606766275</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6990,7 +6990,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>33.44698018671188</v>
+        <v>33.67238230222603</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -6998,7 +6998,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>29.33524177121551</v>
+        <v>29.97643392734921</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7006,7 +7006,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>28.91574713407505</v>
+        <v>29.34848538374121</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7014,7 +7014,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>29.39026974405733</v>
+        <v>29.7594747853448</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7022,7 +7022,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>27.70771246855703</v>
+        <v>28.30219289134304</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7030,7 +7030,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>28.4741497332591</v>
+        <v>28.96601287833661</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7038,7 +7038,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>28.49475400448202</v>
+        <v>28.98385847077467</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7046,7 +7046,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>25.52649020467187</v>
+        <v>26.41301160863858</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7054,7 +7054,7 @@
         <v>833</v>
       </c>
       <c r="B835">
-        <v>26.83991883935438</v>
+        <v>27.55058701023502</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7062,7 +7062,7 @@
         <v>834</v>
       </c>
       <c r="B836">
-        <v>27.07551515273155</v>
+        <v>27.75463964296102</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7070,7 +7070,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>29.15026120290315</v>
+        <v>29.55160067221794</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7078,7 +7078,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>29.97272543541537</v>
+        <v>30.28053003283395</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7086,7 +7086,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>29.88235801556702</v>
+        <v>30.24869638006064</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7094,7 +7094,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>29.49204235646142</v>
+        <v>29.86838697676975</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7102,7 +7102,7 @@
         <v>839</v>
       </c>
       <c r="B841">
-        <v>26.76191398223974</v>
+        <v>27.48302612088369</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7110,7 +7110,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>26.79754480277877</v>
+        <v>27.51388637770586</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7118,7 +7118,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>28.43922653415603</v>
+        <v>28.93576550044668</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7126,7 +7126,7 @@
         <v>842</v>
       </c>
       <c r="B844">
-        <v>29.84506220341402</v>
+        <v>30.13682794908028</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7134,7 +7134,7 @@
         <v>843</v>
       </c>
       <c r="B845">
-        <v>31.01459393785892</v>
+        <v>31.16632034839537</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7142,7 +7142,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>25.69465435768314</v>
+        <v>26.55866048429459</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7150,7 +7150,7 @@
         <v>845</v>
       </c>
       <c r="B847">
-        <v>26.96246222214277</v>
+        <v>27.65672322061405</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7158,7 +7158,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>27.35885510063939</v>
+        <v>27.99928649202084</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7166,7 +7166,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>27.34682553622841</v>
+        <v>28.02210721932038</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7174,7 +7174,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>28.30715107437763</v>
+        <v>28.82137345033368</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7182,7 +7182,7 @@
         <v>849</v>
       </c>
       <c r="B851">
-        <v>27.69751439492146</v>
+        <v>28.29336022437876</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7190,7 +7190,7 @@
         <v>850</v>
       </c>
       <c r="B852">
-        <v>27.68019848213614</v>
+        <v>28.27836271639042</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7198,7 +7198,7 @@
         <v>851</v>
       </c>
       <c r="B853">
-        <v>26.02552981616991</v>
+        <v>26.84523546265837</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7206,7 +7206,7 @@
         <v>852</v>
       </c>
       <c r="B854">
-        <v>28.40526070523097</v>
+        <v>28.9063473117003</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7214,7 +7214,7 @@
         <v>853</v>
       </c>
       <c r="B855">
-        <v>34.78242833548917</v>
+        <v>33.96303112290393</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7222,7 +7222,7 @@
         <v>854</v>
       </c>
       <c r="B856">
-        <v>29.75948163445581</v>
+        <v>30.0872929106765</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7230,7 +7230,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>29.7234345660133</v>
+        <v>30.04803260731278</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7238,7 +7238,7 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>29.55959939119837</v>
+        <v>30.13170860741118</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7246,7 +7246,7 @@
         <v>857</v>
       </c>
       <c r="B859">
-        <v>29.11121714955547</v>
+        <v>29.51778417584037</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7254,7 +7254,7 @@
         <v>858</v>
       </c>
       <c r="B860">
-        <v>29.58457426540797</v>
+        <v>29.9277641297909</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7262,7 +7262,7 @@
         <v>859</v>
       </c>
       <c r="B861">
-        <v>31.47329912750844</v>
+        <v>31.7830207610121</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7270,7 +7270,7 @@
         <v>860</v>
       </c>
       <c r="B862">
-        <v>29.55697702940637</v>
+        <v>29.90753912502777</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7278,7 +7278,7 @@
         <v>861</v>
       </c>
       <c r="B863">
-        <v>31.32719611338233</v>
+        <v>31.43706862962721</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7286,7 +7286,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>32.23528253964312</v>
+        <v>32.22357255816963</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7294,7 +7294,7 @@
         <v>863</v>
       </c>
       <c r="B865">
-        <v>35.39689349062584</v>
+        <v>34.9618795756082</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7302,7 +7302,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>34.54579140235329</v>
+        <v>34.22473042696012</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7310,7 +7310,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>37.43621684421018</v>
+        <v>36.72816060655244</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7318,7 +7318,7 @@
         <v>866</v>
       </c>
       <c r="B868">
-        <v>40.9334484797795</v>
+        <v>39.76472335376878</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7326,7 +7326,7 @@
         <v>867</v>
       </c>
       <c r="B869">
-        <v>44.04319494198698</v>
+        <v>42.46099408679775</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7334,7 +7334,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>36.66923845723358</v>
+        <v>36.06866682378629</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7342,7 +7342,7 @@
         <v>869</v>
       </c>
       <c r="B871">
-        <v>34.3511955074702</v>
+        <v>34.05618872060075</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7350,7 +7350,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>32.11448739804939</v>
+        <v>32.11895051927019</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7358,7 +7358,7 @@
         <v>871</v>
       </c>
       <c r="B873">
-        <v>29.93226613919585</v>
+        <v>30.22890399572026</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7366,7 +7366,7 @@
         <v>872</v>
       </c>
       <c r="B874">
-        <v>26.98277511983324</v>
+        <v>27.67431645113883</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7374,7 +7374,7 @@
         <v>873</v>
       </c>
       <c r="B875">
-        <v>30.12178380965631</v>
+        <v>28.41932487080007</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7382,7 +7382,7 @@
         <v>874</v>
       </c>
       <c r="B876">
-        <v>24.89104615519915</v>
+        <v>25.86264632750875</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7390,7 +7390,7 @@
         <v>875</v>
       </c>
       <c r="B877">
-        <v>26.10536616405991</v>
+        <v>26.91438262689307</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7398,7 +7398,7 @@
         <v>876</v>
       </c>
       <c r="B878">
-        <v>28.22739797606834</v>
+        <v>28.75229838950277</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7406,7 +7406,7 @@
         <v>877</v>
       </c>
       <c r="B879">
-        <v>25.24373300382894</v>
+        <v>26.10386826488853</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7414,7 +7414,7 @@
         <v>878</v>
       </c>
       <c r="B880">
-        <v>23.82066467136632</v>
+        <v>24.9254823367469</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7422,7 +7422,7 @@
         <v>879</v>
       </c>
       <c r="B881">
-        <v>24.01118133679517</v>
+        <v>25.10058545285116</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7430,7 +7430,7 @@
         <v>880</v>
       </c>
       <c r="B882">
-        <v>24.01118133679517</v>
+        <v>25.51294481912675</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7438,7 +7438,7 @@
         <v>881</v>
       </c>
       <c r="B883">
-        <v>29.70104042880537</v>
+        <v>30.25305863598994</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7446,7 +7446,7 @@
         <v>882</v>
       </c>
       <c r="B884">
-        <v>24.94674012468654</v>
+        <v>25.91088350464433</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7454,7 +7454,7 @@
         <v>883</v>
       </c>
       <c r="B885">
-        <v>25.15344883356126</v>
+        <v>26.08991625625515</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7462,7 +7462,7 @@
         <v>884</v>
       </c>
       <c r="B886">
-        <v>26.39353458764825</v>
+        <v>27.1639685591125</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7470,7 +7470,7 @@
         <v>885</v>
       </c>
       <c r="B887">
-        <v>25.17734146322175</v>
+        <v>26.11060993314289</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7478,7 +7478,7 @@
         <v>886</v>
       </c>
       <c r="B888">
-        <v>26.0872177554676</v>
+        <v>26.89866408486682</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7486,7 +7486,7 @@
         <v>887</v>
       </c>
       <c r="B889">
-        <v>26.36110887596613</v>
+        <v>27.13588428333626</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7494,7 +7494,7 @@
         <v>888</v>
       </c>
       <c r="B890">
-        <v>26.3937427116</v>
+        <v>27.16414881762197</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7502,7 +7502,7 @@
         <v>889</v>
       </c>
       <c r="B891">
-        <v>27.19360468295257</v>
+        <v>27.85691832123727</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7510,7 +7510,7 @@
         <v>890</v>
       </c>
       <c r="B892">
-        <v>28.39789311733913</v>
+        <v>28.80067977344592</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7518,7 +7518,7 @@
         <v>891</v>
       </c>
       <c r="B893">
-        <v>32.99202122819381</v>
+        <v>32.87899249862166</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7526,7 +7526,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>32.97349819648834</v>
+        <v>32.86294949127836</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7534,7 +7534,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>29.43389252434342</v>
+        <v>29.78809983664947</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7542,7 +7542,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>23.43650948123245</v>
+        <v>24.6028556564881</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7550,7 +7550,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>24.07549163788487</v>
+        <v>25.15628533227901</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7558,7 +7558,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>24.89246139807102</v>
+        <v>25.86387208537318</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7566,7 +7566,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>25.55346306881825</v>
+        <v>26.43637311146659</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7574,7 +7574,7 @@
         <v>898</v>
       </c>
       <c r="B900">
-        <v>26.68399237470582</v>
+        <v>27.40482997947333</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7582,7 +7582,7 @@
         <v>899</v>
       </c>
       <c r="B901">
-        <v>25.91722211168097</v>
+        <v>26.75142893432744</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7590,7 +7590,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>25.83647001840328</v>
+        <v>26.68148863265104</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7598,7 +7598,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>27.73335333941223</v>
+        <v>28.32440073971041</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7606,7 +7606,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>26.53310250968953</v>
+        <v>27.2848499155666</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7614,7 +7614,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>25.7952198511671</v>
+        <v>26.63790212505991</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7622,7 +7622,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>26.33700812235388</v>
+        <v>27.11501034793903</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7630,7 +7630,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>25.4123134047437</v>
+        <v>26.31412179034048</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7638,7 +7638,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>24.66373317510148</v>
+        <v>25.57174514491757</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7646,7 +7646,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>24.0498507670297</v>
+        <v>25.32089740313182</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7654,7 +7654,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>31.91069242449911</v>
+        <v>29.80151106975441</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7662,7 +7662,7 @@
         <v>909</v>
       </c>
       <c r="B911">
-        <v>29.86250299057039</v>
+        <v>30.16848134334415</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7670,7 +7670,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>30.01226898624723</v>
+        <v>30.29588805784125</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7678,7 +7678,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>28.80548306443972</v>
+        <v>28.9209843026697</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7686,7 +7686,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>29.48171940845478</v>
+        <v>29.68149495414581</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7694,7 +7694,7 @@
         <v>913</v>
       </c>
       <c r="B915">
-        <v>25.69498735600593</v>
+        <v>26.55894889790975</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7702,7 +7702,7 @@
         <v>914</v>
       </c>
       <c r="B916">
-        <v>24.97512823170476</v>
+        <v>25.93547076533675</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7710,7 +7710,7 @@
         <v>915</v>
       </c>
       <c r="B917">
-        <v>24.2859882026814</v>
+        <v>25.33859878876229</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7718,7 +7718,7 @@
         <v>916</v>
       </c>
       <c r="B918">
-        <v>23.56908443849504</v>
+        <v>24.70668455794583</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7726,7 +7726,7 @@
         <v>917</v>
       </c>
       <c r="B919">
-        <v>23.10088879664586</v>
+        <v>24.45724283253398</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7734,7 +7734,7 @@
         <v>918</v>
       </c>
       <c r="B920">
-        <v>23.10088879664586</v>
+        <v>26.11392668971725</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7742,7 +7742,7 @@
         <v>919</v>
       </c>
       <c r="B921">
-        <v>24.24690252454338</v>
+        <v>25.30474624068283</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7750,7 +7750,7 @@
         <v>920</v>
       </c>
       <c r="B922">
-        <v>24.46776366213689</v>
+        <v>25.49603657093797</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7758,7 +7758,7 @@
         <v>921</v>
       </c>
       <c r="B923">
-        <v>26.97832126726588</v>
+        <v>27.43785333840921</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7766,7 +7766,7 @@
         <v>922</v>
       </c>
       <c r="B924">
-        <v>27.68381983889654</v>
+        <v>28.26960215282993</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7774,7 +7774,7 @@
         <v>923</v>
       </c>
       <c r="B925">
-        <v>25.69611122534537</v>
+        <v>26.55992229386092</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7782,7 +7782,7 @@
         <v>924</v>
       </c>
       <c r="B926">
-        <v>25.280321194546</v>
+        <v>26.19980184363126</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7790,7 +7790,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>28.10447997016678</v>
+        <v>28.64086257894516</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7798,7 +7798,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>29.77425843502983</v>
+        <v>30.09205173532665</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7806,7 +7806,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>28.41595827635075</v>
+        <v>28.91561259908734</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7814,7 +7814,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>28.41595827635075</v>
+        <v>32.29426994558582</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7822,7 +7822,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>38.02857923567139</v>
+        <v>40.07487614517191</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7830,7 +7830,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>33.41330573131927</v>
+        <v>33.94846623533833</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7838,7 +7838,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>32.80529241868675</v>
+        <v>32.71726456392047</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7846,7 +7846,7 @@
         <v>932</v>
       </c>
       <c r="B934">
-        <v>32.19049426522727</v>
+        <v>32.16257307856321</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7854,7 +7854,7 @@
         <v>933</v>
       </c>
       <c r="B935">
-        <v>29.8303686524207</v>
+        <v>30.14064942948117</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7862,7 +7862,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>28.61105366871802</v>
+        <v>29.08458692586944</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7870,7 +7870,7 @@
         <v>935</v>
       </c>
       <c r="B937">
-        <v>28.44351388756201</v>
+        <v>28.93947882574187</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7878,7 +7878,7 @@
         <v>936</v>
       </c>
       <c r="B938">
-        <v>29.31105776802257</v>
+        <v>29.69086839663851</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7886,7 +7886,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>28.37425023642074</v>
+        <v>28.78679986821632</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7894,7 +7894,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>30.690253571457</v>
+        <v>30.88572995254619</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7902,7 +7902,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>27.42191665801859</v>
+        <v>28.05466190613162</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7910,7 +7910,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>27.15302051236198</v>
+        <v>27.8217679118896</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7918,7 +7918,7 @@
         <v>941</v>
       </c>
       <c r="B943">
-        <v>26.75462964392863</v>
+        <v>27.47671707305207</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7926,7 +7926,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>28.83270567732817</v>
+        <v>29.31596674863187</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7934,7 +7934,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>31.03827844356767</v>
+        <v>31.33096847095005</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7942,7 +7942,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>29.49782820231997</v>
+        <v>29.8526323830416</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7950,7 +7950,7 @@
         <v>945</v>
       </c>
       <c r="B947">
-        <v>28.67648783914715</v>
+        <v>29.14126020124845</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7958,7 +7958,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>27.32738675913529</v>
+        <v>27.97278849112797</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7966,7 +7966,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>26.38937210861333</v>
+        <v>27.160363388923</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7974,7 +7974,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>24.03482421771359</v>
+        <v>25.12106281952755</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7982,7 +7982,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>24.54039892129645</v>
+        <v>25.55894679074483</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7990,7 +7990,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>24.06346207347392</v>
+        <v>25.24248495151008</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -7998,7 +7998,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>24.31283619245671</v>
+        <v>25.45331530419234</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8006,7 +8006,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>24.09189180528251</v>
+        <v>25.19871818540949</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8014,7 +8014,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>22.96252799352471</v>
+        <v>24.19233492700915</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8022,7 +8022,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>81.89236705788319</v>
+        <v>25.46946646664131</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8030,7 +8030,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>81.89236705788319</v>
+        <v>24.19676928634222</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8038,7 +8038,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>22.83299164595762</v>
+        <v>24.03554607546757</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8046,7 +8046,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>24.59463602312162</v>
+        <v>25.05317746485916</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8054,7 +8054,7 @@
         <v>958</v>
       </c>
       <c r="B960">
-        <v>23.53220487424552</v>
+        <v>24.59733974609814</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8062,7 +8062,7 @@
         <v>959</v>
       </c>
       <c r="B961">
-        <v>52.61590376401051</v>
+        <v>25.13800711941822</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8070,7 +8070,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>24.90777932091957</v>
+        <v>25.61201489593435</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8078,7 +8078,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>23.87140529080216</v>
+        <v>24.97952383788758</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8086,7 +8086,7 @@
         <v>962</v>
       </c>
       <c r="B964">
-        <v>23.7027416403067</v>
+        <v>24.83344234180883</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8094,7 +8094,7 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>23.75423150596881</v>
+        <v>25.136024275814</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8102,7 +8102,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>23.80663711701861</v>
+        <v>24.92342738973889</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8110,7 +8110,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>23.00585940027835</v>
+        <v>24.22986474868188</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8118,7 +8118,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>24.22313476925391</v>
+        <v>25.30882008299697</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8126,7 +8126,7 @@
         <v>967</v>
       </c>
       <c r="B969">
-        <v>24.55030562139959</v>
+        <v>25.63227595239937</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8134,7 +8134,7 @@
         <v>968</v>
       </c>
       <c r="B970">
-        <v>23.86158184027972</v>
+        <v>24.95435974996483</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8142,7 +8142,7 @@
         <v>969</v>
       </c>
       <c r="B971">
-        <v>22.92718854651814</v>
+        <v>24.16172703210025</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8150,7 +8150,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>24.45864783305038</v>
+        <v>25.48814124822296</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8158,7 +8158,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>26.22328919511953</v>
+        <v>28.3717366242986</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8166,7 +8166,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>25.05150972199578</v>
+        <v>25.99737153749055</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8174,7 +8174,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>24.74744062849397</v>
+        <v>25.73826795597082</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8182,7 +8182,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>26.28472738567513</v>
+        <v>27.06972941035885</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8190,7 +8190,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>25.46363677124441</v>
+        <v>26.35857353877707</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8198,7 +8198,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>25.70864028724051</v>
+        <v>26.63826264207886</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8206,7 +8206,7 @@
         <v>977</v>
       </c>
       <c r="B979">
-        <v>27.41679680880562</v>
+        <v>28.05022754679853</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8214,7 +8214,7 @@
         <v>978</v>
       </c>
       <c r="B980">
-        <v>25.77057797528032</v>
+        <v>26.59420746236312</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8222,7 +8222,7 @@
         <v>979</v>
       </c>
       <c r="B981">
-        <v>27.40093776368255</v>
+        <v>28.03649184837653</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8230,7 +8230,7 @@
         <v>980</v>
       </c>
       <c r="B982">
-        <v>26.98381573959199</v>
+        <v>27.67521774368621</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8238,7 +8238,7 @@
         <v>981</v>
       </c>
       <c r="B983">
-        <v>26.69339957732477</v>
+        <v>27.42368501956445</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8246,7 +8246,7 @@
         <v>982</v>
       </c>
       <c r="B984">
-        <v>27.15655861954167</v>
+        <v>27.82483230655068</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8254,7 +8254,7 @@
         <v>983</v>
       </c>
       <c r="B985">
-        <v>26.84416456797</v>
+        <v>27.55426428382831</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8262,7 +8262,7 @@
         <v>984</v>
       </c>
       <c r="B986">
-        <v>27.50237737776383</v>
+        <v>28.12434984589476</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8270,7 +8270,7 @@
         <v>985</v>
       </c>
       <c r="B987">
-        <v>28.66999437185266</v>
+        <v>29.15240017713403</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8278,7 +8278,7 @@
         <v>986</v>
       </c>
       <c r="B988">
-        <v>63.96219724138038</v>
+        <v>89.49339544844702</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8286,7 +8286,7 @@
         <v>987</v>
       </c>
       <c r="B989">
-        <v>29.97330818248028</v>
+        <v>30.2802055675169</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8294,7 +8294,7 @@
         <v>988</v>
       </c>
       <c r="B990">
-        <v>34.09407917748244</v>
+        <v>30.59846999184642</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8302,7 +8302,7 @@
         <v>989</v>
       </c>
       <c r="B991">
-        <v>43.37241144550765</v>
+        <v>30.88086297279036</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8310,7 +8310,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>28.04241740775593</v>
+        <v>28.81697514270247</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8318,7 +8318,7 @@
         <v>991</v>
       </c>
       <c r="B993">
-        <v>29.60884151818161</v>
+        <v>29.99287350341335</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8326,7 +8326,7 @@
         <v>992</v>
       </c>
       <c r="B994">
-        <v>34.36330832146184</v>
+        <v>30.8200076999915</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8334,7 +8334,7 @@
         <v>993</v>
       </c>
       <c r="B995">
-        <v>29.76056387900489</v>
+        <v>30.08019072540316</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8342,7 +8342,7 @@
         <v>994</v>
       </c>
       <c r="B996">
-        <v>29.21939997967337</v>
+        <v>29.61148254906562</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8350,7 +8350,7 @@
         <v>995</v>
       </c>
       <c r="B997">
-        <v>32.97603730869966</v>
+        <v>34.76929138408487</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8358,7 +8358,7 @@
         <v>996</v>
       </c>
       <c r="B998">
-        <v>31.67513773591229</v>
+        <v>31.79776590708719</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8366,7 +8366,7 @@
         <v>997</v>
       </c>
       <c r="B999">
-        <v>30.65391512948204</v>
+        <v>30.85393235147475</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8374,7 +8374,7 @@
         <v>998</v>
       </c>
       <c r="B1000">
-        <v>29.64572108243111</v>
+        <v>29.98072407987472</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8382,7 +8382,7 @@
         <v>999</v>
       </c>
       <c r="B1001">
-        <v>33.26791033862911</v>
+        <v>31.49514792138013</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8390,7 +8390,7 @@
         <v>1000</v>
       </c>
       <c r="B1002">
-        <v>29.56384511981399</v>
+        <v>29.90981038224715</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8398,7 +8398,7 @@
         <v>1001</v>
       </c>
       <c r="B1003">
-        <v>28.58353968229712</v>
+        <v>29.06075675091681</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8406,7 +8406,7 @@
         <v>1002</v>
       </c>
       <c r="B1004">
-        <v>30.74411605016902</v>
+        <v>29.24245732846786</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8414,7 +8414,7 @@
         <v>1003</v>
       </c>
       <c r="B1005">
-        <v>28.47897820893963</v>
+        <v>28.96572446472147</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8422,7 +8422,7 @@
         <v>1004</v>
       </c>
       <c r="B1006">
-        <v>27.69006355744894</v>
+        <v>28.28690696973955</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8430,7 +8430,7 @@
         <v>1005</v>
       </c>
       <c r="B1007">
-        <v>27.04554530368003</v>
+        <v>27.72868241759657</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8438,7 +8438,7 @@
         <v>1006</v>
       </c>
       <c r="B1008">
-        <v>27.10049002694114</v>
+        <v>27.77627066409805</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8446,7 +8446,7 @@
         <v>1007</v>
       </c>
       <c r="B1009">
-        <v>26.38645837328889</v>
+        <v>27.15290068663073</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8454,7 +8454,7 @@
         <v>1008</v>
       </c>
       <c r="B1010">
-        <v>28.90983641384544</v>
+        <v>29.34336604207211</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8462,7 +8462,7 @@
         <v>1009</v>
       </c>
       <c r="B1011">
-        <v>26.44415033271305</v>
+        <v>27.20780742861689</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8470,7 +8470,7 @@
         <v>1010</v>
       </c>
       <c r="B1012">
-        <v>27.87229688959826</v>
+        <v>28.52910230307049</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8478,7 +8478,7 @@
         <v>1011</v>
       </c>
       <c r="B1013">
-        <v>25.47549983649397</v>
+        <v>26.36884827381716</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8486,7 +8486,7 @@
         <v>1012</v>
       </c>
       <c r="B1014">
-        <v>26.71700083345285</v>
+        <v>26.36884827381716</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8494,7 +8494,7 @@
         <v>1013</v>
       </c>
       <c r="B1015">
-        <v>26.86705820266215</v>
+        <v>27.607620802633</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8502,7 +8502,7 @@
         <v>1014</v>
       </c>
       <c r="B1016">
-        <v>27.47299027577722</v>
+        <v>29.28582752584761</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8510,7 +8510,7 @@
         <v>1015</v>
       </c>
       <c r="B1017">
-        <v>27.47299027577722</v>
+        <v>27.41341028452436</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8518,7 +8518,7 @@
         <v>1016</v>
       </c>
       <c r="B1018">
-        <v>27.28284823346152</v>
+        <v>27.94178402749823</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8526,7 +8526,7 @@
         <v>1017</v>
       </c>
       <c r="B1019">
-        <v>29.95445215245202</v>
+        <v>29.2801313569482</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8534,7 +8534,7 @@
         <v>1018</v>
       </c>
       <c r="B1020">
-        <v>26.21342411980675</v>
+        <v>27.00797284501262</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8542,7 +8542,7 @@
         <v>1019</v>
       </c>
       <c r="B1021">
-        <v>27.5037926206357</v>
+        <v>28.12557560375918</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8550,7 +8550,7 @@
         <v>1020</v>
       </c>
       <c r="B1022">
-        <v>28.46132929783153</v>
+        <v>28.95490895415296</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8558,7 +8558,7 @@
         <v>1021</v>
       </c>
       <c r="B1023">
-        <v>27.81235719149525</v>
+        <v>28.39282686990722</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8566,7 +8566,7 @@
         <v>1022</v>
       </c>
       <c r="B1024">
-        <v>27.97332025577608</v>
+        <v>28.53223880113538</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8574,7 +8574,7 @@
         <v>1023</v>
       </c>
       <c r="B1025">
-        <v>28.12379387288886</v>
+        <v>28.66256570348598</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8582,7 +8582,7 @@
         <v>1024</v>
       </c>
       <c r="B1026">
-        <v>29.25802778511753</v>
+        <v>29.64493852842422</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8590,7 +8590,7 @@
         <v>1025</v>
       </c>
       <c r="B1027">
-        <v>28.15921656947614</v>
+        <v>28.65084890037009</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8598,7 +8598,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>28.36979638385336</v>
+        <v>29.02073936181331</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8606,7 +8606,7 @@
         <v>1027</v>
       </c>
       <c r="B1029">
-        <v>28.59065752144686</v>
+        <v>29.06692159194088</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8614,7 +8614,7 @@
         <v>1028</v>
       </c>
       <c r="B1030">
-        <v>28.72922644851974</v>
+        <v>29.18693770754948</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8622,7 +8622,7 @@
         <v>1029</v>
       </c>
       <c r="B1031">
-        <v>26.34674832329563</v>
+        <v>27.12344644618247</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8630,7 +8630,7 @@
         <v>1030</v>
       </c>
       <c r="B1032">
-        <v>26.7182495771633</v>
+        <v>27.44520788559578</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8638,7 +8638,7 @@
         <v>1031</v>
       </c>
       <c r="B1033">
-        <v>27.91075819588103</v>
+        <v>28.47805309318711</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8646,7 +8646,7 @@
         <v>1032</v>
       </c>
       <c r="B1034">
-        <v>23.82803225925815</v>
+        <v>24.94195796451293</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8654,7 +8654,7 @@
         <v>1033</v>
       </c>
       <c r="B1035">
-        <v>25.12002412691076</v>
+        <v>26.06586977109115</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8662,7 +8662,7 @@
         <v>1034</v>
       </c>
       <c r="B1036">
-        <v>17.32199427807847</v>
+        <v>21.02926675784306</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8670,7 +8670,7 @@
         <v>1035</v>
       </c>
       <c r="B1037">
-        <v>20.08933521487243</v>
+        <v>21.71936843551813</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8678,7 +8678,7 @@
         <v>1036</v>
       </c>
       <c r="B1038">
-        <v>20.72353052063469</v>
+        <v>22.2521044344213</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8686,7 +8686,7 @@
         <v>1037</v>
       </c>
       <c r="B1039">
-        <v>21.43618855620543</v>
+        <v>22.87035507021952</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8694,7 +8694,7 @@
         <v>1038</v>
       </c>
       <c r="B1040">
-        <v>23.50843711895607</v>
+        <v>24.66515299736274</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8702,7 +8702,7 @@
         <v>1039</v>
       </c>
       <c r="B1041">
-        <v>23.90045939446599</v>
+        <v>25.00468792581033</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8710,7 +8710,7 @@
         <v>1040</v>
       </c>
       <c r="B1042">
-        <v>36.27542631573864</v>
+        <v>35.72278679580516</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8718,7 +8718,7 @@
         <v>1041</v>
       </c>
       <c r="B1043">
-        <v>49.26527464005149</v>
+        <v>47.00934890128116</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8726,7 +8726,7 @@
         <v>1042</v>
       </c>
       <c r="B1044">
-        <v>61.67100228139229</v>
+        <v>57.73732593759522</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8734,7 +8734,7 @@
         <v>1043</v>
       </c>
       <c r="B1045">
-        <v>49.30827304848235</v>
+        <v>47.11425935379576</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8742,7 +8742,7 @@
         <v>1044</v>
       </c>
       <c r="B1046">
-        <v>43.4830917630465</v>
+        <v>41.96542739254838</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8750,7 +8750,7 @@
         <v>1045</v>
       </c>
       <c r="B1047">
-        <v>39.20052520795653</v>
+        <v>38.25624804307606</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8758,7 +8758,7 @@
         <v>1046</v>
       </c>
       <c r="B1048">
-        <v>34.70775346160248</v>
+        <v>34.36500759903375</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8766,7 +8766,7 @@
         <v>1047</v>
       </c>
       <c r="B1049">
-        <v>31.4208518916683</v>
+        <v>31.51818495889107</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8774,7 +8774,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>34.20600823873178</v>
+        <v>33.93044038439083</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8782,7 +8782,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>34.11168646380021</v>
+        <v>33.84874722789664</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8790,7 +8790,7 @@
         <v>1050</v>
       </c>
       <c r="B1052">
-        <v>34.40584885719886</v>
+        <v>34.10352460518895</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8798,7 +8798,7 @@
         <v>1051</v>
       </c>
       <c r="B1053">
-        <v>35.74308687196117</v>
+        <v>36.33180819591826</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8806,7 +8806,7 @@
         <v>1052</v>
       </c>
       <c r="B1054">
-        <v>33.67412666764812</v>
+        <v>33.46977173757584</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8814,7 +8814,7 @@
         <v>1053</v>
       </c>
       <c r="B1055">
-        <v>32.81349250238554</v>
+        <v>32.72436674919377</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8822,7 +8822,7 @@
         <v>1054</v>
       </c>
       <c r="B1056">
-        <v>30.58107174637074</v>
+        <v>32.72436674919377</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8830,7 +8830,7 @@
         <v>1055</v>
       </c>
       <c r="B1057">
-        <v>33.83667147396223</v>
+        <v>33.61055363347602</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8838,7 +8838,7 @@
         <v>1056</v>
       </c>
       <c r="B1058">
-        <v>32.3444643647294</v>
+        <v>32.31813617224035</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8846,7 +8846,7 @@
         <v>1057</v>
       </c>
       <c r="B1059">
-        <v>37.38630872058133</v>
+        <v>34.6429662206446</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8854,7 +8854,7 @@
         <v>1058</v>
       </c>
       <c r="B1060">
-        <v>31.74789786944293</v>
+        <v>31.80144318068049</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8862,7 +8862,7 @@
         <v>1059</v>
       </c>
       <c r="B1061">
-        <v>31.2723346397019</v>
+        <v>31.37974642361408</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8870,7 +8870,7 @@
         <v>1060</v>
       </c>
       <c r="B1062">
-        <v>29.76289486726447</v>
+        <v>30.0822096207093</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8878,7 +8878,7 @@
         <v>1061</v>
       </c>
       <c r="B1063">
-        <v>31.22217676733097</v>
+        <v>31.34611018574598</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8886,7 +8886,7 @@
         <v>1062</v>
       </c>
       <c r="B1064">
-        <v>30.93159410590237</v>
+        <v>31.09443325481664</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8894,7 +8894,7 @@
         <v>1063</v>
       </c>
       <c r="B1065">
-        <v>32.40269744642809</v>
+        <v>32.36857250319152</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8902,7 +8902,7 @@
         <v>1064</v>
       </c>
       <c r="B1066">
-        <v>32.17388597387787</v>
+        <v>32.17039629787442</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8910,7 +8910,7 @@
         <v>1065</v>
       </c>
       <c r="B1067">
-        <v>34.09337155604649</v>
+        <v>33.8328844790628</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8918,7 +8918,7 @@
         <v>1066</v>
       </c>
       <c r="B1068">
-        <v>37.26680394748843</v>
+        <v>36.58143017983958</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8926,7 +8926,7 @@
         <v>1067</v>
       </c>
       <c r="B1069">
-        <v>34.71786828565737</v>
+        <v>34.37376816259425</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8934,7 +8934,7 @@
         <v>1068</v>
       </c>
       <c r="B1070">
-        <v>36.14514072194527</v>
+        <v>35.60994496887366</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8942,7 +8942,7 @@
         <v>1069</v>
       </c>
       <c r="B1071">
-        <v>36.89372095158748</v>
+        <v>36.25829877575426</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8950,7 +8950,7 @@
         <v>1070</v>
       </c>
       <c r="B1072">
-        <v>35.95166869640161</v>
+        <v>35.44237665846545</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8958,7 +8958,7 @@
         <v>1071</v>
       </c>
       <c r="B1073">
-        <v>42.02888808740262</v>
+        <v>40.7059251351429</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8966,7 +8966,7 @@
         <v>1072</v>
       </c>
       <c r="B1074">
-        <v>41.21537318481546</v>
+        <v>39.89404080846632</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8974,7 +8974,7 @@
         <v>1073</v>
       </c>
       <c r="B1075">
-        <v>44.65641135341322</v>
+        <v>42.97487504560983</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8982,7 +8982,7 @@
         <v>1074</v>
       </c>
       <c r="B1076">
-        <v>45.50106159918161</v>
+        <v>43.96153802307356</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8990,7 +8990,7 @@
         <v>1075</v>
       </c>
       <c r="B1077">
-        <v>66.15794655709746</v>
+        <v>61.56255571546772</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -8998,7 +8998,7 @@
         <v>1076</v>
       </c>
       <c r="B1078">
-        <v>62.48401768649525</v>
+        <v>58.42234432530309</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9006,7 +9006,7 @@
         <v>1077</v>
       </c>
       <c r="B1079">
-        <v>59.00239534730693</v>
+        <v>55.55115073467937</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9014,7 +9014,7 @@
         <v>1078</v>
       </c>
       <c r="B1080">
-        <v>61.24576342318362</v>
+        <v>57.34987829732912</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9022,7 +9022,7 @@
         <v>1079</v>
       </c>
       <c r="B1081">
-        <v>65.4298873490975</v>
+        <v>61.00447537013235</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9030,7 +9030,7 @@
         <v>1080</v>
       </c>
       <c r="B1082">
-        <v>69.31497878114178</v>
+        <v>64.36921675969933</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9038,7 +9038,7 @@
         <v>1081</v>
       </c>
       <c r="B1083">
-        <v>69.38969527981882</v>
+        <v>64.44243776624819</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9046,7 +9046,7 @@
         <v>1082</v>
       </c>
       <c r="B1084">
-        <v>71.34693454683429</v>
+        <v>68.0578105873896</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9054,7 +9054,7 @@
         <v>1083</v>
       </c>
       <c r="B1085">
-        <v>87.99855730296728</v>
+        <v>82.77653076497629</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9062,7 +9062,7 @@
         <v>1084</v>
       </c>
       <c r="B1086">
-        <v>92.374155264488</v>
+        <v>90.3759771625398</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9070,7 +9070,7 @@
         <v>1085</v>
       </c>
       <c r="B1087">
-        <v>105.4680655646742</v>
+        <v>104.2457158122</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9078,7 +9078,7 @@
         <v>1086</v>
       </c>
       <c r="B1088">
-        <v>132.1787767814147</v>
+        <v>138.6313604075749</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9086,7 +9086,7 @@
         <v>1087</v>
       </c>
       <c r="B1089">
-        <v>153.4452984187867</v>
+        <v>175.3876928161645</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9094,7 +9094,7 @@
         <v>1088</v>
       </c>
       <c r="B1090">
-        <v>119.0161023275713</v>
+        <v>187.7091911279418</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9102,7 +9102,7 @@
         <v>1089</v>
       </c>
       <c r="B1091">
-        <v>95.67708237870671</v>
+        <v>160.1850506440404</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9110,7 +9110,7 @@
         <v>1090</v>
       </c>
       <c r="B1092">
-        <v>124.2940424942847</v>
+        <v>134.0660612932007</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9118,7 +9118,7 @@
         <v>1091</v>
       </c>
       <c r="B1093">
-        <v>110.1911889008213</v>
+        <v>110.9962527852406</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9126,7 +9126,7 @@
         <v>1092</v>
       </c>
       <c r="B1094">
-        <v>102.9300355979146</v>
+        <v>107.5520173929951</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9134,7 +9134,7 @@
         <v>1093</v>
       </c>
       <c r="B1095">
-        <v>114.137219025937</v>
+        <v>109.8282857989467</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9142,7 +9142,7 @@
         <v>1094</v>
       </c>
       <c r="B1096">
-        <v>119.2279725104494</v>
+        <v>114.3184531665715</v>
       </c>
     </row>
   </sheetData>

--- a/UCED/Validation_and_Price_Calculation/weighted_daily_prices.xlsx
+++ b/UCED/Validation_and_Price_Calculation/weighted_daily_prices.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51.95791365850154</v>
+        <v>51.95791365850156</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52.21197000175594</v>
+        <v>52.21197000175597</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56.47299275213581</v>
+        <v>56.47299275213582</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59.57206915043817</v>
+        <v>59.57206915043819</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62.89297167050081</v>
+        <v>62.89297167050083</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>81.38017624717725</v>
+        <v>81.38017624717727</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>79.95869369315722</v>
+        <v>79.95869369315727</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>53.90329954446036</v>
+        <v>53.90329954446037</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63.72839775851484</v>
+        <v>63.72839775851487</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>69.81666496774341</v>
+        <v>69.81666496774343</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71.38401270763077</v>
+        <v>71.38401270763082</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70.43033703740096</v>
+        <v>70.43033703740099</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72.63482650487956</v>
+        <v>72.63482650487958</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>70.19848854251393</v>
+        <v>70.19848854251396</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82.06587961722107</v>
+        <v>82.0658796172211</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>51.49432482383307</v>
+        <v>51.49432482383308</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>58.67654487536514</v>
+        <v>58.67654487536517</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>53.66903558554633</v>
+        <v>53.66903558554635</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>58.34944778407132</v>
+        <v>58.34944778407134</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59.94661028142584</v>
+        <v>59.94661028142586</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>54.79377658126813</v>
+        <v>54.79377658126815</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>47.1235246411828</v>
+        <v>47.12352464118282</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>64.16357785208993</v>
+        <v>64.16357785208996</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>64.50495141733421</v>
+        <v>64.50495141733424</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>63.66999400144483</v>
+        <v>63.66999400144486</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>71.79399266158123</v>
+        <v>71.7939926615813</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>60.20556965613804</v>
+        <v>60.20556965613806</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>61.22713068103617</v>
+        <v>61.22713068103619</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>72.31540842608938</v>
+        <v>72.31540842608942</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>77.19904406819674</v>
+        <v>77.19904406819677</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>79.28218350709665</v>
+        <v>79.28218350709668</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>71.94540980954048</v>
+        <v>71.94540980954051</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>69.63766826783451</v>
+        <v>69.63766826783456</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>54.94447269518945</v>
+        <v>54.94447269518947</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>76.89992309757352</v>
+        <v>76.89992309757355</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>70.13766932141694</v>
+        <v>70.13766932141698</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>57.91826942940651</v>
+        <v>57.91826942940653</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>62.82378845456416</v>
+        <v>62.82378845456419</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>72.3279544183489</v>
+        <v>72.32795441834892</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>78.53876136231874</v>
+        <v>78.53876136231878</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>97.85630873704199</v>
+        <v>97.85630873704204</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>105.5353933440916</v>
+        <v>105.5353933440917</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>135.5184401557447</v>
+        <v>135.5184401557448</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>131.3311070840384</v>
+        <v>131.3311070840385</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>121.2483113048382</v>
+        <v>121.2483113048383</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>124.5614266572915</v>
+        <v>124.5614266572916</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>120.8464429838142</v>
+        <v>120.8464429838143</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>107.7501214949084</v>
+        <v>107.7501214949085</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>129.2047416545665</v>
+        <v>129.2047416545666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>151.935664164713</v>
+        <v>151.9356641647132</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>163.2202434265849</v>
+        <v>163.220243426585</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>142.90770513126</v>
+        <v>142.9077051312602</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>128.7291836548688</v>
+        <v>128.7291836548689</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>96.06677435837544</v>
+        <v>96.06677435837551</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>92.98493067357892</v>
+        <v>92.98493067357896</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>83.52755981885403</v>
+        <v>83.52755981885409</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>77.95742766926108</v>
+        <v>77.95742766926114</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>50.5450474612345</v>
+        <v>50.54504746123452</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>83.56519779563247</v>
+        <v>83.56519779563251</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>88.78187905984633</v>
+        <v>88.78187905984637</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>49.02060124660224</v>
+        <v>49.02060124660226</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>44.1034375217325</v>
+        <v>44.10343752173251</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>28.62103414290289</v>
+        <v>28.62103414290288</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>37.597763707963</v>
+        <v>37.59776370796298</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>32.60946997525425</v>
+        <v>32.60946997525426</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>38.0738985348909</v>
+        <v>38.07389853489092</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>40.20567171964716</v>
+        <v>40.20567171964717</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>78.16677990216559</v>
+        <v>78.16677990216564</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>72.02302912372053</v>
+        <v>72.02302912372056</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>53.52601848412867</v>
+        <v>53.52601848412869</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>62.00444142559539</v>
+        <v>62.00444142559541</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>57.77864118796698</v>
+        <v>57.778641187967</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>56.05291832165467</v>
+        <v>56.05291832165469</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>41.58335145586465</v>
+        <v>41.58335145586466</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>59.37241482534336</v>
+        <v>59.37241482534338</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>62.1411855308833</v>
+        <v>62.14118553088333</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>60.31743808711836</v>
+        <v>60.31743808711838</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>59.46211145965827</v>
+        <v>59.46211145965831</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>30.05196224281934</v>
+        <v>30.05196224281933</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>33.97694707983541</v>
+        <v>33.97694707983544</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>46.55697214590207</v>
+        <v>46.55697214590209</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>26.85233764793169</v>
+        <v>26.85233764793168</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>29.98587947324571</v>
+        <v>29.9858794732457</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>22.16215543819314</v>
+        <v>22.16215543819312</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>27.84080321049018</v>
+        <v>27.84080321049017</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>25.98280664992496</v>
+        <v>25.98280664992495</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>22.61633477866699</v>
+        <v>22.61633477866698</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>22.15930735374343</v>
+        <v>22.15930735374342</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>20.96945698439917</v>
+        <v>20.96945698439916</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>22.03701998091542</v>
+        <v>22.03701998091541</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>22.6315846485686</v>
+        <v>22.63158464856859</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>24.26436622739546</v>
+        <v>24.26436622739545</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>22.7700231838456</v>
+        <v>22.77002318384559</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>22.58821445118886</v>
+        <v>22.58821445118885</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>26.44711651863131</v>
+        <v>26.4471165186313</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>21.4856813038344</v>
+        <v>21.48568130383439</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>20.70148468421326</v>
+        <v>20.70148468421325</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>22.65783028754819</v>
+        <v>22.65783028754818</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>22.64449115784704</v>
+        <v>22.64449115784702</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>22.79349284177928</v>
+        <v>22.79349284177927</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>23.25499067773782</v>
+        <v>23.25499067773781</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>21.74759691810196</v>
+        <v>21.74759691810194</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>23.27132209869628</v>
+        <v>23.27132209869627</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>27.39794410441139</v>
+        <v>27.39794410441138</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>21.13367248653113</v>
+        <v>21.13367248653112</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>21.17942209623595</v>
+        <v>21.17942209623594</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>23.21039472249364</v>
+        <v>23.21039472249362</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>20.9306653531601</v>
+        <v>20.93066535316009</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>21.14156780924615</v>
+        <v>21.14156780924613</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>19.18003076083833</v>
+        <v>19.18003076083831</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>18.98048459084921</v>
+        <v>18.9804845908492</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>19.5247931860607</v>
+        <v>19.52479318606068</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>19.29557646541196</v>
+        <v>19.29557646541195</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>19.89125873582389</v>
+        <v>19.89125873582388</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>19.23674008791924</v>
+        <v>19.23674008791922</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>20.29950820808345</v>
+        <v>20.29950820808343</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>26.07279169785499</v>
+        <v>26.07279169785498</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>27.24836559324882</v>
+        <v>27.24836559324881</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>20.76565671358646</v>
+        <v>20.76565671358645</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>22.08367088316762</v>
+        <v>22.08367088316761</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>23.18786240880924</v>
+        <v>23.18786240880923</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>23.50965989992445</v>
+        <v>23.50965989992444</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>23.46506394468028</v>
+        <v>23.46506394468027</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>21.46974645159679</v>
+        <v>21.46974645159678</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>21.49044012848455</v>
+        <v>21.49044012848454</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>22.35499599162976</v>
+        <v>22.35499599162975</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>26.74183918162336</v>
+        <v>26.74183918162334</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>23.88405682410457</v>
+        <v>23.88405682410456</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>20.96275136784669</v>
+        <v>20.96275136784668</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>20.64120623864474</v>
+        <v>20.64120623864472</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>19.80581620233261</v>
+        <v>19.8058162023326</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>19.89864933471236</v>
+        <v>19.89864933471235</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>19.49169772372103</v>
+        <v>19.49169772372102</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>20.07631212165119</v>
+        <v>20.07631212165118</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>20.51679181540491</v>
+        <v>20.5167918154049</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>20.03261745895438</v>
+        <v>20.03261745895437</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>16.70378356447486</v>
+        <v>16.70378356447484</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>17.59440480809019</v>
+        <v>17.59440480809018</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>19.78101263142882</v>
+        <v>19.78101263142881</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>21.73696166604291</v>
+        <v>21.73696166604289</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>22.47804045019758</v>
+        <v>22.47804045019757</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>21.20101706567109</v>
+        <v>21.20101706567108</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>20.29078369622484</v>
+        <v>20.29078369622482</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>21.42435735891092</v>
+        <v>21.42435735891091</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>24.02206273895882</v>
+        <v>24.02206273895881</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>24.76144709312442</v>
+        <v>24.76144709312441</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>23.40042324318246</v>
+        <v>23.40042324318244</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>22.70487775852124</v>
+        <v>22.70487775852122</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>24.07120120864177</v>
+        <v>24.07120120864176</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>25.91564232929447</v>
+        <v>25.91564232929446</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>32.92059616260855</v>
+        <v>32.92059616260856</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>27.27302495734504</v>
+        <v>27.27302495734503</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>22.12440930630902</v>
+        <v>22.124409306309</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>19.78923241946089</v>
+        <v>19.78923241946088</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>19.89179951135231</v>
+        <v>19.8917995113523</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>24.79187472952384</v>
+        <v>24.79187472952383</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>29.35562362071644</v>
+        <v>29.35562362071643</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>25.8767785946516</v>
+        <v>25.87677859465159</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>23.45651969133116</v>
+        <v>23.45651969133115</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>24.08309827026714</v>
+        <v>24.08309827026713</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>23.49495080555128</v>
+        <v>23.49495080555127</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>24.88081427809894</v>
+        <v>24.88081427809893</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>22.77737773103219</v>
+        <v>22.77737773103218</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>20.44944723626496</v>
+        <v>20.44944723626494</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>19.82398626008772</v>
+        <v>19.82398626008771</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>20.82445703937727</v>
+        <v>20.82445703937726</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>21.11780973769731</v>
+        <v>21.1178097376973</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>22.95684310306575</v>
+        <v>22.95684310306574</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>23.95284347132033</v>
+        <v>23.95284347132032</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>25.26281811137889</v>
+        <v>25.26281811137888</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>31.72742903668994</v>
+        <v>31.72742903668993</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>70.9123843434397</v>
+        <v>70.91238434343973</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>27.77832561110607</v>
+        <v>27.77832561110606</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>28.38024482594584</v>
+        <v>28.38024482594583</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>25.68498354056995</v>
+        <v>25.68498354056994</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>26.82118897749435</v>
+        <v>26.82118897749434</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>26.53793075570495</v>
+        <v>26.53793075570494</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>70.18601465365819</v>
+        <v>70.18601465365823</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>27.27140263075975</v>
+        <v>27.27140263075976</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>29.01598053716316</v>
+        <v>29.01598053716315</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>31.66091364669358</v>
+        <v>31.66091364669357</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>29.65903474386519</v>
+        <v>29.65903474386518</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>35.11711820396829</v>
+        <v>35.1171182039683</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>26.8004592489047</v>
+        <v>26.80045924890469</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>23.91023035968037</v>
+        <v>23.91023035968036</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>24.93366607307707</v>
+        <v>24.93366607307706</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>24.44163244561342</v>
+        <v>24.44163244561341</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>23.48655075900973</v>
+        <v>23.48655075900972</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>27.01417373773857</v>
+        <v>27.01417373773856</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>37.60930025256937</v>
+        <v>37.60930025256938</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>36.38523681812671</v>
+        <v>36.38523681812673</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>29.05199618735632</v>
+        <v>29.05199618735631</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>26.72817558660511</v>
+        <v>26.72817558660512</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>23.68962999578455</v>
+        <v>23.68962999578454</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>23.47786229885303</v>
+        <v>23.47786229885302</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>21.00907780478183</v>
+        <v>21.00907780478182</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>22.63717266236234</v>
+        <v>22.63717266236232</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>23.27809981865255</v>
+        <v>23.27809981865254</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>24.71605800043855</v>
+        <v>24.71605800043854</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>25.25805928672874</v>
+        <v>25.25805928672873</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>23.36347024874003</v>
+        <v>23.36347024874002</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>19.82903349835302</v>
+        <v>19.82903349835301</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>23.37255527761759</v>
+        <v>23.37255527761757</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>29.17936685015152</v>
+        <v>29.17936685015151</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>28.50062145857341</v>
+        <v>28.5006214585734</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>27.16685269526411</v>
+        <v>27.1668526952641</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>26.56904337444038</v>
+        <v>26.56904337444037</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>27.77771273217385</v>
+        <v>27.77771273217384</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>27.60560190732687</v>
+        <v>27.60560190732686</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>35.81616070371334</v>
+        <v>35.81616070371335</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>37.74171815362992</v>
+        <v>37.74171815362993</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>39.18209179944288</v>
+        <v>39.18209179944289</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>42.76653226035831</v>
+        <v>42.76653226035832</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>45.33507181357309</v>
+        <v>45.3350718135731</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>42.36408711210387</v>
+        <v>42.36408711210388</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>45.42325427640841</v>
+        <v>45.42325427640842</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>41.93359373977507</v>
+        <v>41.93359373977508</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>35.52414191836343</v>
+        <v>35.52414191836344</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>35.24117211018919</v>
+        <v>35.24117211018917</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>25.4114232265903</v>
+        <v>25.41142322659029</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>26.369929824874</v>
+        <v>26.36992982487399</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>25.44105772554802</v>
+        <v>25.44105772554801</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>25.70928238764721</v>
+        <v>25.7092823876472</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>26.25824165240314</v>
+        <v>26.25824165240313</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>24.68137626321551</v>
+        <v>24.6813762632155</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>24.98536421359457</v>
+        <v>24.98536421359456</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>22.44166428298547</v>
+        <v>22.44166428298546</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>24.7360306432884</v>
+        <v>24.73603064328839</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>27.39477155464463</v>
+        <v>27.39477155464462</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>25.65794476414864</v>
+        <v>25.65794476414863</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>25.60527322767998</v>
+        <v>25.60527322767997</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>25.20322464814637</v>
+        <v>25.20322464814636</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>25.12254093930525</v>
+        <v>25.12254093930524</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>24.25055842556965</v>
+        <v>24.25055842556964</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>18.82167684400151</v>
+        <v>18.82167684400149</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>18.48055564067054</v>
+        <v>18.48055564067053</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>18.32524490890667</v>
+        <v>18.32524490890665</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>19.77661432379762</v>
+        <v>19.77661432379761</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>19.98647128052871</v>
+        <v>19.9864712805287</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>21.70105417095545</v>
+        <v>21.70105417095544</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>22.89328395262477</v>
+        <v>22.89328395262476</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>27.71072867005284</v>
+        <v>27.71072867005283</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>23.58489980177944</v>
+        <v>23.58489980177943</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>22.23876530472012</v>
+        <v>22.23876530472011</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>19.57328272510954</v>
+        <v>19.57328272510953</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>17.63380931826149</v>
+        <v>17.63380931826148</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>20.45701809366292</v>
+        <v>20.45701809366291</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>28.87022350640146</v>
+        <v>28.87022350640147</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>35.87939538883726</v>
+        <v>35.87939538883727</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>36.28879851555746</v>
+        <v>36.28879851555747</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>50.79521022068425</v>
+        <v>50.79521022068426</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>53.94821996502162</v>
+        <v>53.94821996502161</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>53.79114269986486</v>
+        <v>53.79114269986488</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>55.28667544957727</v>
+        <v>55.2866754495773</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>43.07437774284012</v>
+        <v>43.07437774284013</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>38.83844697697923</v>
+        <v>38.83844697697924</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>32.38032535800931</v>
+        <v>32.3803253580093</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>35.30390207148655</v>
+        <v>35.30390207148656</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>36.42500184531698</v>
+        <v>36.42500184531696</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>39.91267953834608</v>
+        <v>39.9126795383461</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>45.29292737405778</v>
+        <v>45.2929273740578</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>39.09675742105729</v>
+        <v>39.0967574210573</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>40.2549183444358</v>
+        <v>40.25491834443581</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>40.12913395652396</v>
+        <v>40.12913395652397</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>42.10282042847039</v>
+        <v>42.1028204284704</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>40.17459515261363</v>
+        <v>40.17459515261364</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>40.12138284061651</v>
+        <v>40.12138284061652</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>31.0685120811541</v>
+        <v>31.06851208115409</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>23.9734289931024</v>
+        <v>23.97342899310239</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>23.54726182500099</v>
+        <v>23.54726182500098</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>28.34058795386128</v>
+        <v>28.34058795386127</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>29.50210168551604</v>
+        <v>29.50210168551603</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>45.18808902494699</v>
+        <v>45.18808902494701</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>49.43483530137639</v>
+        <v>49.4348353013764</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>48.5927396485118</v>
+        <v>48.59273964851182</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>52.85015722870214</v>
+        <v>52.85015722870217</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>48.08942183835501</v>
+        <v>48.08942183835502</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>43.05188148085763</v>
+        <v>43.05188148085765</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>23.47350004292372</v>
+        <v>23.47350004292371</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>26.5294946574615</v>
+        <v>26.52949465746149</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>26.93157928869701</v>
+        <v>26.931579288697</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>25.42202242694743</v>
+        <v>25.42202242694742</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>23.36999560678304</v>
+        <v>23.36999560678302</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>27.17968710113875</v>
+        <v>27.17968710113874</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>21.43571364500787</v>
+        <v>21.43571364500785</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>32.84726700095401</v>
+        <v>32.84726700095402</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>23.52545054535448</v>
+        <v>23.52545054535447</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>20.56758866337503</v>
+        <v>20.56758866337504</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>17.826000941064</v>
+        <v>17.82600094106398</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>18.89215792120634</v>
+        <v>18.89215792120633</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>18.18734714915809</v>
+        <v>18.18734714915808</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>19.12130253845128</v>
+        <v>19.12130253845127</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>20.8170664404888</v>
+        <v>20.81706644048879</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>18.57915704535351</v>
+        <v>18.57915704535349</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>19.21110732787185</v>
+        <v>19.21110732787184</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>18.96617206519687</v>
+        <v>18.96617206519686</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>19.69207308285373</v>
+        <v>19.69207308285372</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>24.90922301919223</v>
+        <v>24.90922301919222</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>29.35133346819094</v>
+        <v>29.35133346819093</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>25.07798103576297</v>
+        <v>25.07798103576296</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>24.01831336196173</v>
+        <v>24.01831336196172</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>19.87182686850245</v>
+        <v>19.87182686850244</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>20.17303883783561</v>
+        <v>20.17303883783559</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>19.51516738165471</v>
+        <v>19.5151673816547</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>19.97994592248571</v>
+        <v>19.9799459224857</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>20.19903211490193</v>
+        <v>20.19903211490192</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>20.58615528985099</v>
+        <v>20.58615528985098</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>20.83577727377232</v>
+        <v>20.83577727377231</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>22.6986047623915</v>
+        <v>22.69860476239149</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>19.4977904613413</v>
+        <v>19.49779046134129</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>19.21647903145422</v>
+        <v>19.21647903145421</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>25.23549092134243</v>
+        <v>25.23549092134242</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>37.19661642097675</v>
+        <v>37.19661642097676</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>42.68051289963673</v>
+        <v>42.68051289963674</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>37.37907408426758</v>
+        <v>37.37907408426759</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>25.849162991</v>
+        <v>25.84916299099999</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>19.37081636726693</v>
+        <v>19.37081636726692</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>34.88350317568838</v>
+        <v>34.88350317568839</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>36.90434527371355</v>
+        <v>36.90434527371356</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>28.42339871311421</v>
+        <v>28.4233987131142</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>26.23899004359119</v>
+        <v>26.23899004359117</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>26.21018473377704</v>
+        <v>26.21018473377703</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>24.71623825894802</v>
+        <v>24.71623825894801</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>25.08721027144809</v>
+        <v>25.08721027144808</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>24.42248899190714</v>
+        <v>24.42248899190713</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>24.74352939728257</v>
+        <v>24.74352939728256</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>25.78917295904663</v>
+        <v>25.78917295904662</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>26.06853759703138</v>
+        <v>26.06853759703137</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>25.49787520773463</v>
+        <v>25.49787520773462</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>24.79320864249395</v>
+        <v>24.79320864249394</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>27.46835307821242</v>
+        <v>27.46835307821241</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>25.98788993989214</v>
+        <v>25.98788993989213</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>24.8176516963788</v>
+        <v>24.81765169637879</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>25.5344316334562</v>
+        <v>25.53443163345619</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>25.29890586497583</v>
+        <v>25.29890586497582</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>25.02184853591238</v>
+        <v>25.02184853591237</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>24.73357912755954</v>
+        <v>24.73357912755953</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>23.89317790468401</v>
+        <v>23.893177904684</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>24.37663122709665</v>
+        <v>24.37663122709664</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>24.38330079194724</v>
+        <v>24.38330079194723</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>24.96232717608364</v>
+        <v>24.96232717608363</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>23.86199318254478</v>
+        <v>23.86199318254477</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>22.66049811348843</v>
+        <v>22.66049811348842</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>22.01358637468363</v>
+        <v>22.01358637468362</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>23.24745587204175</v>
+        <v>23.24745587204174</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>22.27604276447961</v>
+        <v>22.2760427644796</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>22.14535534511005</v>
+        <v>22.14535534511004</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>22.1384334183462</v>
+        <v>22.13843341834619</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>22.8479669633427</v>
+        <v>22.84796696334269</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>22.11518007062389</v>
+        <v>22.11518007062388</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>24.32655541316441</v>
+        <v>24.3265554131644</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>23.13050415109421</v>
+        <v>23.1305041510942</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>23.45388791709282</v>
+        <v>23.4538879170928</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>23.40125243232605</v>
+        <v>23.40125243232603</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>23.36815696998638</v>
+        <v>23.36815696998637</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>23.94646232008489</v>
+        <v>23.94646232008488</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>23.32561596175022</v>
+        <v>23.32561596175021</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>22.84940903141849</v>
+        <v>22.84940903141848</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>23.40867908291642</v>
+        <v>23.40867908291641</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>22.78628250140026</v>
+        <v>22.78628250140025</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>21.54170564857931</v>
+        <v>21.5417056485793</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>22.56546582729308</v>
+        <v>22.56546582729307</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>22.83214026621077</v>
+        <v>22.83214026621076</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>23.31941506902428</v>
+        <v>23.31941506902427</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>25.09611504181618</v>
+        <v>25.09611504181617</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>24.71180389961493</v>
+        <v>24.71180389961492</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>24.8474304021441</v>
+        <v>24.84743040214409</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>25.16645191221341</v>
+        <v>25.1664519122134</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>25.18952500142625</v>
+        <v>25.18952500142624</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>25.53702735599264</v>
+        <v>25.53702735599263</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>25.81350785782579</v>
+        <v>25.81350785782578</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>27.11583953708262</v>
+        <v>27.11583953708261</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>26.79833219849291</v>
+        <v>26.7983321984929</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>28.51843099930957</v>
+        <v>28.51843099930956</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>27.44207138753092</v>
+        <v>27.44207138753091</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>30.33626596396373</v>
+        <v>30.33626596396372</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>30.05012360602269</v>
+        <v>30.05012360602268</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>30.20756138819839</v>
+        <v>30.20756138819838</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>31.31712461742237</v>
+        <v>31.31712461742235</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>30.10355222823116</v>
+        <v>30.10355222823115</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>28.90512155383588</v>
+        <v>28.90512155383587</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>30.03901968183903</v>
+        <v>30.03901968183902</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>27.60023020374452</v>
+        <v>27.60023020374451</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>33.88883672040392</v>
+        <v>33.88883672040393</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>30.74256864432093</v>
+        <v>30.74256864432092</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>30.67965842451407</v>
+        <v>30.67965842451406</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>27.52304350998721</v>
+        <v>27.5230435099872</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>28.39967669326727</v>
+        <v>28.39967669326726</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>36.92752651803208</v>
+        <v>36.92752651803209</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>44.41903412012176</v>
+        <v>44.41903412012179</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>44.31304211655032</v>
+        <v>44.31304211655033</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>42.29703094657906</v>
+        <v>42.29703094657908</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>28.45346583249467</v>
+        <v>28.45346583249468</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>29.13473484320546</v>
+        <v>29.13473484320547</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>28.20442067580367</v>
+        <v>28.20442067580366</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>29.98566316303435</v>
+        <v>29.98566316303434</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>21.08828339384526</v>
+        <v>21.08828339384525</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>22.24572328318587</v>
+        <v>22.24572328318586</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>24.75982476653914</v>
+        <v>24.75982476653913</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>33.60384801692355</v>
+        <v>33.60384801692356</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>64.99384854673298</v>
+        <v>64.99384854673301</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>29.81092056394903</v>
+        <v>29.81092056394904</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>100.0796532446116</v>
+        <v>100.0796532446117</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>24.91628915276366</v>
+        <v>24.91628915276365</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>25.01954122699108</v>
+        <v>25.01954122699107</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>26.42307003346732</v>
+        <v>26.42307003346731</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>22.86797565789445</v>
+        <v>22.86797565789444</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>22.84854379057301</v>
+        <v>22.848543790573</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>22.1077534200335</v>
+        <v>22.10775342003349</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>23.52238615069341</v>
+        <v>23.5223861506934</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>24.5436948136783</v>
+        <v>24.54369481367829</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>23.6557774477051</v>
+        <v>23.65577744770509</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>24.2888813846841</v>
+        <v>24.28888138468409</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>23.97234744204555</v>
+        <v>23.97234744204554</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>26.70409304973924</v>
+        <v>26.70409304973923</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>26.78474070687846</v>
+        <v>26.78474070687845</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>28.28348205805952</v>
+        <v>28.28348205805951</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>27.17092653757826</v>
+        <v>27.17092653757825</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>27.37018429395218</v>
+        <v>27.37018429395217</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>23.63598506336472</v>
+        <v>23.63598506336471</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>19.06891941559777</v>
+        <v>19.06891941559775</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>22.16799581390013</v>
+        <v>22.16799581390012</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>22.16799581390013</v>
+        <v>22.16799581390012</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>22.16799581390013</v>
+        <v>22.16799581390012</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>28.61897919589487</v>
+        <v>28.61897919589485</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>21.23923186967984</v>
+        <v>21.23923186967983</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>28.2471419425493</v>
+        <v>28.24714194254929</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>30.22847137529751</v>
+        <v>30.2284713752975</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>26.68631956070496</v>
+        <v>26.68631956070495</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>23.05389428456723</v>
+        <v>23.05389428456722</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>21.41163110814197</v>
+        <v>21.41163110814196</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5766,7 +5766,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>21.75484331018286</v>
+        <v>21.75484331018284</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5774,7 +5774,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>23.95010354197629</v>
+        <v>23.95010354197628</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>22.51993252779962</v>
+        <v>22.51993252779961</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>23.68779135898791</v>
+        <v>23.6877913589879</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>24.4257336450777</v>
+        <v>24.42573364507769</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>23.66068047916283</v>
+        <v>23.66068047916282</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>25.23120076881693</v>
+        <v>25.23120076881692</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>28.32735697926578</v>
+        <v>28.32735697926579</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>29.49243982940816</v>
+        <v>29.49243982940815</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>26.65657690664157</v>
+        <v>26.65657690664156</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>29.16418908365372</v>
+        <v>29.16418908365371</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5998,7 +5998,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>38.56066861387788</v>
+        <v>38.56066861387789</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6006,7 +6006,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>40.75564043205615</v>
+        <v>40.75564043205617</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6014,7 +6014,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>43.32479286420316</v>
+        <v>43.32479286420317</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6022,7 +6022,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>51.14732719309322</v>
+        <v>51.14732719309324</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6030,7 +6030,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>57.50486456377595</v>
+        <v>57.50486456377598</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6038,7 +6038,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>69.87405927716031</v>
+        <v>69.87405927716034</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6046,7 +6046,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>65.7676262245065</v>
+        <v>65.76762622450653</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6054,7 +6054,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>60.43125331000103</v>
+        <v>60.43125331000107</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6062,7 +6062,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>50.64065657466016</v>
+        <v>50.64065657466017</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6070,7 +6070,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>39.6924396914692</v>
+        <v>39.69243969146922</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6078,7 +6078,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>61.46189936377677</v>
+        <v>61.46189936377679</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6086,7 +6086,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>75.8209317115566</v>
+        <v>75.82093171155663</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6094,7 +6094,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>66.97849473605551</v>
+        <v>66.97849473605555</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6102,7 +6102,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>62.20979191958955</v>
+        <v>62.20979191958957</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6110,7 +6110,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>62.54027787086152</v>
+        <v>62.54027787086154</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6118,7 +6118,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>59.33885069087908</v>
+        <v>59.33885069087911</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6126,7 +6126,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>58.4122137970706</v>
+        <v>58.41221379707063</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6134,7 +6134,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>56.54585324166571</v>
+        <v>56.54585324166573</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6142,7 +6142,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>46.858256218639</v>
+        <v>46.85825621863901</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6150,7 +6150,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>55.42414058890308</v>
+        <v>55.4241405889031</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6158,7 +6158,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>37.5028395768733</v>
+        <v>37.50283957687331</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6166,7 +6166,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>41.58677636754466</v>
+        <v>41.58677636754467</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6190,7 +6190,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>43.1912934120858</v>
+        <v>43.19129341208581</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6206,7 +6206,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>43.08490483979351</v>
+        <v>43.08490483979352</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6222,7 +6222,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>40.69514567627625</v>
+        <v>40.69514567627627</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6230,7 +6230,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>44.05541665480829</v>
+        <v>44.0554166548083</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6238,7 +6238,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>43.87760966106188</v>
+        <v>43.87760966106189</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6254,7 +6254,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>74.27092484028073</v>
+        <v>74.27092484028077</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6262,7 +6262,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>74.2501590599892</v>
+        <v>74.25015905998924</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6270,7 +6270,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>74.26843727285002</v>
+        <v>74.26843727285006</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6278,7 +6278,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>70.00005997528356</v>
+        <v>70.00005997528359</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6286,7 +6286,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>69.49558851066612</v>
+        <v>69.49558851066615</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6294,7 +6294,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>64.17767406753093</v>
+        <v>64.17767406753097</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6302,7 +6302,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>59.17780773851391</v>
+        <v>59.17780773851393</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6310,7 +6310,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>54.14881163436567</v>
+        <v>54.14881163436569</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6318,7 +6318,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>52.35498710317364</v>
+        <v>52.35498710317366</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6334,7 +6334,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>45.19425386597104</v>
+        <v>45.19425386597105</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6342,7 +6342,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>41.78361865989163</v>
+        <v>41.78361865989164</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6350,7 +6350,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>39.76638173205596</v>
+        <v>39.76638173205598</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6390,7 +6390,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>31.96475739026506</v>
+        <v>31.96475739026505</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6438,7 +6438,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>34.91198402018547</v>
+        <v>34.91198402018548</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6454,7 +6454,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>38.61997366349524</v>
+        <v>38.61997366349526</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6462,7 +6462,7 @@
         <v>759</v>
       </c>
       <c r="B761">
-        <v>37.20696325942061</v>
+        <v>37.20696325942062</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6470,7 +6470,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>37.04509111791184</v>
+        <v>37.04509111791185</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6478,7 +6478,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>39.70476937351733</v>
+        <v>39.70476937351734</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6494,7 +6494,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>37.71536435954462</v>
+        <v>37.71536435954463</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6518,7 +6518,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>28.66072706668934</v>
+        <v>28.66072706668933</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6526,7 +6526,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>31.56988309940856</v>
+        <v>31.56988309940855</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6534,7 +6534,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>44.65398306137182</v>
+        <v>44.65398306137183</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6542,7 +6542,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>45.62319701511835</v>
+        <v>45.62319701511837</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6550,7 +6550,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>43.01301774621477</v>
+        <v>43.01301774621478</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6558,7 +6558,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>41.15116365354676</v>
+        <v>41.15116365354677</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6582,7 +6582,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>34.83757330747408</v>
+        <v>34.83757330747409</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6590,7 +6590,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>34.2523820823136</v>
+        <v>34.25238208231362</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6606,7 +6606,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>30.7530596895724</v>
+        <v>30.75305968957239</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6638,7 +6638,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>27.0138853241234</v>
+        <v>27.01388532412339</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6646,7 +6646,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>24.91733465211861</v>
+        <v>24.9173346521186</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6654,7 +6654,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>24.31051240582112</v>
+        <v>24.31051240582111</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6670,7 +6670,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>24.35716330807331</v>
+        <v>24.3571633080733</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6678,7 +6678,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>24.64373828643708</v>
+        <v>24.64373828643707</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6686,7 +6686,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>24.4504651125777</v>
+        <v>24.45046511257769</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6702,7 +6702,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>31.36640729391289</v>
+        <v>31.36640729391288</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6710,7 +6710,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>34.84986693782028</v>
+        <v>34.84986693782029</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6726,7 +6726,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>36.74467228602037</v>
+        <v>36.74467228602039</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6750,7 +6750,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>40.68858426653137</v>
+        <v>40.68858426653138</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6766,7 +6766,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>45.19108131620425</v>
+        <v>45.19108131620427</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6774,7 +6774,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>56.85928673794129</v>
+        <v>56.85928673794128</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6782,7 +6782,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>55.54631980662543</v>
+        <v>55.54631980662545</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6790,7 +6790,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>55.1604223895408</v>
+        <v>55.16042238954082</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6798,7 +6798,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>54.47991046456983</v>
+        <v>54.47991046456985</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6806,7 +6806,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>55.86681943647243</v>
+        <v>55.86681943647245</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6814,7 +6814,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>51.99097306913929</v>
+        <v>51.99097306913931</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6822,7 +6822,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>46.58148730319071</v>
+        <v>46.58148730319072</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6838,7 +6838,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>39.08590585878687</v>
+        <v>39.08590585878689</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6846,7 +6846,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>42.6740235932956</v>
+        <v>42.67402359329561</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6854,7 +6854,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>45.02805552023485</v>
+        <v>45.02805552023487</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6862,7 +6862,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>47.7834870960736</v>
+        <v>47.78348709607361</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6878,7 +6878,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>27.90973406451352</v>
+        <v>27.90973406451351</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6886,7 +6886,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>26.65160177178003</v>
+        <v>26.65160177178002</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6894,7 +6894,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>26.88510864495428</v>
+        <v>26.88510864495427</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6902,7 +6902,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>27.53256115928751</v>
+        <v>27.5325611592875</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6910,7 +6910,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>27.82443573782983</v>
+        <v>27.82443573782982</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6918,7 +6918,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>27.67211729732325</v>
+        <v>27.67211729732324</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6926,7 +6926,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>30.10128097101178</v>
+        <v>30.10128097101177</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6934,7 +6934,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>33.04180198437972</v>
+        <v>33.0418019843797</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6974,7 +6974,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>40.01149725324042</v>
+        <v>40.01149725324041</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6990,7 +6990,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>33.67238230222603</v>
+        <v>33.67238230222604</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7014,7 +7014,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>29.7594747853448</v>
+        <v>29.75947478534479</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7038,7 +7038,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>28.98385847077467</v>
+        <v>28.98385847077466</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7062,7 +7062,7 @@
         <v>834</v>
       </c>
       <c r="B836">
-        <v>27.75463964296102</v>
+        <v>27.75463964296101</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7078,7 +7078,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>30.28053003283395</v>
+        <v>30.28053003283396</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7118,7 +7118,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>28.93576550044668</v>
+        <v>28.93576550044667</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7142,7 +7142,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>26.55866048429459</v>
+        <v>26.55866048429458</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7150,7 +7150,7 @@
         <v>845</v>
       </c>
       <c r="B847">
-        <v>27.65672322061405</v>
+        <v>27.65672322061404</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7158,7 +7158,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>27.99928649202084</v>
+        <v>27.99928649202083</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7190,7 +7190,7 @@
         <v>850</v>
       </c>
       <c r="B852">
-        <v>28.27836271639042</v>
+        <v>28.27836271639041</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7198,7 +7198,7 @@
         <v>851</v>
       </c>
       <c r="B853">
-        <v>26.84523546265837</v>
+        <v>26.84523546265836</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7222,7 +7222,7 @@
         <v>854</v>
       </c>
       <c r="B856">
-        <v>30.0872929106765</v>
+        <v>30.08729291067649</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7246,7 +7246,7 @@
         <v>857</v>
       </c>
       <c r="B859">
-        <v>29.51778417584037</v>
+        <v>29.51778417584036</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7286,7 +7286,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>32.22357255816963</v>
+        <v>32.22357255816962</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7294,7 +7294,7 @@
         <v>863</v>
       </c>
       <c r="B865">
-        <v>34.9618795756082</v>
+        <v>34.96187957560821</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7318,7 +7318,7 @@
         <v>866</v>
       </c>
       <c r="B868">
-        <v>39.76472335376878</v>
+        <v>39.76472335376879</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7326,7 +7326,7 @@
         <v>867</v>
       </c>
       <c r="B869">
-        <v>42.46099408679775</v>
+        <v>42.46099408679776</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7358,7 +7358,7 @@
         <v>871</v>
       </c>
       <c r="B873">
-        <v>30.22890399572026</v>
+        <v>30.22890399572025</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7390,7 +7390,7 @@
         <v>875</v>
       </c>
       <c r="B877">
-        <v>26.91438262689307</v>
+        <v>26.91438262689306</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7398,7 +7398,7 @@
         <v>876</v>
       </c>
       <c r="B878">
-        <v>28.75229838950277</v>
+        <v>28.75229838950276</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7414,7 +7414,7 @@
         <v>878</v>
       </c>
       <c r="B880">
-        <v>24.9254823367469</v>
+        <v>24.92548233674689</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7422,7 +7422,7 @@
         <v>879</v>
       </c>
       <c r="B881">
-        <v>25.10058545285116</v>
+        <v>25.10058545285115</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7446,7 +7446,7 @@
         <v>882</v>
       </c>
       <c r="B884">
-        <v>25.91088350464433</v>
+        <v>25.91088350464432</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7454,7 +7454,7 @@
         <v>883</v>
       </c>
       <c r="B885">
-        <v>26.08991625625515</v>
+        <v>26.08991625625513</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7510,7 +7510,7 @@
         <v>890</v>
       </c>
       <c r="B892">
-        <v>28.80067977344592</v>
+        <v>28.80067977344591</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7542,7 +7542,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>24.6028556564881</v>
+        <v>24.60285565648809</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7550,7 +7550,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>25.15628533227901</v>
+        <v>25.156285332279</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7558,7 +7558,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>25.86387208537318</v>
+        <v>25.86387208537317</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7566,7 +7566,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>26.43637311146659</v>
+        <v>26.43637311146658</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7590,7 +7590,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>26.68148863265104</v>
+        <v>26.68148863265103</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7598,7 +7598,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>28.32440073971041</v>
+        <v>28.3244007397104</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7606,7 +7606,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>27.2848499155666</v>
+        <v>27.28484991556659</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7622,7 +7622,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>27.11501034793903</v>
+        <v>27.11501034793902</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7630,7 +7630,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>26.31412179034048</v>
+        <v>26.31412179034047</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7646,7 +7646,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>25.32089740313182</v>
+        <v>25.32089740313181</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7670,7 +7670,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>30.29588805784125</v>
+        <v>30.29588805784124</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7686,7 +7686,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>29.68149495414581</v>
+        <v>29.6814949541458</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7694,7 +7694,7 @@
         <v>913</v>
       </c>
       <c r="B915">
-        <v>26.55894889790975</v>
+        <v>26.55894889790974</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7702,7 +7702,7 @@
         <v>914</v>
       </c>
       <c r="B916">
-        <v>25.93547076533675</v>
+        <v>25.93547076533674</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7710,7 +7710,7 @@
         <v>915</v>
       </c>
       <c r="B917">
-        <v>25.33859878876229</v>
+        <v>25.33859878876228</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7726,7 +7726,7 @@
         <v>917</v>
       </c>
       <c r="B919">
-        <v>24.45724283253398</v>
+        <v>24.45724283253397</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7734,7 +7734,7 @@
         <v>918</v>
       </c>
       <c r="B920">
-        <v>26.11392668971725</v>
+        <v>26.11392668971724</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7742,7 +7742,7 @@
         <v>919</v>
       </c>
       <c r="B921">
-        <v>25.30474624068283</v>
+        <v>25.30474624068282</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7766,7 +7766,7 @@
         <v>922</v>
       </c>
       <c r="B924">
-        <v>28.26960215282993</v>
+        <v>28.26960215282992</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7790,7 +7790,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>28.64086257894516</v>
+        <v>28.64086257894515</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7798,7 +7798,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>30.09205173532665</v>
+        <v>30.09205173532663</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7806,7 +7806,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>28.91561259908734</v>
+        <v>28.91561259908733</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7854,7 +7854,7 @@
         <v>933</v>
       </c>
       <c r="B935">
-        <v>30.14064942948117</v>
+        <v>30.14064942948116</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7870,7 +7870,7 @@
         <v>935</v>
       </c>
       <c r="B937">
-        <v>28.93947882574187</v>
+        <v>28.93947882574186</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7886,7 +7886,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>28.78679986821632</v>
+        <v>28.78679986821631</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7910,7 +7910,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>27.8217679118896</v>
+        <v>27.82176791188959</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7942,7 +7942,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>29.8526323830416</v>
+        <v>29.85263238304159</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7958,7 +7958,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>27.97278849112797</v>
+        <v>27.97278849112796</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7974,7 +7974,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>25.12106281952755</v>
+        <v>25.12106281952754</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7990,7 +7990,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>25.24248495151008</v>
+        <v>25.24248495151007</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -7998,7 +7998,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>25.45331530419234</v>
+        <v>25.45331530419233</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8006,7 +8006,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>25.19871818540949</v>
+        <v>25.19871818540948</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8014,7 +8014,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>24.19233492700915</v>
+        <v>24.19233492700914</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8038,7 +8038,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>24.03554607546757</v>
+        <v>24.03554607546756</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8046,7 +8046,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>25.05317746485916</v>
+        <v>25.05317746485917</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8070,7 +8070,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>25.61201489593435</v>
+        <v>25.61201489593434</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8094,7 +8094,7 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>25.136024275814</v>
+        <v>25.13602427581399</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8102,7 +8102,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>24.92342738973889</v>
+        <v>24.92342738973887</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8142,7 +8142,7 @@
         <v>969</v>
       </c>
       <c r="B971">
-        <v>24.16172703210025</v>
+        <v>24.16172703210024</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8150,7 +8150,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>25.48814124822296</v>
+        <v>25.48814124822295</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8174,7 +8174,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>25.73826795597082</v>
+        <v>25.73826795597081</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8182,7 +8182,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>27.06972941035885</v>
+        <v>27.06972941035884</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8190,7 +8190,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>26.35857353877707</v>
+        <v>26.35857353877706</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8198,7 +8198,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>26.63826264207886</v>
+        <v>26.63826264207885</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8222,7 +8222,7 @@
         <v>979</v>
       </c>
       <c r="B981">
-        <v>28.03649184837653</v>
+        <v>28.03649184837652</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8246,7 +8246,7 @@
         <v>982</v>
       </c>
       <c r="B984">
-        <v>27.82483230655068</v>
+        <v>27.82483230655067</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8278,7 +8278,7 @@
         <v>986</v>
       </c>
       <c r="B988">
-        <v>89.49339544844702</v>
+        <v>89.49339544844707</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8302,7 +8302,7 @@
         <v>989</v>
       </c>
       <c r="B991">
-        <v>30.88086297279036</v>
+        <v>30.88086297279034</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8334,7 +8334,7 @@
         <v>993</v>
       </c>
       <c r="B995">
-        <v>30.08019072540316</v>
+        <v>30.08019072540317</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8342,7 +8342,7 @@
         <v>994</v>
       </c>
       <c r="B996">
-        <v>29.61148254906562</v>
+        <v>29.61148254906561</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8382,7 +8382,7 @@
         <v>999</v>
       </c>
       <c r="B1001">
-        <v>31.49514792138013</v>
+        <v>31.49514792138012</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8414,7 +8414,7 @@
         <v>1003</v>
       </c>
       <c r="B1005">
-        <v>28.96572446472147</v>
+        <v>28.96572446472146</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8438,7 +8438,7 @@
         <v>1006</v>
       </c>
       <c r="B1008">
-        <v>27.77627066409805</v>
+        <v>27.77627066409804</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8446,7 +8446,7 @@
         <v>1007</v>
       </c>
       <c r="B1009">
-        <v>27.15290068663073</v>
+        <v>27.15290068663072</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8470,7 +8470,7 @@
         <v>1010</v>
       </c>
       <c r="B1012">
-        <v>28.52910230307049</v>
+        <v>28.52910230307048</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8478,7 +8478,7 @@
         <v>1011</v>
       </c>
       <c r="B1013">
-        <v>26.36884827381716</v>
+        <v>26.36884827381715</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8486,7 +8486,7 @@
         <v>1012</v>
       </c>
       <c r="B1014">
-        <v>26.36884827381716</v>
+        <v>26.36884827381715</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8526,7 +8526,7 @@
         <v>1017</v>
       </c>
       <c r="B1019">
-        <v>29.2801313569482</v>
+        <v>29.28013135694819</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8542,7 +8542,7 @@
         <v>1019</v>
       </c>
       <c r="B1021">
-        <v>28.12557560375918</v>
+        <v>28.12557560375919</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8550,7 +8550,7 @@
         <v>1020</v>
       </c>
       <c r="B1022">
-        <v>28.95490895415296</v>
+        <v>28.95490895415295</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8558,7 +8558,7 @@
         <v>1021</v>
       </c>
       <c r="B1023">
-        <v>28.39282686990722</v>
+        <v>28.39282686990721</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8566,7 +8566,7 @@
         <v>1022</v>
       </c>
       <c r="B1024">
-        <v>28.53223880113538</v>
+        <v>28.53223880113537</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8574,7 +8574,7 @@
         <v>1023</v>
       </c>
       <c r="B1025">
-        <v>28.66256570348598</v>
+        <v>28.66256570348597</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8590,7 +8590,7 @@
         <v>1025</v>
       </c>
       <c r="B1027">
-        <v>28.65084890037009</v>
+        <v>28.65084890037008</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8598,7 +8598,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>29.02073936181331</v>
+        <v>29.0207393618133</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8606,7 +8606,7 @@
         <v>1027</v>
       </c>
       <c r="B1029">
-        <v>29.06692159194088</v>
+        <v>29.06692159194087</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8638,7 +8638,7 @@
         <v>1031</v>
       </c>
       <c r="B1033">
-        <v>28.47805309318711</v>
+        <v>28.4780530931871</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8646,7 +8646,7 @@
         <v>1032</v>
       </c>
       <c r="B1034">
-        <v>24.94195796451293</v>
+        <v>24.94195796451292</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8662,7 +8662,7 @@
         <v>1034</v>
       </c>
       <c r="B1036">
-        <v>21.02926675784306</v>
+        <v>21.02926675784305</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8670,7 +8670,7 @@
         <v>1035</v>
       </c>
       <c r="B1037">
-        <v>21.71936843551813</v>
+        <v>21.71936843551812</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8678,7 +8678,7 @@
         <v>1036</v>
       </c>
       <c r="B1038">
-        <v>22.2521044344213</v>
+        <v>22.25210443442129</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8686,7 +8686,7 @@
         <v>1037</v>
       </c>
       <c r="B1039">
-        <v>22.87035507021952</v>
+        <v>22.87035507021951</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8718,7 +8718,7 @@
         <v>1041</v>
       </c>
       <c r="B1043">
-        <v>47.00934890128116</v>
+        <v>47.00934890128118</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8726,7 +8726,7 @@
         <v>1042</v>
       </c>
       <c r="B1044">
-        <v>57.73732593759522</v>
+        <v>57.73732593759524</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8734,7 +8734,7 @@
         <v>1043</v>
       </c>
       <c r="B1045">
-        <v>47.11425935379576</v>
+        <v>47.11425935379577</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8750,7 +8750,7 @@
         <v>1045</v>
       </c>
       <c r="B1047">
-        <v>38.25624804307606</v>
+        <v>38.25624804307607</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8806,7 +8806,7 @@
         <v>1052</v>
       </c>
       <c r="B1054">
-        <v>33.46977173757584</v>
+        <v>33.46977173757585</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8814,7 +8814,7 @@
         <v>1053</v>
       </c>
       <c r="B1055">
-        <v>32.72436674919377</v>
+        <v>32.72436674919378</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8822,7 +8822,7 @@
         <v>1054</v>
       </c>
       <c r="B1056">
-        <v>32.72436674919377</v>
+        <v>32.72436674919378</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8862,7 +8862,7 @@
         <v>1059</v>
       </c>
       <c r="B1061">
-        <v>31.37974642361408</v>
+        <v>31.37974642361407</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8902,7 +8902,7 @@
         <v>1064</v>
       </c>
       <c r="B1066">
-        <v>32.17039629787442</v>
+        <v>32.17039629787443</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8910,7 +8910,7 @@
         <v>1065</v>
       </c>
       <c r="B1067">
-        <v>33.8328844790628</v>
+        <v>33.83288447906281</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8918,7 +8918,7 @@
         <v>1066</v>
       </c>
       <c r="B1068">
-        <v>36.58143017983958</v>
+        <v>36.58143017983959</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8958,7 +8958,7 @@
         <v>1071</v>
       </c>
       <c r="B1073">
-        <v>40.7059251351429</v>
+        <v>40.70592513514291</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8966,7 +8966,7 @@
         <v>1072</v>
       </c>
       <c r="B1074">
-        <v>39.89404080846632</v>
+        <v>39.89404080846633</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8974,7 +8974,7 @@
         <v>1073</v>
       </c>
       <c r="B1075">
-        <v>42.97487504560983</v>
+        <v>42.97487504560984</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8982,7 +8982,7 @@
         <v>1074</v>
       </c>
       <c r="B1076">
-        <v>43.96153802307356</v>
+        <v>43.96153802307357</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8990,7 +8990,7 @@
         <v>1075</v>
       </c>
       <c r="B1077">
-        <v>61.56255571546772</v>
+        <v>61.56255571546775</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -8998,7 +8998,7 @@
         <v>1076</v>
       </c>
       <c r="B1078">
-        <v>58.42234432530309</v>
+        <v>58.42234432530311</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9006,7 +9006,7 @@
         <v>1077</v>
       </c>
       <c r="B1079">
-        <v>55.55115073467937</v>
+        <v>55.5511507346794</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9014,7 +9014,7 @@
         <v>1078</v>
       </c>
       <c r="B1080">
-        <v>57.34987829732912</v>
+        <v>57.34987829732915</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9022,7 +9022,7 @@
         <v>1079</v>
       </c>
       <c r="B1081">
-        <v>61.00447537013235</v>
+        <v>61.00447537013238</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9030,7 +9030,7 @@
         <v>1080</v>
       </c>
       <c r="B1082">
-        <v>64.36921675969933</v>
+        <v>64.36921675969936</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9038,7 +9038,7 @@
         <v>1081</v>
       </c>
       <c r="B1083">
-        <v>64.44243776624819</v>
+        <v>64.44243776624822</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9046,7 +9046,7 @@
         <v>1082</v>
       </c>
       <c r="B1084">
-        <v>68.0578105873896</v>
+        <v>68.05781058738962</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9054,7 +9054,7 @@
         <v>1083</v>
       </c>
       <c r="B1085">
-        <v>82.77653076497629</v>
+        <v>82.77653076497634</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9062,7 +9062,7 @@
         <v>1084</v>
       </c>
       <c r="B1086">
-        <v>90.3759771625398</v>
+        <v>90.37597716253984</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9078,7 +9078,7 @@
         <v>1086</v>
       </c>
       <c r="B1088">
-        <v>138.6313604075749</v>
+        <v>138.631360407575</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9086,7 +9086,7 @@
         <v>1087</v>
       </c>
       <c r="B1089">
-        <v>175.3876928161645</v>
+        <v>175.3876928161646</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9094,7 +9094,7 @@
         <v>1088</v>
       </c>
       <c r="B1090">
-        <v>187.7091911279418</v>
+        <v>187.709191127942</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9102,7 +9102,7 @@
         <v>1089</v>
       </c>
       <c r="B1091">
-        <v>160.1850506440404</v>
+        <v>160.1850506440406</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9110,7 +9110,7 @@
         <v>1090</v>
       </c>
       <c r="B1092">
-        <v>134.0660612932007</v>
+        <v>134.0660612932008</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9118,7 +9118,7 @@
         <v>1091</v>
       </c>
       <c r="B1093">
-        <v>110.9962527852406</v>
+        <v>110.9962527852407</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9126,7 +9126,7 @@
         <v>1092</v>
       </c>
       <c r="B1094">
-        <v>107.5520173929951</v>
+        <v>107.5520173929952</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
